--- a/NoiceAndFakes/noice.xlsx
+++ b/NoiceAndFakes/noice.xlsx
@@ -501,7 +501,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D209"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D3" sqref="A1:V209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +546,7 @@
       </c>
       <c r="D2">
         <f ca="1">RSQ(B3:B459,D3:D459)</f>
-        <v>0.99461467979037232</v>
+        <v>0.99423355611915154</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -613,11 +613,11 @@
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D66" ca="1" si="0">B3+M3</f>
-        <v>29.220700000000001</v>
+        <v>29.21865</v>
       </c>
       <c r="E3" s="3">
         <f ca="1">RSQ(B3:B209,D3:D209)</f>
-        <v>0.99461467979037232</v>
+        <v>0.99423355611915154</v>
       </c>
       <c r="F3" s="5" t="e">
         <f>RSQ(B367:B459,D367:D459)</f>
@@ -634,30 +634,30 @@
       </c>
       <c r="J3">
         <f ca="1">IF(B3 &lt; 30, RANDBETWEEN(-100, 100) / 10000, RANDBETWEEN(-100,100) / 100)</f>
-        <v>-2.3E-3</v>
+        <v>-6.4999999999999997E-3</v>
       </c>
       <c r="K3">
         <f ca="1">IF(B3 &lt; 30, RANDBETWEEN(-100, 100) / 10000, RANDBETWEEN(-100,100) / 100)</f>
-        <v>1.2999999999999999E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="L3">
         <v>0.5</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M66" ca="1" si="1">(I3+J3+K3)*L3</f>
-        <v>1.0606999999999995</v>
+        <v>1.0586499999999994</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" ca="1" si="2">((D3/B3)-1)*100</f>
-        <v>3.7666903409090846</v>
+        <v>3.7594105113636367</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" ca="1" si="3">M3^2</f>
-        <v>1.125084489999999</v>
+        <v>1.1207398224999987</v>
       </c>
       <c r="P3">
         <f ca="1">SQRT(P110/997)</f>
-        <v>0.86703960655250556</v>
+        <v>0.89402944148218189</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -672,7 +672,7 @@
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>18.829049999999999</v>
+        <v>18.828900000000001</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
@@ -691,26 +691,26 @@
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J67" ca="1" si="6">IF(B4 &lt; 30, RANDBETWEEN(-100, 100) / 10000, RANDBETWEEN(-100,100) / 100)</f>
-        <v>2.3E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K67" ca="1" si="7">IF(B4 &lt; 30, RANDBETWEEN(-100, 100) / 10000, RANDBETWEEN(-100,100) / 100)</f>
-        <v>5.9999999999999995E-4</v>
+        <v>-2.3999999999999998E-3</v>
       </c>
       <c r="L4">
         <v>0.5</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25905000000000006</v>
+        <v>0.25890000000000007</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3949919224555574</v>
+        <v>1.3941841680129352</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="3"/>
-        <v>6.7106902500000024E-2</v>
+        <v>6.7029210000000033E-2</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -725,7 +725,7 @@
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>14.146100000000001</v>
+        <v>14.14485</v>
       </c>
       <c r="E5" s="3" t="e">
         <f>SQRT((SUM(#REF!)/169))</f>
@@ -746,26 +746,26 @@
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="6"/>
-        <v>-7.9000000000000008E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="7"/>
-        <v>7.4000000000000003E-3</v>
+        <v>-4.7999999999999996E-3</v>
       </c>
       <c r="L5">
         <v>0.5</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1138999999999997</v>
+        <v>-1.1151499999999999</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.2994757536041899</v>
+        <v>-7.3076671035386624</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2407732099999993</v>
+        <v>1.2435595224999998</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -780,7 +780,7 @@
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6433200000000001</v>
+        <v>7.6390700000000002</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -795,26 +795,26 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="6"/>
-        <v>6.1999999999999998E-3</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="7"/>
-        <v>2.8E-3</v>
+        <v>-8.8999999999999999E-3</v>
       </c>
       <c r="L6">
         <v>0.5</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.36667999999999984</v>
+        <v>-0.37092999999999987</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.5777777777777695</v>
+        <v>-4.630836454431952</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13445422239999988</v>
+        <v>0.13758906489999989</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -829,7 +829,7 @@
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>47.656950000000002</v>
+        <v>47.781950000000002</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -846,26 +846,26 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.69</v>
+        <v>-0.76</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="7"/>
-        <v>0.38</v>
+        <v>0.7</v>
       </c>
       <c r="L7">
         <v>0.5</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3330500000000025</v>
+        <v>-1.2080500000000023</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.7210655235762382</v>
+        <v>-2.4659114104919388</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7770223025000067</v>
+        <v>1.4593848025000056</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -880,7 +880,7 @@
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44.026600000000002</v>
+        <v>43.146599999999999</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
@@ -897,26 +897,26 @@
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.12</v>
+        <v>-0.98</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.5</v>
+        <v>-0.16</v>
       </c>
       <c r="L8">
         <v>0.5</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.55339999999999856</v>
+        <v>-1.4333999999999987</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.241363840287113</v>
+        <v>-3.2153432032301477</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30625155999999842</v>
+        <v>2.0546355599999964</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -931,7 +931,7 @@
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>32.917200000000001</v>
+        <v>33.172199999999997</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
@@ -950,26 +950,26 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="6"/>
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="7"/>
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="L9">
         <v>0.5</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2027999999999985</v>
+        <v>-0.94779999999999842</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.5252051582649324</v>
+        <v>-2.7778429073856969</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4467278399999965</v>
+        <v>0.89832483999999702</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -984,7 +984,7 @@
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>15.1221</v>
+        <v>15.1311</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
@@ -1001,26 +1001,26 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="6"/>
-        <v>-6.0000000000000001E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="7"/>
-        <v>-7.1000000000000004E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="L10">
         <v>0.5</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.11789999999999984</v>
+        <v>-0.10889999999999983</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.77362204724409356</v>
+        <v>-0.7145669291338641</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3900409999999962E-2</v>
+        <v>1.1859209999999964E-2</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>38.24</v>
+        <v>37.870000000000005</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
@@ -1054,26 +1054,26 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="6"/>
-        <v>0.82</v>
+        <v>0.95</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="7"/>
-        <v>0.17</v>
+        <v>-0.7</v>
       </c>
       <c r="L11">
         <v>0.5</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24000000000000099</v>
+        <v>-0.12999999999999901</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63157894736842746</v>
+        <v>-0.34210526315788803</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="3"/>
-        <v>5.7600000000000477E-2</v>
+        <v>1.6899999999999742E-2</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>35.493850000000002</v>
+        <v>34.938850000000002</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
@@ -1107,26 +1107,26 @@
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="6"/>
-        <v>0.39</v>
+        <v>-0.93</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.75</v>
+        <v>-0.54</v>
       </c>
       <c r="L12">
         <v>0.5</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.50614999999999832</v>
+        <v>-1.0611499999999985</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.4059722222222182</v>
+        <v>-2.9476388888888816</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25618782249999833</v>
+        <v>1.1260393224999967</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>12.186450000000001</v>
+        <v>12.19435</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
@@ -1158,26 +1158,26 @@
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="6"/>
-        <v>-3.3999999999999998E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="7"/>
-        <v>-6.9999999999999999E-4</v>
+        <v>5.3E-3</v>
       </c>
       <c r="L13">
         <v>0.5</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18645000000000034</v>
+        <v>0.19435000000000036</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5537499999999982</v>
+        <v>1.6195833333333409</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4763602500000129E-2</v>
+        <v>3.7771922500000138E-2</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45.226349999999996</v>
+        <v>45.70635</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1207,26 +1207,26 @@
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="6"/>
-        <v>0.03</v>
+        <v>-0.1</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.46</v>
+        <v>0.63</v>
       </c>
       <c r="L14">
         <v>0.5</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.77365000000000006</v>
+        <v>-0.29365000000000013</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.6818478260869685</v>
+        <v>-0.6383695652173893</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59853432250000005</v>
+        <v>8.6230322500000081E-2</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42.513249999999999</v>
+        <v>41.613250000000001</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1256,26 +1256,26 @@
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="6"/>
-        <v>0.21</v>
+        <v>-0.12</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="7"/>
-        <v>0.98</v>
+        <v>-0.49</v>
       </c>
       <c r="L15">
         <v>0.5</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0132500000000004</v>
+        <v>0.11325000000000046</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4415662650602465</v>
+        <v>0.2728915662650655</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0266755625000008</v>
+        <v>1.2825562500000104E-2</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36.496450000000003</v>
+        <v>36.54645</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1305,26 +1305,26 @@
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.06</v>
+        <v>-0.59</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.16</v>
+        <v>0.79</v>
       </c>
       <c r="L16">
         <v>0.5</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29644999999999938</v>
+        <v>0.34644999999999943</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81892265193370672</v>
+        <v>0.95704419889501846</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="3"/>
-        <v>8.7882602499999629E-2</v>
+        <v>0.12002760249999961</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>49.267899999999997</v>
+        <v>48.622900000000001</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1354,26 +1354,26 @@
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.27</v>
+        <v>-0.38</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="7"/>
-        <v>0.4</v>
+        <v>-0.24</v>
       </c>
       <c r="L17">
         <v>0.5</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.73209999999999997</v>
+        <v>-1.3771</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.4642000000000044</v>
+        <v>-2.7541999999999955</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53597041000000001</v>
+        <v>1.8964044099999999</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>39.274100000000004</v>
+        <v>39.204099999999997</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1403,26 +1403,26 @@
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.13</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.98</v>
+        <v>-0.69</v>
       </c>
       <c r="L18">
         <v>0.5</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.7258999999999993</v>
+        <v>-2.7958999999999996</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="2"/>
-        <v>-6.4902380952380874</v>
+        <v>-6.6569047619047694</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="3"/>
-        <v>7.430530809999996</v>
+        <v>7.8170568099999977</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>20.961549999999999</v>
+        <v>20.969750000000001</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1452,26 +1452,26 @@
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="6"/>
-        <v>-3.2000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="L19">
         <v>0.5</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.8449999999999381E-2</v>
+        <v>-3.0249999999999382E-2</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.18309523809524331</v>
+        <v>-0.14404761904761587</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4784024999999524E-3</v>
+        <v>9.1506249999996256E-4</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>32.914299999999997</v>
+        <v>33.609299999999998</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1501,26 +1501,26 @@
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.49</v>
+        <v>0.33</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.39</v>
+        <v>0.18</v>
       </c>
       <c r="L20">
         <v>0.5</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.5700000000001497E-2</v>
+        <v>0.60929999999999851</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.25969696969697642</v>
+        <v>1.8463636363636349</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3444900000002563E-3</v>
+        <v>0.37124648999999821</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>29.580400000000001</v>
+        <v>29.580349999999999</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1550,26 +1550,26 @@
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="6"/>
-        <v>1.9E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="7"/>
-        <v>8.3999999999999995E-3</v>
+        <v>0.01</v>
       </c>
       <c r="L21">
         <v>0.5</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58040000000000047</v>
+        <v>0.58035000000000048</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0013793103448307</v>
+        <v>2.0012068965517216</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33686416000000052</v>
+        <v>0.33680612250000053</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>12.857950000000001</v>
+        <v>12.8546</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1599,26 +1599,26 @@
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="6"/>
-        <v>1.6999999999999999E-3</v>
+        <v>-1.8E-3</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="7"/>
-        <v>-8.9999999999999998E-4</v>
+        <v>-4.1000000000000003E-3</v>
       </c>
       <c r="L22">
         <v>0.5</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35794999999999982</v>
+        <v>0.3545999999999998</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="2"/>
-        <v>2.8636000000000106</v>
+        <v>2.8367999999999949</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12812820249999987</v>
+        <v>0.12574115999999985</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>32.762300000000003</v>
+        <v>33.407299999999999</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1648,26 +1648,26 @@
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.74</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.04</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="L23">
         <v>0.5</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76230000000000031</v>
+        <v>1.4073000000000004</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="2"/>
-        <v>2.3821875000000103</v>
+        <v>4.3978124999999979</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58110129000000044</v>
+        <v>1.9804932900000012</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>30.833299999999998</v>
+        <v>30.827349999999999</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1697,26 +1697,26 @@
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="6"/>
-        <v>8.2000000000000007E-3</v>
+        <v>-7.7000000000000002E-3</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.01</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="L24">
         <v>0.5</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3332999999999993</v>
+        <v>1.3273499999999994</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="2"/>
-        <v>4.5196610169491391</v>
+        <v>4.4994915254237267</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7776888899999981</v>
+        <v>1.7618580224999982</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>28.7254</v>
+        <v>28.735900000000001</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1746,26 +1746,26 @@
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="6"/>
-        <v>-8.5000000000000006E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="7"/>
-        <v>1E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="L25">
         <v>0.5</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22540000000000063</v>
+        <v>0.23590000000000064</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79087719298245318</v>
+        <v>0.82771929824561052</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="3"/>
-        <v>5.080516000000028E-2</v>
+        <v>5.5648810000000298E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>35.894500000000001</v>
+        <v>36.104500000000002</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1795,26 +1795,26 @@
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.36</v>
+        <v>0.23</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="7"/>
-        <v>0.88</v>
+        <v>0.71</v>
       </c>
       <c r="L26">
         <v>0.5</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89449999999999918</v>
+        <v>1.1044999999999991</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5557142857142834</v>
+        <v>3.1557142857142839</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80013024999999849</v>
+        <v>1.2199202499999982</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>28.74625</v>
+        <v>28.75365</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1844,26 +1844,26 @@
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="6"/>
-        <v>-8.3000000000000001E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.4E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L27">
         <v>0.5</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.25375000000000075</v>
+        <v>-0.24635000000000079</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.87500000000000355</v>
+        <v>-0.84948275862068989</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="3"/>
-        <v>6.4389062500000385E-2</v>
+        <v>6.0688322500000391E-2</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="D28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>10.8048</v>
+        <v>10.81025</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1893,26 +1893,26 @@
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="6"/>
-        <v>-7.7999999999999996E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="7"/>
-        <v>-5.8999999999999999E-3</v>
+        <v>-8.8999999999999999E-3</v>
       </c>
       <c r="L28">
         <v>0.5</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.19519999999999979</v>
+        <v>-0.18974999999999981</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.7745454545454509</v>
+        <v>-1.7249999999999988</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="3"/>
-        <v>3.8103039999999921E-2</v>
+        <v>3.6005062499999928E-2</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>38.029350000000001</v>
+        <v>38.084350000000001</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1942,26 +1942,26 @@
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="6"/>
-        <v>0.77</v>
+        <v>-0.42</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.32</v>
+        <v>0.98</v>
       </c>
       <c r="L29">
         <v>0.5</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="1"/>
-        <v>2.934999999999946E-2</v>
+        <v>8.4349999999999481E-2</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="2"/>
-        <v>7.7236842105254944E-2</v>
+        <v>0.22197368421053021</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="3"/>
-        <v>8.6142249999996833E-4</v>
+        <v>7.1149224999999122E-3</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>34.995850000000004</v>
+        <v>35.705849999999998</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1991,26 +1991,26 @@
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="6"/>
-        <v>0.24</v>
+        <v>0.89</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.59</v>
+        <v>0.18</v>
       </c>
       <c r="L30">
         <v>0.5</v>
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.1499999999984882E-3</v>
+        <v>0.70585000000000153</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.1857142857130132E-2</v>
+        <v>2.0167142857142828</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7222499999987454E-5</v>
+        <v>0.49822422250000215</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>11.973650000000001</v>
+        <v>11.97705</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2040,26 +2040,26 @@
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="6"/>
-        <v>-6.4999999999999997E-3</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="7"/>
-        <v>7.4000000000000003E-3</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="L31">
         <v>0.5</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.6349999999999714E-2</v>
+        <v>-2.2949999999999714E-2</v>
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.21958333333332858</v>
+        <v>-0.19124999999999837</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="3"/>
-        <v>6.9432249999998492E-4</v>
+        <v>5.2670249999998682E-4</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="D32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>28.139949999999999</v>
+        <v>28.143349999999998</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2089,26 +2089,26 @@
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="6"/>
-        <v>-2E-3</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="7"/>
-        <v>-3.3E-3</v>
+        <v>-5.8999999999999999E-3</v>
       </c>
       <c r="L32">
         <v>0.5</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13994999999999982</v>
+        <v>0.14334999999999984</v>
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49982142857143419</v>
+        <v>0.51196428571427255</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9586002499999949E-2</v>
+        <v>2.0549222499999954E-2</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D33" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>27.04665</v>
+        <v>27.044650000000001</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2138,26 +2138,26 @@
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="6"/>
-        <v>3.5999999999999999E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="7"/>
-        <v>-6.1999999999999998E-3</v>
+        <v>-8.5000000000000006E-3</v>
       </c>
       <c r="L33">
         <v>0.5</v>
       </c>
       <c r="M33">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6650000000000164E-2</v>
+        <v>4.4650000000000162E-2</v>
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17277777777777725</v>
+        <v>0.16537037037036573</v>
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1762225000000151E-3</v>
+        <v>1.9936225000000145E-3</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="D34" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>21.405349999999999</v>
+        <v>21.403600000000001</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2187,26 +2187,26 @@
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="6"/>
-        <v>1E-3</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="7"/>
-        <v>-3.5000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0.5</v>
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40534999999999921</v>
+        <v>0.40359999999999918</v>
       </c>
       <c r="N34">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9302380952380904</v>
+        <v>1.9219047619047691</v>
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16430862249999936</v>
+        <v>0.16289295999999934</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="D35" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>83.265950000000004</v>
+        <v>82.495950000000008</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2236,26 +2236,26 @@
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="6"/>
-        <v>0.37</v>
+        <v>-0.04</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="7"/>
-        <v>0.47</v>
+        <v>-0.66</v>
       </c>
       <c r="L35">
         <v>0.5</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79595000000000315</v>
+        <v>2.5950000000003082E-2</v>
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96513883836546466</v>
+        <v>3.1465987631884573E-2</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63353640250000498</v>
+        <v>6.734025000001599E-4</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="D36" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>22.4572</v>
+        <v>22.46245</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2285,26 +2285,26 @@
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="6"/>
-        <v>-7.7000000000000002E-3</v>
+        <v>-2.0999999999999999E-3</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.4E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="L36">
         <v>0.5</v>
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42719999999999919</v>
+        <v>0.43244999999999917</v>
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9391738538356851</v>
+        <v>1.9630049931911087</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1824998399999993</v>
+        <v>0.18701300249999928</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="D37" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>84.8977</v>
+        <v>84.402699999999996</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2334,26 +2334,26 @@
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="6"/>
-        <v>0.65</v>
+        <v>0.24</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="7"/>
-        <v>0.61</v>
+        <v>0.03</v>
       </c>
       <c r="L37">
         <v>0.5</v>
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75769999999999726</v>
+        <v>0.26269999999999727</v>
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90052293796054617</v>
+        <v>0.31221773235083905</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57410928999999589</v>
+        <v>6.901128999999856E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="D38" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>69.889049999999997</v>
+        <v>69.664050000000003</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2383,26 +2383,26 @@
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="6"/>
-        <v>0.02</v>
+        <v>-0.47</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="7"/>
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="L38">
         <v>0.5</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89905000000000368</v>
+        <v>0.6740500000000037</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3031598782432319</v>
+        <v>0.97702565589217194</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80829090250000657</v>
+        <v>0.45434340250000499</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="D39" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>75.405450000000002</v>
+        <v>75.330449999999999</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2432,26 +2432,26 @@
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="6"/>
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.4</v>
+        <v>-0.53</v>
       </c>
       <c r="L39">
         <v>0.5</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2145500000000056</v>
+        <v>-1.2895500000000055</v>
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.5851605324980422</v>
+        <v>-1.6830462020360315</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4751317025000135</v>
+        <v>1.6629392025000143</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="D40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>86.555800000000005</v>
+        <v>86.3108</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2481,26 +2481,26 @@
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="6"/>
-        <v>0.93</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="7"/>
-        <v>0.18</v>
+        <v>0.91</v>
       </c>
       <c r="L40">
         <v>0.5</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3458000000000045</v>
+        <v>1.1008000000000044</v>
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5793920901302716</v>
+        <v>1.2918671517427649</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8111776400000121</v>
+        <v>1.2117606400000098</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="D41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>77.409049999999993</v>
+        <v>78.054050000000004</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2530,26 +2530,26 @@
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="6"/>
-        <v>0.77</v>
+        <v>0.47</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.6</v>
+        <v>0.99</v>
       </c>
       <c r="L41">
         <v>0.5</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7109500000000049</v>
+        <v>-1.0659500000000048</v>
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.1624747219413654</v>
+        <v>-1.3472573306370084</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9273499025000165</v>
+        <v>1.1362494025000103</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="D42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>51.047599999999996</v>
+        <v>50.267600000000002</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2579,26 +2579,26 @@
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18</v>
+        <v>-0.82</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="7"/>
-        <v>0.78</v>
+        <v>0.22</v>
       </c>
       <c r="L42">
         <v>0.5</v>
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.2400000000000677E-2</v>
+        <v>-0.84240000000000059</v>
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.12208961064371637</v>
+        <v>-1.6482097436900767</v>
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="3"/>
-        <v>3.8937600000000846E-3</v>
+        <v>0.70963776000000101</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="D43" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>47.164549999999998</v>
+        <v>47.739550000000001</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2628,26 +2628,26 @@
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.13</v>
+        <v>0.69</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="7"/>
-        <v>0.06</v>
+        <v>0.39</v>
       </c>
       <c r="L43">
         <v>0.5</v>
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.22545000000000201</v>
+        <v>0.34954999999999797</v>
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.47573327706267321</v>
+        <v>0.73760286980375511</v>
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0827702500000904E-2</v>
+        <v>0.12218520249999858</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="D44" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>20.87875</v>
+        <v>20.886050000000001</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2677,26 +2677,26 @@
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="6"/>
-        <v>-9.7000000000000003E-3</v>
+        <v>-2.8E-3</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="7"/>
-        <v>-2.5999999999999999E-3</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="L44">
         <v>0.5</v>
       </c>
       <c r="M44">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0587499999999999</v>
+        <v>2.0660499999999997</v>
       </c>
       <c r="N44">
         <f t="shared" ca="1" si="2"/>
-        <v>10.939160467587673</v>
+        <v>10.977948990435715</v>
       </c>
       <c r="O44">
         <f t="shared" ca="1" si="3"/>
-        <v>4.238451562499999</v>
+        <v>4.2685626024999985</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="D45" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>86.525500000000008</v>
+        <v>86.595500000000001</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2726,26 +2726,26 @@
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.53</v>
+        <v>-0.01</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.25</v>
+        <v>-0.63</v>
       </c>
       <c r="L45">
         <v>0.5</v>
       </c>
       <c r="M45">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.084499999999998</v>
+        <v>-1.014499999999998</v>
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.2378723889966747</v>
+        <v>-1.1579728341513551</v>
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1761402499999958</v>
+        <v>1.0292102499999958</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="D46" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>71.157749999999993</v>
+        <v>70.952749999999995</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2775,26 +2775,26 @@
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="6"/>
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="7"/>
-        <v>0.83</v>
+        <v>-0.12</v>
       </c>
       <c r="L46">
         <v>0.5</v>
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2177499999999992</v>
+        <v>2.0127499999999992</v>
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="2"/>
-        <v>3.2169277632724036</v>
+        <v>2.9195677400638109</v>
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="3"/>
-        <v>4.9184150624999967</v>
+        <v>4.0511625624999965</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="D47" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>88.9255</v>
+        <v>89.3005</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2824,26 +2824,26 @@
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.61</v>
+        <v>-0.49</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.9</v>
+        <v>-0.27</v>
       </c>
       <c r="L47">
         <v>0.5</v>
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.6744999999999992</v>
+        <v>-1.2994999999999994</v>
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.8482339955849802</v>
+        <v>-1.434326710816769</v>
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8039502499999975</v>
+        <v>1.6887002499999986</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="D48" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>76.332499999999996</v>
+        <v>76.4375</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2873,26 +2873,26 @@
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.68</v>
+        <v>0.26</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="7"/>
-        <v>0.94</v>
+        <v>0.21</v>
       </c>
       <c r="L48">
         <v>0.5</v>
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62249999999999961</v>
+        <v>0.7274999999999997</v>
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82221635186898734</v>
+        <v>0.96090344736494693</v>
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3875062499999995</v>
+        <v>0.52925624999999954</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="D49" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>51.080999999999996</v>
+        <v>50.945999999999998</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2922,26 +2922,26 @@
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.11</v>
+        <v>0.38</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.04</v>
+        <v>-0.8</v>
       </c>
       <c r="L49">
         <v>0.5</v>
       </c>
       <c r="M49">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.8999999999998633E-2</v>
+        <v>-0.17399999999999866</v>
       </c>
       <c r="N49">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.6291079812207396E-2</v>
+        <v>-0.34037558685445779</v>
       </c>
       <c r="O49">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5209999999998933E-3</v>
+        <v>3.0275999999999532E-2</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="D50" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>77.132499999999993</v>
+        <v>77.207499999999996</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2971,26 +2971,26 @@
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="6"/>
-        <v>0.33</v>
+        <v>-0.48</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.98</v>
+        <v>-0.02</v>
       </c>
       <c r="L50">
         <v>0.5</v>
       </c>
       <c r="M50">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0875000000000028</v>
+        <v>-1.0125000000000028</v>
       </c>
       <c r="N50">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.3903093837893232</v>
+        <v>-1.2944259780107381</v>
       </c>
       <c r="O50">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1826562500000062</v>
+        <v>1.0251562500000058</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -3005,7 +3005,7 @@
       </c>
       <c r="D51" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>26.353149999999999</v>
+        <v>26.353549999999998</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -3020,26 +3020,26 @@
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="6"/>
-        <v>-2.9999999999999997E-4</v>
+        <v>2E-3</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="7"/>
-        <v>0.01</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="L51">
         <v>0.5</v>
       </c>
       <c r="M51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63315000000000121</v>
+        <v>0.63355000000000117</v>
       </c>
       <c r="N51">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4617029548989144</v>
+        <v>2.4632581648522445</v>
       </c>
       <c r="O51">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40087892250000151</v>
+        <v>0.40138560250000149</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="D52" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>95.325800000000001</v>
+        <v>95.210800000000006</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -3069,26 +3069,26 @@
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.65</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.66</v>
+        <v>-0.97</v>
       </c>
       <c r="L52">
         <v>0.5</v>
       </c>
       <c r="M52">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.47419999999999507</v>
+        <v>-0.58919999999999506</v>
       </c>
       <c r="N52">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.49498956158663399</v>
+        <v>-0.6150313152400777</v>
       </c>
       <c r="O52">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22486563999999531</v>
+        <v>0.34715663999999419</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="D53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>57.870950000000001</v>
+        <v>58.765949999999997</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -3118,26 +3118,26 @@
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.24</v>
+        <v>0.89</v>
       </c>
       <c r="L53">
         <v>0.5</v>
       </c>
       <c r="M53">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.9050000000000575E-2</v>
+        <v>0.86594999999999944</v>
       </c>
       <c r="N53">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.0172711571672135E-2</v>
+        <v>1.4955958549222714</v>
       </c>
       <c r="O53">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4390250000003345E-4</v>
+        <v>0.749869402499999</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="D54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>38.857600000000005</v>
+        <v>37.927599999999998</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -3167,26 +3167,26 @@
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="6"/>
-        <v>0.92</v>
+        <v>-0.61</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="7"/>
-        <v>0.51</v>
+        <v>0.18</v>
       </c>
       <c r="L54">
         <v>0.5</v>
       </c>
       <c r="M54">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1423999999999985</v>
+        <v>-2.0723999999999987</v>
       </c>
       <c r="N54">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.8559999999999919</v>
+        <v>-5.1810000000000027</v>
       </c>
       <c r="O54">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3050777599999965</v>
+        <v>4.2948417599999944</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="D55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>21.689899999999998</v>
+        <v>21.681999999999999</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -3216,26 +3216,26 @@
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="6"/>
-        <v>-2.8999999999999998E-3</v>
+        <v>-7.6E-3</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="7"/>
-        <v>7.3000000000000001E-3</v>
+        <v>-3.8E-3</v>
       </c>
       <c r="L55">
         <v>0.5</v>
       </c>
       <c r="M55">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3898999999999988</v>
+        <v>0.38199999999999878</v>
       </c>
       <c r="N55">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8305164319248668</v>
+        <v>1.79342723004694</v>
       </c>
       <c r="O55">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15202200999999907</v>
+        <v>0.14592399999999908</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="D56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>114.5685</v>
+        <v>114.7735</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -3265,26 +3265,26 @@
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="6"/>
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.27</v>
+        <v>0.05</v>
       </c>
       <c r="L56">
         <v>0.5</v>
       </c>
       <c r="M56">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16849999999999427</v>
+        <v>0.37349999999999428</v>
       </c>
       <c r="N56">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14729020979020735</v>
+        <v>0.32648601398601595</v>
       </c>
       <c r="O56">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8392249999998068E-2</v>
+        <v>0.13950224999999572</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -3299,7 +3299,7 @@
       </c>
       <c r="D57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>84.029949999999999</v>
+        <v>83.994950000000003</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -3314,26 +3314,26 @@
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="6"/>
-        <v>0.85</v>
+        <v>0.42</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.6</v>
+        <v>-0.24</v>
       </c>
       <c r="L57">
         <v>0.5</v>
       </c>
       <c r="M57">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.77004999999999768</v>
+        <v>-0.80504999999999771</v>
       </c>
       <c r="N57">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.90807783018868049</v>
+        <v>-0.94935141509433496</v>
       </c>
       <c r="O57">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59297700249999641</v>
+        <v>0.64810550249999632</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="D58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>38.99145</v>
+        <v>38.67145</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -3363,26 +3363,26 @@
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="6"/>
-        <v>0.13</v>
+        <v>-0.43</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="7"/>
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="L58">
         <v>0.5</v>
       </c>
       <c r="M58">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1914500000000006</v>
+        <v>1.8714500000000007</v>
       </c>
       <c r="N58">
         <f t="shared" ca="1" si="2"/>
-        <v>5.9550271739130523</v>
+        <v>5.0854619565217529</v>
       </c>
       <c r="O58">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8024531025000021</v>
+        <v>3.5023251025000026</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -3397,7 +3397,7 @@
       </c>
       <c r="D59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>115.5975</v>
+        <v>114.98249999999999</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -3412,26 +3412,26 @@
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.34</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="7"/>
-        <v>0.6</v>
+        <v>-0.83</v>
       </c>
       <c r="L59">
         <v>0.5</v>
       </c>
       <c r="M59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49749999999999972</v>
+        <v>-0.11750000000000027</v>
       </c>
       <c r="N59">
         <f t="shared" ca="1" si="2"/>
-        <v>0.432232841007818</v>
+        <v>-0.10208514335361407</v>
       </c>
       <c r="O59">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24750624999999973</v>
+        <v>1.3806250000000063E-2</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="D60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>71.430399999999992</v>
+        <v>71.5154</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3461,26 +3461,26 @@
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.18</v>
+        <v>-0.51</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L60">
         <v>0.5</v>
       </c>
       <c r="M60">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0696000000000034</v>
+        <v>-1.9846000000000035</v>
       </c>
       <c r="N60">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.8157823129251858</v>
+        <v>-2.7001360544217645</v>
       </c>
       <c r="O60">
         <f t="shared" ca="1" si="3"/>
-        <v>4.283244160000014</v>
+        <v>3.9386371600000136</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="D61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>25.839700000000001</v>
+        <v>25.844550000000002</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3510,26 +3510,26 @@
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="6"/>
-        <v>-7.0000000000000001E-3</v>
+        <v>-5.4000000000000003E-3</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="7"/>
-        <v>-6.6E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="L61">
         <v>0.5</v>
       </c>
       <c r="M61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33970000000000067</v>
+        <v>0.34455000000000069</v>
       </c>
       <c r="N61">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3321568627451041</v>
+        <v>1.3511764705882445</v>
       </c>
       <c r="O61">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11539609000000045</v>
+        <v>0.11871470250000048</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="D62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>132.65450000000001</v>
+        <v>132.21950000000001</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3559,26 +3559,26 @@
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="6"/>
-        <v>0.26</v>
+        <v>-0.54</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.69</v>
+        <v>-0.76</v>
       </c>
       <c r="L62">
         <v>0.5</v>
       </c>
       <c r="M62">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.94549999999999212</v>
+        <v>-1.3804999999999921</v>
       </c>
       <c r="N62">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.70770958083831159</v>
+        <v>-1.0333083832335221</v>
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89397024999998509</v>
+        <v>1.9057802499999781</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="D63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>98.927149999999997</v>
+        <v>98.477149999999995</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3608,26 +3608,26 @@
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="6"/>
-        <v>0.79</v>
+        <v>-0.18</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="7"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L63">
         <v>0.5</v>
       </c>
       <c r="M63">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82715000000000349</v>
+        <v>0.37715000000000348</v>
       </c>
       <c r="N63">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84317023445463768</v>
+        <v>0.3844546381243541</v>
       </c>
       <c r="O63">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68417712250000573</v>
+        <v>0.14224212250000262</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="D64" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>83.059900000000013</v>
+        <v>82.889900000000011</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3657,26 +3657,26 @@
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.32</v>
+        <v>-0.36</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.32</v>
+        <v>-0.62</v>
       </c>
       <c r="L64">
         <v>0.5</v>
       </c>
       <c r="M64">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.8400999999999992</v>
+        <v>-2.0100999999999991</v>
       </c>
       <c r="N64">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.1673733804475792</v>
+        <v>-2.3676089517078891</v>
       </c>
       <c r="O64">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3859680099999969</v>
+        <v>4.0405020099999964</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="D65" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>56.599350000000001</v>
+        <v>55.63935</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3706,26 +3706,26 @@
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="6"/>
-        <v>0.52</v>
+        <v>-0.99</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="7"/>
-        <v>0.36</v>
+        <v>-0.05</v>
       </c>
       <c r="L65">
         <v>0.5</v>
       </c>
       <c r="M65">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.60065000000000301</v>
+        <v>-1.560650000000003</v>
       </c>
       <c r="N65">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.0500874125874193</v>
+        <v>-2.7284090909090897</v>
       </c>
       <c r="O65">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36078042250000364</v>
+        <v>2.4356284225000091</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="D66" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>55.928350000000002</v>
+        <v>56.423349999999999</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3755,26 +3755,26 @@
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.02</v>
+        <v>0.36</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.37</v>
+        <v>0.24</v>
       </c>
       <c r="L66">
         <v>0.5</v>
       </c>
       <c r="M66">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0716500000000013</v>
+        <v>-1.5766500000000017</v>
       </c>
       <c r="N66">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.5718103448275862</v>
+        <v>-2.7183620689655186</v>
       </c>
       <c r="O66">
         <f t="shared" ca="1" si="3"/>
-        <v>4.2917337225000054</v>
+        <v>2.4858252225000053</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="D67" s="4">
         <f t="shared" ref="D67:D130" ca="1" si="8">B67+M67</f>
-        <v>47.573050000000002</v>
+        <v>46.693049999999999</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3804,26 +3804,26 @@
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="6"/>
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="7"/>
-        <v>0.79</v>
+        <v>-0.88</v>
       </c>
       <c r="L67">
         <v>0.5</v>
       </c>
       <c r="M67">
         <f t="shared" ref="M67:M130" ca="1" si="9">(I67+J67+K67)*L67</f>
-        <v>0.37304999999999738</v>
+        <v>-0.50695000000000268</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N130" ca="1" si="10">((D67/B67)-1)*100</f>
-        <v>0.79036016949152188</v>
+        <v>-1.074046610169499</v>
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O130" ca="1" si="11">M67^2</f>
-        <v>0.13916630249999803</v>
+        <v>0.25699830250000272</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="D68" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>38.508899999999997</v>
+        <v>38.093899999999998</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3853,26 +3853,26 @@
       </c>
       <c r="J68">
         <f t="shared" ref="J68:J131" ca="1" si="14">IF(B68 &lt; 30, RANDBETWEEN(-100, 100) / 10000, RANDBETWEEN(-100,100) / 100)</f>
-        <v>-0.59</v>
+        <v>-0.24</v>
       </c>
       <c r="K68">
         <f t="shared" ref="K68:K131" ca="1" si="15">IF(B68 &lt; 30, RANDBETWEEN(-100, 100) / 10000, RANDBETWEEN(-100,100) / 100)</f>
-        <v>0.18</v>
+        <v>-1</v>
       </c>
       <c r="L68">
         <v>0.5</v>
       </c>
       <c r="M68">
         <f t="shared" ca="1" si="9"/>
-        <v>2.0088999999999988</v>
+        <v>1.5938999999999988</v>
       </c>
       <c r="N68">
         <f t="shared" ca="1" si="10"/>
-        <v>5.5038356164383462</v>
+        <v>4.3668493150684773</v>
       </c>
       <c r="O68">
         <f t="shared" ca="1" si="11"/>
-        <v>4.0356792099999952</v>
+        <v>2.540517209999996</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -3887,7 +3887,7 @@
       </c>
       <c r="D69" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>27.756150000000002</v>
+        <v>27.746749999999999</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3902,26 +3902,26 @@
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="14"/>
-        <v>3.3E-3</v>
+        <v>-7.7999999999999996E-3</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="15"/>
-        <v>-1.6999999999999999E-3</v>
+        <v>-9.4000000000000004E-3</v>
       </c>
       <c r="L69">
         <v>0.5</v>
       </c>
       <c r="M69">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.54385000000000072</v>
+        <v>-0.5532500000000008</v>
       </c>
       <c r="N69">
         <f t="shared" ca="1" si="10"/>
-        <v>-1.921731448763242</v>
+        <v>-1.9549469964664334</v>
       </c>
       <c r="O69">
         <f t="shared" ca="1" si="11"/>
-        <v>0.29577282250000081</v>
+        <v>0.30608556250000091</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="D70" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>49.009050000000002</v>
+        <v>48.789050000000003</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3951,26 +3951,26 @@
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.21</v>
+        <v>-0.05</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.33</v>
+        <v>-0.93</v>
       </c>
       <c r="L70">
         <v>0.5</v>
       </c>
       <c r="M70">
         <f t="shared" ca="1" si="9"/>
-        <v>9.0500000000015846E-3</v>
+        <v>-0.21094999999999847</v>
       </c>
       <c r="N70">
         <f t="shared" ca="1" si="10"/>
-        <v>1.846938775511564E-2</v>
+        <v>-0.43051020408162444</v>
       </c>
       <c r="O70">
         <f t="shared" ca="1" si="11"/>
-        <v>8.1902500000028674E-5</v>
+        <v>4.4499902499999355E-2</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
@@ -3985,7 +3985,7 @@
       </c>
       <c r="D71" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>25.249400000000001</v>
+        <v>25.237449999999999</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -4000,26 +4000,26 @@
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="14"/>
-        <v>8.6E-3</v>
+        <v>-9.1000000000000004E-3</v>
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="15"/>
-        <v>4.1000000000000003E-3</v>
+        <v>-2.0999999999999999E-3</v>
       </c>
       <c r="L71">
         <v>0.5</v>
       </c>
       <c r="M71">
         <f t="shared" ca="1" si="9"/>
-        <v>2.2494000000000005</v>
+        <v>2.2374499999999999</v>
       </c>
       <c r="N71">
         <f t="shared" ca="1" si="10"/>
-        <v>9.7800000000000118</v>
+        <v>9.7280434782608616</v>
       </c>
       <c r="O71">
         <f t="shared" ca="1" si="11"/>
-        <v>5.0598003600000023</v>
+        <v>5.0061825024999997</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="D72" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1.9660675000000001</v>
+        <v>1.9599674999999999</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -4049,26 +4049,26 @@
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="14"/>
-        <v>5.1000000000000004E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="15"/>
-        <v>-2.0999999999999999E-3</v>
+        <v>-6.1999999999999998E-3</v>
       </c>
       <c r="L72">
         <v>0.5</v>
       </c>
       <c r="M72">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.0339324999999999</v>
+        <v>-1.0400325000000001</v>
       </c>
       <c r="N72">
         <f t="shared" ca="1" si="10"/>
-        <v>-34.464416666666665</v>
+        <v>-34.667750000000005</v>
       </c>
       <c r="O72">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0690164145562497</v>
+        <v>1.0816676010562503</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="D73" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>52.174749999999996</v>
+        <v>53.02975</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -4098,26 +4098,26 @@
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.93</v>
+        <v>-0.22</v>
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.94</v>
+        <v>0.06</v>
       </c>
       <c r="L73">
         <v>0.5</v>
       </c>
       <c r="M73">
         <f t="shared" ca="1" si="9"/>
-        <v>0.17474999999999818</v>
+        <v>1.0297499999999982</v>
       </c>
       <c r="N73">
         <f t="shared" ca="1" si="10"/>
-        <v>0.33605769230768967</v>
+        <v>1.9802884615384597</v>
       </c>
       <c r="O73">
         <f t="shared" ca="1" si="11"/>
-        <v>3.0537562499999366E-2</v>
+        <v>1.0603850624999962</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="D74" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>54.191400000000002</v>
+        <v>54.796399999999998</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -4147,26 +4147,26 @@
       </c>
       <c r="J74">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.37</v>
+        <v>0.79</v>
       </c>
       <c r="K74">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.89</v>
+        <v>-0.84</v>
       </c>
       <c r="L74">
         <v>0.5</v>
       </c>
       <c r="M74">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1914000000000005</v>
+        <v>1.7964000000000007</v>
       </c>
       <c r="N74">
         <f t="shared" ca="1" si="10"/>
-        <v>2.2479245283018923</v>
+        <v>3.3894339622641434</v>
       </c>
       <c r="O74">
         <f t="shared" ca="1" si="11"/>
-        <v>1.419433960000001</v>
+        <v>3.2270529600000022</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="D75" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>29.048449999999999</v>
+        <v>29.0535</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -4196,26 +4196,26 @@
       </c>
       <c r="J75">
         <f t="shared" ca="1" si="14"/>
-        <v>9.1000000000000004E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="K75">
         <f t="shared" ca="1" si="15"/>
-        <v>-9.7999999999999997E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="L75">
         <v>0.5</v>
       </c>
       <c r="M75">
         <f t="shared" ca="1" si="9"/>
-        <v>2.0484499999999999</v>
+        <v>2.0535000000000001</v>
       </c>
       <c r="N75">
         <f t="shared" ca="1" si="10"/>
-        <v>7.5868518518518391</v>
+        <v>7.6055555555555543</v>
       </c>
       <c r="O75">
         <f t="shared" ca="1" si="11"/>
-        <v>4.1961474024999994</v>
+        <v>4.2168622500000001</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="D76" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>12.67835</v>
+        <v>12.674250000000001</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -4245,26 +4245,26 @@
       </c>
       <c r="J76">
         <f t="shared" ca="1" si="14"/>
-        <v>-9.4999999999999998E-3</v>
+        <v>-2.8999999999999998E-3</v>
       </c>
       <c r="K76">
         <f t="shared" ca="1" si="15"/>
-        <v>4.7999999999999996E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="L76">
         <v>0.5</v>
       </c>
       <c r="M76">
         <f t="shared" ca="1" si="9"/>
-        <v>1.6783499999999998</v>
+        <v>1.67425</v>
       </c>
       <c r="N76">
         <f t="shared" ca="1" si="10"/>
-        <v>15.257727272727273</v>
+        <v>15.220454545454555</v>
       </c>
       <c r="O76">
         <f t="shared" ca="1" si="11"/>
-        <v>2.8168587224999992</v>
+        <v>2.8031130625</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="D77" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>5.1745850000000004</v>
+        <v>5.1696349999999995</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -4294,26 +4294,26 @@
       </c>
       <c r="J77">
         <f t="shared" ca="1" si="14"/>
-        <v>6.4999999999999997E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="K77">
         <f t="shared" ca="1" si="15"/>
-        <v>-1.9E-3</v>
+        <v>-7.7000000000000002E-3</v>
       </c>
       <c r="L77">
         <v>0.5</v>
       </c>
       <c r="M77">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.82541500000000001</v>
+        <v>-0.83036500000000002</v>
       </c>
       <c r="N77">
         <f t="shared" ca="1" si="10"/>
-        <v>-13.756916666666664</v>
+        <v>-13.83941666666667</v>
       </c>
       <c r="O77">
         <f t="shared" ca="1" si="11"/>
-        <v>0.68130992222499998</v>
+        <v>0.68950603322500004</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="D78" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>58.533549999999998</v>
+        <v>58.693550000000002</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -4343,26 +4343,26 @@
       </c>
       <c r="J78">
         <f t="shared" ca="1" si="14"/>
-        <v>0.08</v>
+        <v>0.48</v>
       </c>
       <c r="K78">
         <f t="shared" ca="1" si="15"/>
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="L78">
         <v>0.5</v>
       </c>
       <c r="M78">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5335499999999986</v>
+        <v>1.6935499999999986</v>
       </c>
       <c r="N78">
         <f t="shared" ca="1" si="10"/>
-        <v>2.6904385964912292</v>
+        <v>2.9711403508771994</v>
       </c>
       <c r="O78">
         <f t="shared" ca="1" si="11"/>
-        <v>2.3517756024999956</v>
+        <v>2.8681116024999951</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
@@ -4377,7 +4377,7 @@
       </c>
       <c r="D79" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>64.250749999999996</v>
+        <v>63.150750000000002</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -4392,26 +4392,26 @@
       </c>
       <c r="J79">
         <f t="shared" ca="1" si="14"/>
-        <v>0.26</v>
+        <v>-0.78</v>
       </c>
       <c r="K79">
         <f t="shared" ca="1" si="15"/>
-        <v>0.17</v>
+        <v>-0.99</v>
       </c>
       <c r="L79">
         <v>0.5</v>
       </c>
       <c r="M79">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.74925</v>
+        <v>-2.8492500000000001</v>
       </c>
       <c r="N79">
         <f t="shared" ca="1" si="10"/>
-        <v>-2.6503787878787932</v>
+        <v>-4.317045454545454</v>
       </c>
       <c r="O79">
         <f t="shared" ca="1" si="11"/>
-        <v>3.0598755624999998</v>
+        <v>8.118225562500001</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="D80" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>20.805800000000001</v>
+        <v>20.813649999999999</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -4441,26 +4441,26 @@
       </c>
       <c r="J80">
         <f t="shared" ca="1" si="14"/>
-        <v>-7.3000000000000001E-3</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="K80">
         <f t="shared" ca="1" si="15"/>
-        <v>1.5E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="L80">
         <v>0.5</v>
       </c>
       <c r="M80">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.19420000000000001</v>
+        <v>-0.18635000000000002</v>
       </c>
       <c r="N80">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.9247619047618949</v>
+        <v>-0.88738095238095616</v>
       </c>
       <c r="O80">
         <f t="shared" ca="1" si="11"/>
-        <v>3.7713640000000007E-2</v>
+        <v>3.4726322500000004E-2</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
@@ -4475,7 +4475,7 @@
       </c>
       <c r="D81" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>11.0318</v>
+        <v>11.026949999999999</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -4490,26 +4490,26 @@
       </c>
       <c r="J81">
         <f t="shared" ca="1" si="14"/>
-        <v>3.3E-3</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="K81">
         <f t="shared" ca="1" si="15"/>
-        <v>1.5E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="L81">
         <v>0.5</v>
       </c>
       <c r="M81">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.96820000000000006</v>
+        <v>-0.97305000000000008</v>
       </c>
       <c r="N81">
         <f t="shared" ca="1" si="10"/>
-        <v>-8.0683333333333334</v>
+        <v>-8.1087500000000095</v>
       </c>
       <c r="O81">
         <f t="shared" ca="1" si="11"/>
-        <v>0.93741124000000009</v>
+        <v>0.94682630250000011</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="D82" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>65.627300000000005</v>
+        <v>66.002300000000005</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -4539,26 +4539,26 @@
       </c>
       <c r="J82">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.6</v>
+        <v>0.25</v>
       </c>
       <c r="K82">
         <f t="shared" ca="1" si="15"/>
-        <v>0.54</v>
+        <v>0.44</v>
       </c>
       <c r="L82">
         <v>0.5</v>
       </c>
       <c r="M82">
         <f t="shared" ca="1" si="9"/>
-        <v>1.6272999999999993</v>
+        <v>2.0022999999999995</v>
       </c>
       <c r="N82">
         <f t="shared" ca="1" si="10"/>
-        <v>2.5426562500000083</v>
+        <v>3.1285937500000083</v>
       </c>
       <c r="O82">
         <f t="shared" ca="1" si="11"/>
-        <v>2.6481052899999979</v>
+        <v>4.0092052899999979</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="D83" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>73.224599999999995</v>
+        <v>73.8596</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -4588,26 +4588,26 @@
       </c>
       <c r="J83">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.75</v>
+        <v>0.65</v>
       </c>
       <c r="K83">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.47</v>
+        <v>-0.6</v>
       </c>
       <c r="L83">
         <v>0.5</v>
       </c>
       <c r="M83">
         <f t="shared" ca="1" si="9"/>
-        <v>-4.7753999999999985</v>
+        <v>-4.1403999999999979</v>
       </c>
       <c r="N83">
         <f t="shared" ca="1" si="10"/>
-        <v>-6.1223076923076931</v>
+        <v>-5.3082051282051239</v>
       </c>
       <c r="O83">
         <f t="shared" ca="1" si="11"/>
-        <v>22.804445159999986</v>
+        <v>17.142912159999984</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="D84" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>61.6081</v>
+        <v>62.868099999999998</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -4637,26 +4637,26 @@
       </c>
       <c r="J84">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.88</v>
+        <v>0.97</v>
       </c>
       <c r="K84">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.75</v>
+        <v>-0.08</v>
       </c>
       <c r="L84">
         <v>0.5</v>
       </c>
       <c r="M84">
         <f t="shared" ca="1" si="9"/>
-        <v>-3.3918999999999984</v>
+        <v>-2.1318999999999986</v>
       </c>
       <c r="N84">
         <f t="shared" ca="1" si="10"/>
-        <v>-5.2183076923076888</v>
+        <v>-3.2798461538461554</v>
       </c>
       <c r="O84">
         <f t="shared" ca="1" si="11"/>
-        <v>11.50498560999999</v>
+        <v>4.544997609999994</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="D85" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>40.794049999999999</v>
+        <v>40.544049999999999</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -4686,26 +4686,26 @@
       </c>
       <c r="J85">
         <f t="shared" ca="1" si="14"/>
-        <v>0.67</v>
+        <v>0.41</v>
       </c>
       <c r="K85">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.59</v>
+        <v>-0.83</v>
       </c>
       <c r="L85">
         <v>0.5</v>
       </c>
       <c r="M85">
         <f t="shared" ca="1" si="9"/>
-        <v>3.7940499999999995</v>
+        <v>3.5440499999999995</v>
       </c>
       <c r="N85">
         <f t="shared" ca="1" si="10"/>
-        <v>10.254189189189189</v>
+        <v>9.57851351351351</v>
       </c>
       <c r="O85">
         <f t="shared" ca="1" si="11"/>
-        <v>14.394815402499995</v>
+        <v>12.560290402499996</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="D86" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>37.673299999999998</v>
+        <v>37.408299999999997</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -4735,26 +4735,26 @@
       </c>
       <c r="J86">
         <f t="shared" ca="1" si="14"/>
-        <v>0.92</v>
+        <v>0.27</v>
       </c>
       <c r="K86">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L86">
         <v>0.5</v>
       </c>
       <c r="M86">
         <f t="shared" ca="1" si="9"/>
-        <v>0.17330000000000043</v>
+        <v>-9.169999999999956E-2</v>
       </c>
       <c r="N86">
         <f t="shared" ca="1" si="10"/>
-        <v>0.46213333333333662</v>
+        <v>-0.24453333333334104</v>
       </c>
       <c r="O86">
         <f t="shared" ca="1" si="11"/>
-        <v>3.0032890000000149E-2</v>
+        <v>8.4088899999999189E-3</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
@@ -4769,7 +4769,7 @@
       </c>
       <c r="D87" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>31.74475</v>
+        <v>31.364750000000001</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -4784,26 +4784,26 @@
       </c>
       <c r="J87">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.09</v>
+        <v>-0.24</v>
       </c>
       <c r="K87">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.34</v>
+        <v>-0.95</v>
       </c>
       <c r="L87">
         <v>0.5</v>
       </c>
       <c r="M87">
         <f t="shared" ca="1" si="9"/>
-        <v>0.24474999999999966</v>
+        <v>-0.13525000000000031</v>
       </c>
       <c r="N87">
         <f t="shared" ca="1" si="10"/>
-        <v>0.776984126984126</v>
+        <v>-0.42936507936507384</v>
       </c>
       <c r="O87">
         <f t="shared" ca="1" si="11"/>
-        <v>5.9902562499999833E-2</v>
+        <v>1.8292562500000085E-2</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="D88" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>30.48725</v>
+        <v>30.496199999999998</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -4833,26 +4833,26 @@
       </c>
       <c r="J88">
         <f t="shared" ca="1" si="14"/>
-        <v>-5.5999999999999999E-3</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="K88">
         <f t="shared" ca="1" si="15"/>
-        <v>-3.8E-3</v>
+        <v>-2.0000000000000001E-4</v>
       </c>
       <c r="L88">
         <v>0.5</v>
       </c>
       <c r="M88">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0872500000000007</v>
+        <v>1.0962000000000007</v>
       </c>
       <c r="N88">
         <f t="shared" ca="1" si="10"/>
-        <v>3.698129251700677</v>
+        <v>3.7285714285714366</v>
       </c>
       <c r="O88">
         <f t="shared" ca="1" si="11"/>
-        <v>1.1821125625000015</v>
+        <v>1.2016544400000015</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D89" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>34.104500000000002</v>
+        <v>34.459499999999998</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -4882,26 +4882,26 @@
       </c>
       <c r="J89">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.05</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K89">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.42</v>
+        <v>-0.33</v>
       </c>
       <c r="L89">
         <v>0.5</v>
       </c>
       <c r="M89">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.59550000000000181</v>
+        <v>-0.24050000000000185</v>
       </c>
       <c r="N89">
         <f t="shared" ca="1" si="10"/>
-        <v>-1.7161383285302589</v>
+        <v>-0.69308357348704108</v>
       </c>
       <c r="O89">
         <f t="shared" ca="1" si="11"/>
-        <v>0.35462025000000214</v>
+        <v>5.7840250000000891E-2</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
@@ -4916,7 +4916,7 @@
       </c>
       <c r="D90" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>46.050150000000002</v>
+        <v>46.625149999999998</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -4931,26 +4931,26 @@
       </c>
       <c r="J90">
         <f t="shared" ca="1" si="14"/>
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="K90">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.97</v>
+        <v>0.1</v>
       </c>
       <c r="L90">
         <v>0.5</v>
       </c>
       <c r="M90">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5501500000000008</v>
+        <v>2.1251500000000005</v>
       </c>
       <c r="N90">
         <f t="shared" ca="1" si="10"/>
-        <v>3.4834831460674121</v>
+        <v>4.7756179775280794</v>
       </c>
       <c r="O90">
         <f t="shared" ca="1" si="11"/>
-        <v>2.4029650225000023</v>
+        <v>4.5162625225000026</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -4965,7 +4965,7 @@
       </c>
       <c r="D91" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>46.171500000000002</v>
+        <v>45.661500000000004</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -4980,26 +4980,26 @@
       </c>
       <c r="J91">
         <f t="shared" ca="1" si="14"/>
-        <v>0.6</v>
+        <v>-0.35</v>
       </c>
       <c r="K91">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="L91">
         <v>0.5</v>
       </c>
       <c r="M91">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.32849999999999879</v>
+        <v>-0.83849999999999891</v>
       </c>
       <c r="N91">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.706451612903225</v>
+        <v>-1.8032258064516027</v>
       </c>
       <c r="O91">
         <f t="shared" ca="1" si="11"/>
-        <v>0.10791224999999921</v>
+        <v>0.70308224999999813</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="D92" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>46.399899999999995</v>
+        <v>47.024899999999995</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -5029,26 +5029,26 @@
       </c>
       <c r="J92">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.36</v>
+        <v>-0.19</v>
       </c>
       <c r="K92">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.26</v>
+        <v>0.82</v>
       </c>
       <c r="L92">
         <v>0.5</v>
       </c>
       <c r="M92">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.5001000000000011</v>
+        <v>-1.8751000000000013</v>
       </c>
       <c r="N92">
         <f t="shared" ca="1" si="10"/>
-        <v>-5.1126789366053194</v>
+        <v>-3.8345603271983664</v>
       </c>
       <c r="O92">
         <f t="shared" ca="1" si="11"/>
-        <v>6.2505000100000059</v>
+        <v>3.5160000100000048</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
@@ -5063,7 +5063,7 @@
       </c>
       <c r="D93" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>80.497900000000001</v>
+        <v>80.537899999999993</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -5078,26 +5078,26 @@
       </c>
       <c r="J93">
         <f t="shared" ca="1" si="14"/>
-        <v>0.11</v>
+        <v>-0.1</v>
       </c>
       <c r="K93">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L93">
         <v>0.5</v>
       </c>
       <c r="M93">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.10209999999999694</v>
+        <v>-6.2099999999996935E-2</v>
       </c>
       <c r="N93">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.12667493796525431</v>
+        <v>-7.7047146401987288E-2</v>
       </c>
       <c r="O93">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0424409999999376E-2</v>
+        <v>3.8564099999996194E-3</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
@@ -5112,7 +5112,7 @@
       </c>
       <c r="D94" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>78.917900000000003</v>
+        <v>79.127899999999997</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -5127,26 +5127,26 @@
       </c>
       <c r="J94">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.71</v>
+        <v>-0.88</v>
       </c>
       <c r="K94">
         <f t="shared" ca="1" si="15"/>
-        <v>0.03</v>
+        <v>0.62</v>
       </c>
       <c r="L94">
         <v>0.5</v>
       </c>
       <c r="M94">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.5821000000000007</v>
+        <v>-1.3721000000000005</v>
       </c>
       <c r="N94">
         <f t="shared" ca="1" si="10"/>
-        <v>-1.9653416149068237</v>
+        <v>-1.7044720496894428</v>
       </c>
       <c r="O94">
         <f t="shared" ca="1" si="11"/>
-        <v>2.5030404100000023</v>
+        <v>1.8826584100000014</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="D95" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>72.841949999999997</v>
+        <v>72.966949999999997</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -5176,26 +5176,26 @@
       </c>
       <c r="J95">
         <f t="shared" ca="1" si="14"/>
-        <v>0.09</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K95">
         <f t="shared" ca="1" si="15"/>
-        <v>0.01</v>
+        <v>-0.21</v>
       </c>
       <c r="L95">
         <v>0.5</v>
       </c>
       <c r="M95">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0419500000000026</v>
+        <v>5.1669500000000026</v>
       </c>
       <c r="N95">
         <f t="shared" ca="1" si="10"/>
-        <v>7.4365044247787671</v>
+        <v>7.6208702064896716</v>
       </c>
       <c r="O95">
         <f t="shared" ca="1" si="11"/>
-        <v>25.421259802500025</v>
+        <v>26.697372302500028</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="D96" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>77.745350000000002</v>
+        <v>78.905349999999999</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -5225,26 +5225,26 @@
       </c>
       <c r="J96">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.72</v>
+        <v>0.64</v>
       </c>
       <c r="K96">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.18</v>
+        <v>0.78</v>
       </c>
       <c r="L96">
         <v>0.5</v>
       </c>
       <c r="M96">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.1546500000000008</v>
+        <v>5.3499999999991332E-3</v>
       </c>
       <c r="N96">
         <f t="shared" ca="1" si="10"/>
-        <v>-1.4634347275031767</v>
+        <v>6.7807351077142641E-3</v>
       </c>
       <c r="O96">
         <f t="shared" ca="1" si="11"/>
-        <v>1.3332166225000019</v>
+        <v>2.8622499999990726E-5</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="D97" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>81.853549999999998</v>
+        <v>81.38355</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -5274,26 +5274,26 @@
       </c>
       <c r="J97">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.43</v>
+        <v>-0.63</v>
       </c>
       <c r="K97">
         <f t="shared" ca="1" si="15"/>
-        <v>0.95</v>
+        <v>0.21</v>
       </c>
       <c r="L97">
         <v>0.5</v>
       </c>
       <c r="M97">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.8464500000000021</v>
+        <v>-2.3164500000000023</v>
       </c>
       <c r="N97">
         <f t="shared" ca="1" si="10"/>
-        <v>-2.2060334528076542</v>
+        <v>-2.7675627240143386</v>
       </c>
       <c r="O97">
         <f t="shared" ca="1" si="11"/>
-        <v>3.4093776025000078</v>
+        <v>5.3659406025000109</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="D98" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>86.816950000000006</v>
+        <v>87.271950000000004</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -5323,26 +5323,26 @@
       </c>
       <c r="J98">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.23</v>
+        <v>-0.15</v>
       </c>
       <c r="K98">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.61</v>
+        <v>0.22</v>
       </c>
       <c r="L98">
         <v>0.5</v>
       </c>
       <c r="M98">
         <f t="shared" ca="1" si="9"/>
-        <v>1.7169500000000057</v>
+        <v>2.1719500000000056</v>
       </c>
       <c r="N98">
         <f t="shared" ca="1" si="10"/>
-        <v>2.0175675675675908</v>
+        <v>2.5522326674500606</v>
       </c>
       <c r="O98">
         <f t="shared" ca="1" si="11"/>
-        <v>2.9479173025000196</v>
+        <v>4.7173668025000239</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
@@ -5357,7 +5357,7 @@
       </c>
       <c r="D99" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>86.799599999999998</v>
+        <v>86.864599999999996</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -5372,26 +5372,26 @@
       </c>
       <c r="J99">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.96</v>
+        <v>0</v>
       </c>
       <c r="K99">
         <f t="shared" ca="1" si="15"/>
-        <v>0.48</v>
+        <v>-0.35</v>
       </c>
       <c r="L99">
         <v>0.5</v>
       </c>
       <c r="M99">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5995999999999972</v>
+        <v>1.6645999999999972</v>
       </c>
       <c r="N99">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8774647887323859</v>
+        <v>1.9537558685445822</v>
       </c>
       <c r="O99">
         <f t="shared" ca="1" si="11"/>
-        <v>2.5587201599999911</v>
+        <v>2.7708931599999906</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="D100" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>92.645749999999992</v>
+        <v>92.360749999999996</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -5421,26 +5421,26 @@
       </c>
       <c r="J100">
         <f t="shared" ca="1" si="14"/>
-        <v>0.94</v>
+        <v>0.18</v>
       </c>
       <c r="K100">
         <f t="shared" ca="1" si="15"/>
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
       <c r="L100">
         <v>0.5</v>
       </c>
       <c r="M100">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.9542499999999998</v>
+        <v>-2.2392499999999997</v>
       </c>
       <c r="N100">
         <f t="shared" ca="1" si="10"/>
-        <v>-2.0658033826638444</v>
+        <v>-2.3670718816067637</v>
       </c>
       <c r="O100">
         <f t="shared" ca="1" si="11"/>
-        <v>3.8190930624999995</v>
+        <v>5.0142405624999986</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="D101" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>97.918300000000002</v>
+        <v>97.7483</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -5470,26 +5470,26 @@
       </c>
       <c r="J101">
         <f t="shared" ca="1" si="14"/>
-        <v>0.31</v>
+        <v>0.1</v>
       </c>
       <c r="K101">
         <f t="shared" ca="1" si="15"/>
-        <v>0.67</v>
+        <v>0.54</v>
       </c>
       <c r="L101">
         <v>0.5</v>
       </c>
       <c r="M101">
         <f t="shared" ca="1" si="9"/>
-        <v>-3.3816999999999973</v>
+        <v>-3.5516999999999972</v>
       </c>
       <c r="N101">
         <f t="shared" ca="1" si="10"/>
-        <v>-3.3383020730503365</v>
+        <v>-3.5061204343533992</v>
       </c>
       <c r="O101">
         <f t="shared" ca="1" si="11"/>
-        <v>11.435894889999981</v>
+        <v>12.61457288999998</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="D102" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>72.633250000000004</v>
+        <v>72.588250000000002</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -5519,26 +5519,26 @@
       </c>
       <c r="J102">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.78</v>
+        <v>0.9</v>
       </c>
       <c r="K102">
         <f t="shared" ca="1" si="15"/>
-        <v>0.89</v>
+        <v>-0.88</v>
       </c>
       <c r="L102">
         <v>0.5</v>
       </c>
       <c r="M102">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.6667500000000004</v>
+        <v>-2.7117499999999999</v>
       </c>
       <c r="N102">
         <f t="shared" ca="1" si="10"/>
-        <v>-3.5415006640106106</v>
+        <v>-3.6012616201859138</v>
       </c>
       <c r="O102">
         <f t="shared" ca="1" si="11"/>
-        <v>7.1115555625000022</v>
+        <v>7.3535880624999992</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="D103" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>36.188600000000001</v>
+        <v>36.803600000000003</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -5568,26 +5568,26 @@
       </c>
       <c r="J103">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.85</v>
+        <v>-0.17</v>
       </c>
       <c r="K103">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.34</v>
+        <v>0.21</v>
       </c>
       <c r="L103">
         <v>0.5</v>
       </c>
       <c r="M103">
         <f t="shared" ca="1" si="9"/>
-        <v>0.78860000000000119</v>
+        <v>1.4036000000000013</v>
       </c>
       <c r="N103">
         <f t="shared" ca="1" si="10"/>
-        <v>2.2276836158192204</v>
+        <v>3.9649717514124383</v>
       </c>
       <c r="O103">
         <f t="shared" ca="1" si="11"/>
-        <v>0.62188996000000185</v>
+        <v>1.9700929600000037</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="D104" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>74.852000000000004</v>
+        <v>74.432000000000002</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -5617,26 +5617,26 @@
       </c>
       <c r="J104">
         <f t="shared" ca="1" si="14"/>
-        <v>0.01</v>
+        <v>0.38</v>
       </c>
       <c r="K104">
         <f t="shared" ca="1" si="15"/>
-        <v>0.89</v>
+        <v>-0.32</v>
       </c>
       <c r="L104">
         <v>0.5</v>
       </c>
       <c r="M104">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.34800000000000181</v>
+        <v>-0.7680000000000019</v>
       </c>
       <c r="N104">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.46276595744680904</v>
+        <v>-1.0212765957446801</v>
       </c>
       <c r="O104">
         <f t="shared" ca="1" si="11"/>
-        <v>0.12110400000000125</v>
+        <v>0.5898240000000029</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
@@ -5651,7 +5651,7 @@
       </c>
       <c r="D105" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>73.543399999999991</v>
+        <v>73.313400000000001</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -5666,26 +5666,26 @@
       </c>
       <c r="J105">
         <f t="shared" ca="1" si="14"/>
-        <v>0.5</v>
+        <v>0.79</v>
       </c>
       <c r="K105">
         <f t="shared" ca="1" si="15"/>
-        <v>0.78</v>
+        <v>0.03</v>
       </c>
       <c r="L105">
         <v>0.5</v>
       </c>
       <c r="M105">
         <f t="shared" ca="1" si="9"/>
-        <v>0.24340000000000062</v>
+        <v>1.340000000000062E-2</v>
       </c>
       <c r="N105">
         <f t="shared" ca="1" si="10"/>
-        <v>0.3320600272851193</v>
+        <v>1.8281036834921771E-2</v>
       </c>
       <c r="O105">
         <f t="shared" ca="1" si="11"/>
-        <v>5.9243560000000299E-2</v>
+        <v>1.7956000000001661E-4</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="D106" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.104399999999998</v>
+        <v>61.254399999999997</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -5715,26 +5715,26 @@
       </c>
       <c r="J106">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.69</v>
+        <v>0.92</v>
       </c>
       <c r="K106">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.66</v>
+        <v>0.03</v>
       </c>
       <c r="L106">
         <v>0.5</v>
       </c>
       <c r="M106">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.29559999999999959</v>
+        <v>0.85440000000000038</v>
       </c>
       <c r="N106">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.48940397350993869</v>
+        <v>1.4145695364238486</v>
       </c>
       <c r="O106">
         <f t="shared" ca="1" si="11"/>
-        <v>8.7379359999999753E-2</v>
+        <v>0.72999936000000065</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="D107" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>41.191700000000004</v>
+        <v>40.466700000000003</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -5764,26 +5764,26 @@
       </c>
       <c r="J107">
         <f t="shared" ca="1" si="14"/>
-        <v>0.13</v>
+        <v>-0.52</v>
       </c>
       <c r="K107">
         <f t="shared" ca="1" si="15"/>
-        <v>0.02</v>
+        <v>-0.78</v>
       </c>
       <c r="L107">
         <v>0.5</v>
       </c>
       <c r="M107">
         <f t="shared" ca="1" si="9"/>
-        <v>1.9916999999999987</v>
+        <v>1.2666999999999988</v>
       </c>
       <c r="N107">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0808673469387777</v>
+        <v>3.231377551020409</v>
       </c>
       <c r="O107">
         <f t="shared" ca="1" si="11"/>
-        <v>3.9668688899999949</v>
+        <v>1.604528889999997</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="D108" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>74.43265000000001</v>
+        <v>74.792650000000009</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -5813,26 +5813,26 @@
       </c>
       <c r="J108">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.69</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K108">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.65</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="L108">
         <v>0.5</v>
       </c>
       <c r="M108">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.2673499999999986</v>
+        <v>-0.90734999999999877</v>
       </c>
       <c r="N108">
         <f t="shared" ca="1" si="10"/>
-        <v>-1.6741743725231073</v>
+        <v>-1.1986129458388284</v>
       </c>
       <c r="O108">
         <f t="shared" ca="1" si="11"/>
-        <v>1.6061760224999966</v>
+        <v>0.82328402249999777</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
@@ -5847,7 +5847,7 @@
       </c>
       <c r="D109" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>75.785550000000001</v>
+        <v>74.885549999999995</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -5862,26 +5862,26 @@
       </c>
       <c r="J109">
         <f t="shared" ca="1" si="14"/>
-        <v>0.96</v>
+        <v>0.25</v>
       </c>
       <c r="K109">
         <f t="shared" ca="1" si="15"/>
-        <v>0.85</v>
+        <v>-0.24</v>
       </c>
       <c r="L109">
         <v>0.5</v>
       </c>
       <c r="M109">
         <f t="shared" ca="1" si="9"/>
-        <v>0.38554999999999379</v>
+        <v>-0.51445000000000618</v>
       </c>
       <c r="N109">
         <f t="shared" ca="1" si="10"/>
-        <v>0.51133952254640569</v>
+        <v>-0.68229442970824117</v>
       </c>
       <c r="O109">
         <f t="shared" ca="1" si="11"/>
-        <v>0.14864880249999521</v>
+        <v>0.26465880250000634</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="D110" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>36.122100000000003</v>
+        <v>35.742100000000001</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -5911,30 +5911,30 @@
       </c>
       <c r="J110">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.67</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K110">
         <f t="shared" ca="1" si="15"/>
-        <v>0.69</v>
+        <v>-0.67</v>
       </c>
       <c r="L110">
         <v>0.5</v>
       </c>
       <c r="M110">
         <f t="shared" ca="1" si="9"/>
-        <v>1.9220999999999988</v>
+        <v>1.5420999999999989</v>
       </c>
       <c r="N110">
         <f t="shared" ca="1" si="10"/>
-        <v>5.6201754385964975</v>
+        <v>4.5090643274853681</v>
       </c>
       <c r="O110">
         <f t="shared" ca="1" si="11"/>
-        <v>3.6944684099999954</v>
+        <v>2.3780724099999966</v>
       </c>
       <c r="P110">
         <f ca="1">SUM(O3:O459)</f>
-        <v>749.50240629273139</v>
+        <v>796.89077631023122</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
@@ -5949,7 +5949,7 @@
       </c>
       <c r="D111" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>32.821800000000003</v>
+        <v>32.031799999999997</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -5964,26 +5964,26 @@
       </c>
       <c r="J111">
         <f t="shared" ca="1" si="14"/>
-        <v>0.71</v>
+        <v>-0.16</v>
       </c>
       <c r="K111">
         <f t="shared" ca="1" si="15"/>
-        <v>0.08</v>
+        <v>-0.63</v>
       </c>
       <c r="L111">
         <v>0.5</v>
       </c>
       <c r="M111">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2217999999999987</v>
+        <v>0.43179999999999868</v>
       </c>
       <c r="N111">
         <f t="shared" ca="1" si="10"/>
-        <v>3.866455696202542</v>
+        <v>1.3664556962025065</v>
       </c>
       <c r="O111">
         <f t="shared" ca="1" si="11"/>
-        <v>1.4927952399999966</v>
+        <v>0.18645123999999885</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="D112" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>44.897300000000001</v>
+        <v>44.552300000000002</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -6013,26 +6013,26 @@
       </c>
       <c r="J112">
         <f t="shared" ca="1" si="14"/>
-        <v>0.94</v>
+        <v>-0.7</v>
       </c>
       <c r="K112">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.46</v>
+        <v>0.49</v>
       </c>
       <c r="L112">
         <v>0.5</v>
       </c>
       <c r="M112">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4973000000000007</v>
+        <v>1.1523000000000008</v>
       </c>
       <c r="N112">
         <f t="shared" ca="1" si="10"/>
-        <v>3.4499999999999975</v>
+        <v>2.6550691244239699</v>
       </c>
       <c r="O112">
         <f t="shared" ca="1" si="11"/>
-        <v>2.2419072900000021</v>
+        <v>1.3277952900000018</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.3">
@@ -6047,7 +6047,7 @@
       </c>
       <c r="D113" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>53.691400000000002</v>
+        <v>53.446400000000004</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -6062,26 +6062,26 @@
       </c>
       <c r="J113">
         <f t="shared" ca="1" si="14"/>
-        <v>0.43</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="K113">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.97</v>
+        <v>-0.47</v>
       </c>
       <c r="L113">
         <v>0.5</v>
       </c>
       <c r="M113">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.3085999999999989</v>
+        <v>-1.553599999999999</v>
       </c>
       <c r="N113">
         <f t="shared" ca="1" si="10"/>
-        <v>-2.3792727272727299</v>
+        <v>-2.8247272727272676</v>
       </c>
       <c r="O113">
         <f t="shared" ca="1" si="11"/>
-        <v>1.7124339599999971</v>
+        <v>2.4136729599999969</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
@@ -6096,7 +6096,7 @@
       </c>
       <c r="D114" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>52.615300000000005</v>
+        <v>53.095300000000002</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -6111,26 +6111,26 @@
       </c>
       <c r="J114">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.47</v>
+        <v>-0.09</v>
       </c>
       <c r="K114">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.17</v>
+        <v>0.41</v>
       </c>
       <c r="L114">
         <v>0.5</v>
       </c>
       <c r="M114">
         <f t="shared" ca="1" si="9"/>
-        <v>0.41529999999999873</v>
+        <v>0.89529999999999865</v>
       </c>
       <c r="N114">
         <f t="shared" ca="1" si="10"/>
-        <v>0.79559386973180324</v>
+        <v>1.7151340996168551</v>
       </c>
       <c r="O114">
         <f t="shared" ca="1" si="11"/>
-        <v>0.17247408999999894</v>
+        <v>0.80156208999999756</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
@@ -6145,7 +6145,7 @@
       </c>
       <c r="D115" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>30.788</v>
+        <v>31.567999999999998</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -6160,26 +6160,26 @@
       </c>
       <c r="J115">
         <f t="shared" ca="1" si="14"/>
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="K115">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.77</v>
+        <v>0.87</v>
       </c>
       <c r="L115">
         <v>0.5</v>
       </c>
       <c r="M115">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.71200000000000041</v>
+        <v>6.7999999999999616E-2</v>
       </c>
       <c r="N115">
         <f t="shared" ca="1" si="10"/>
-        <v>-2.2603174603174625</v>
+        <v>0.21587301587300267</v>
       </c>
       <c r="O115">
         <f t="shared" ca="1" si="11"/>
-        <v>0.50694400000000062</v>
+        <v>4.6239999999999476E-3</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
@@ -6194,7 +6194,7 @@
       </c>
       <c r="D116" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>70.007850000000005</v>
+        <v>69.237850000000009</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -6209,26 +6209,26 @@
       </c>
       <c r="J116">
         <f t="shared" ca="1" si="14"/>
-        <v>0.83</v>
+        <v>-0.49</v>
       </c>
       <c r="K116">
         <f t="shared" ca="1" si="15"/>
-        <v>0.51</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L116">
         <v>0.5</v>
       </c>
       <c r="M116">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.99214999999999687</v>
+        <v>-1.762149999999997</v>
       </c>
       <c r="N116">
         <f t="shared" ca="1" si="10"/>
-        <v>-1.3973943661971799</v>
+        <v>-2.481901408450693</v>
       </c>
       <c r="O116">
         <f t="shared" ca="1" si="11"/>
-        <v>0.98436162249999382</v>
+        <v>3.1051726224999894</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.3">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="D117" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>62.399250000000002</v>
+        <v>63.03425</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -6258,26 +6258,26 @@
       </c>
       <c r="J117">
         <f t="shared" ca="1" si="14"/>
-        <v>0.02</v>
+        <v>0.66</v>
       </c>
       <c r="K117">
         <f t="shared" ca="1" si="15"/>
-        <v>0.23</v>
+        <v>0.86</v>
       </c>
       <c r="L117">
         <v>0.5</v>
       </c>
       <c r="M117">
         <f t="shared" ca="1" si="9"/>
-        <v>4.3992500000000021</v>
+        <v>5.0342500000000019</v>
       </c>
       <c r="N117">
         <f t="shared" ca="1" si="10"/>
-        <v>7.5849137931034427</v>
+        <v>8.679741379310336</v>
       </c>
       <c r="O117">
         <f t="shared" ca="1" si="11"/>
-        <v>19.353400562500017</v>
+        <v>25.34367306250002</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.3">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="D118" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>65.474800000000002</v>
+        <v>65.174800000000005</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -6307,26 +6307,26 @@
       </c>
       <c r="J118">
         <f t="shared" ca="1" si="14"/>
-        <v>0.98</v>
+        <v>-0.8</v>
       </c>
       <c r="K118">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.71</v>
+        <v>0.47</v>
       </c>
       <c r="L118">
         <v>0.5</v>
       </c>
       <c r="M118">
         <f t="shared" ca="1" si="9"/>
-        <v>7.4799999999998201E-2</v>
+        <v>-0.22520000000000184</v>
       </c>
       <c r="N118">
         <f t="shared" ca="1" si="10"/>
-        <v>0.11437308868500473</v>
+        <v>-0.34434250764525665</v>
       </c>
       <c r="O118">
         <f t="shared" ca="1" si="11"/>
-        <v>5.595039999999731E-3</v>
+        <v>5.0715040000000829E-2</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.3">
@@ -6341,7 +6341,7 @@
       </c>
       <c r="D119" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>59.095349999999996</v>
+        <v>58.085349999999998</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -6356,26 +6356,26 @@
       </c>
       <c r="J119">
         <f t="shared" ca="1" si="14"/>
-        <v>0.28000000000000003</v>
+        <v>-0.38</v>
       </c>
       <c r="K119">
         <f t="shared" ca="1" si="15"/>
-        <v>0.65</v>
+        <v>-0.71</v>
       </c>
       <c r="L119">
         <v>0.5</v>
       </c>
       <c r="M119">
         <f t="shared" ca="1" si="9"/>
-        <v>-3.8046499999999988</v>
+        <v>-4.8146499999999985</v>
       </c>
       <c r="N119">
         <f t="shared" ca="1" si="10"/>
-        <v>-6.0487281399046129</v>
+        <v>-7.6544515103338595</v>
       </c>
       <c r="O119">
         <f t="shared" ca="1" si="11"/>
-        <v>14.475361622499991</v>
+        <v>23.180854622499986</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.3">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="D120" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>21.976300000000002</v>
+        <v>21.967850000000002</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -6405,26 +6405,26 @@
       </c>
       <c r="J120">
         <f t="shared" ca="1" si="14"/>
-        <v>1.8E-3</v>
+        <v>-5.5999999999999999E-3</v>
       </c>
       <c r="K120">
         <f t="shared" ca="1" si="15"/>
-        <v>4.7999999999999996E-3</v>
+        <v>-4.7000000000000002E-3</v>
       </c>
       <c r="L120">
         <v>0.5</v>
       </c>
       <c r="M120">
         <f t="shared" ca="1" si="9"/>
-        <v>0.97630000000000072</v>
+        <v>0.96785000000000077</v>
       </c>
       <c r="N120">
         <f t="shared" ca="1" si="10"/>
-        <v>4.6490476190476304</v>
+        <v>4.6088095238095317</v>
       </c>
       <c r="O120">
         <f t="shared" ca="1" si="11"/>
-        <v>0.95316169000000139</v>
+        <v>0.93673362250000147</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
@@ -6439,7 +6439,7 @@
       </c>
       <c r="D121" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>54.893349999999998</v>
+        <v>54.568350000000002</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -6454,26 +6454,26 @@
       </c>
       <c r="J121">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.72</v>
+        <v>0.34</v>
       </c>
       <c r="K121">
         <f t="shared" ca="1" si="15"/>
-        <v>0.74</v>
+        <v>-0.97</v>
       </c>
       <c r="L121">
         <v>0.5</v>
       </c>
       <c r="M121">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5933500000000032</v>
+        <v>1.268350000000003</v>
       </c>
       <c r="N121">
         <f t="shared" ca="1" si="10"/>
-        <v>2.9893996247654764</v>
+        <v>2.3796435272045224</v>
       </c>
       <c r="O121">
         <f t="shared" ca="1" si="11"/>
-        <v>2.53876422250001</v>
+        <v>1.6087117225000076</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
@@ -6488,7 +6488,7 @@
       </c>
       <c r="D122" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>48.311299999999996</v>
+        <v>48.206299999999999</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -6503,26 +6503,26 @@
       </c>
       <c r="J122">
         <f t="shared" ca="1" si="14"/>
-        <v>0.57999999999999996</v>
+        <v>-0.12</v>
       </c>
       <c r="K122">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.69</v>
+        <v>-0.2</v>
       </c>
       <c r="L122">
         <v>0.5</v>
       </c>
       <c r="M122">
         <f t="shared" ca="1" si="9"/>
-        <v>1.811299999999999</v>
+        <v>1.7062999999999988</v>
       </c>
       <c r="N122">
         <f t="shared" ca="1" si="10"/>
-        <v>3.8952688172043004</v>
+        <v>3.6694623655914027</v>
       </c>
       <c r="O122">
         <f t="shared" ca="1" si="11"/>
-        <v>3.2808076899999965</v>
+        <v>2.911459689999996</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
@@ -6537,7 +6537,7 @@
       </c>
       <c r="D123" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>63.006300000000003</v>
+        <v>62.971299999999999</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -6552,26 +6552,26 @@
       </c>
       <c r="J123">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.89</v>
+        <v>-0.92</v>
       </c>
       <c r="K123">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.85</v>
+        <v>-0.89</v>
       </c>
       <c r="L123">
         <v>0.5</v>
       </c>
       <c r="M123">
         <f t="shared" ca="1" si="9"/>
-        <v>0.20630000000000331</v>
+        <v>0.17130000000000339</v>
       </c>
       <c r="N123">
         <f t="shared" ca="1" si="10"/>
-        <v>0.32850318471338014</v>
+        <v>0.27277070063693731</v>
       </c>
       <c r="O123">
         <f t="shared" ca="1" si="11"/>
-        <v>4.2559690000001364E-2</v>
+        <v>2.9343690000001164E-2</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.3">
@@ -6586,7 +6586,7 @@
       </c>
       <c r="D124" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>63.707149999999999</v>
+        <v>63.757150000000003</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -6601,26 +6601,26 @@
       </c>
       <c r="J124">
         <f t="shared" ca="1" si="14"/>
-        <v>0.28000000000000003</v>
+        <v>-0.6</v>
       </c>
       <c r="K124">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.9</v>
+        <v>0.08</v>
       </c>
       <c r="L124">
         <v>0.5</v>
       </c>
       <c r="M124">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.99285000000000201</v>
+        <v>-0.94285000000000196</v>
       </c>
       <c r="N124">
         <f t="shared" ca="1" si="10"/>
-        <v>-1.5345440494590523</v>
+        <v>-1.457264296754246</v>
       </c>
       <c r="O124">
         <f t="shared" ca="1" si="11"/>
-        <v>0.98575112250000396</v>
+        <v>0.88896612250000373</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.3">
@@ -6635,7 +6635,7 @@
       </c>
       <c r="D125" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>22.547499999999999</v>
+        <v>22.558350000000001</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -6650,26 +6650,26 @@
       </c>
       <c r="J125">
         <f t="shared" ca="1" si="14"/>
-        <v>-3.2000000000000002E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="K125">
         <f t="shared" ca="1" si="15"/>
-        <v>-7.4000000000000003E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="L125">
         <v>0.5</v>
       </c>
       <c r="M125">
         <f t="shared" ca="1" si="9"/>
-        <v>0.74749999999999872</v>
+        <v>0.75834999999999875</v>
       </c>
       <c r="N125">
         <f t="shared" ca="1" si="10"/>
-        <v>3.4288990825688037</v>
+        <v>3.4786697247706444</v>
       </c>
       <c r="O125">
         <f t="shared" ca="1" si="11"/>
-        <v>0.55875624999999807</v>
+        <v>0.57509472249999805</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
@@ -6684,7 +6684,7 @@
       </c>
       <c r="D126" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>61.132300000000001</v>
+        <v>61.962299999999999</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -6699,26 +6699,26 @@
       </c>
       <c r="J126">
         <f t="shared" ca="1" si="14"/>
-        <v>0.23</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K126">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.68</v>
+        <v>0.63</v>
       </c>
       <c r="L126">
         <v>0.5</v>
       </c>
       <c r="M126">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4322999999999992</v>
+        <v>2.2622999999999993</v>
       </c>
       <c r="N126">
         <f t="shared" ca="1" si="10"/>
-        <v>2.3991624790619781</v>
+        <v>3.7894472361808873</v>
       </c>
       <c r="O126">
         <f t="shared" ca="1" si="11"/>
-        <v>2.051483289999998</v>
+        <v>5.1180012899999969</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="D127" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>78.455349999999996</v>
+        <v>78.520349999999993</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -6748,26 +6748,26 @@
       </c>
       <c r="J127">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.34</v>
+        <v>-0.22</v>
       </c>
       <c r="K127">
         <f t="shared" ca="1" si="15"/>
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="L127">
         <v>0.5</v>
       </c>
       <c r="M127">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.8446499999999983</v>
+        <v>-1.7796499999999984</v>
       </c>
       <c r="N127">
         <f t="shared" ca="1" si="10"/>
-        <v>-2.2971980074719789</v>
+        <v>-2.2162515566625185</v>
       </c>
       <c r="O127">
         <f t="shared" ca="1" si="11"/>
-        <v>3.4027336224999938</v>
+        <v>3.1671541224999942</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
@@ -6782,7 +6782,7 @@
       </c>
       <c r="D128" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>69.00685</v>
+        <v>68.691850000000002</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -6797,26 +6797,26 @@
       </c>
       <c r="J128">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.08</v>
+        <v>0.63</v>
       </c>
       <c r="K128">
         <f t="shared" ca="1" si="15"/>
-        <v>0.75</v>
+        <v>-0.59</v>
       </c>
       <c r="L128">
         <v>0.5</v>
       </c>
       <c r="M128">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0068499999999991</v>
+        <v>0.69184999999999919</v>
       </c>
       <c r="N128">
         <f t="shared" ca="1" si="10"/>
-        <v>1.4806617647058928</v>
+        <v>1.0174264705882452</v>
       </c>
       <c r="O128">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0137469224999982</v>
+        <v>0.4786564224999989</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.3">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="D129" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>59.241199999999999</v>
+        <v>58.581200000000003</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -6846,26 +6846,26 @@
       </c>
       <c r="J129">
         <f t="shared" ca="1" si="14"/>
-        <v>0.34</v>
+        <v>-0.95</v>
       </c>
       <c r="K129">
         <f t="shared" ca="1" si="15"/>
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="L129">
         <v>0.5</v>
       </c>
       <c r="M129">
         <f t="shared" ca="1" si="9"/>
-        <v>2.7411999999999996</v>
+        <v>2.0811999999999995</v>
       </c>
       <c r="N129">
         <f t="shared" ca="1" si="10"/>
-        <v>4.8516814159291988</v>
+        <v>3.6835398230088634</v>
       </c>
       <c r="O129">
         <f t="shared" ca="1" si="11"/>
-        <v>7.5141774399999983</v>
+        <v>4.3313934399999976</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.3">
@@ -6880,7 +6880,7 @@
       </c>
       <c r="D130" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>80.295000000000002</v>
+        <v>80.445000000000007</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -6895,26 +6895,26 @@
       </c>
       <c r="J130">
         <f t="shared" ca="1" si="14"/>
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="K130">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.84</v>
+        <v>-0.61</v>
       </c>
       <c r="L130">
         <v>0.5</v>
       </c>
       <c r="M130">
         <f t="shared" ca="1" si="9"/>
-        <v>-3.9050000000000002</v>
+        <v>-3.7550000000000003</v>
       </c>
       <c r="N130">
         <f t="shared" ca="1" si="10"/>
-        <v>-4.6377672209026111</v>
+        <v>-4.4596199524940534</v>
       </c>
       <c r="O130">
         <f t="shared" ca="1" si="11"/>
-        <v>15.249025000000001</v>
+        <v>14.100025000000002</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="D131" s="4">
         <f t="shared" ref="D131:D194" ca="1" si="16">B131+M131</f>
-        <v>69.581450000000004</v>
+        <v>70.566450000000003</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -6944,26 +6944,26 @@
       </c>
       <c r="J131">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.57999999999999996</v>
+        <v>0.74</v>
       </c>
       <c r="K131">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.81</v>
+        <v>-0.16</v>
       </c>
       <c r="L131">
         <v>0.5</v>
       </c>
       <c r="M131">
         <f t="shared" ref="M131:M194" ca="1" si="17">(I131+J131+K131)*L131</f>
-        <v>-1.2185500000000002</v>
+        <v>-0.2335500000000002</v>
       </c>
       <c r="N131">
         <f t="shared" ref="N131:N194" ca="1" si="18">((D131/B131)-1)*100</f>
-        <v>-1.7211158192090292</v>
+        <v>-0.3298728813559193</v>
       </c>
       <c r="O131">
         <f t="shared" ref="O131:O194" ca="1" si="19">M131^2</f>
-        <v>1.4848641025000007</v>
+        <v>5.4545602500000095E-2</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.3">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="D132" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>70.293450000000007</v>
+        <v>69.653450000000007</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -6993,26 +6993,26 @@
       </c>
       <c r="J132">
         <f t="shared" ref="J132:J195" ca="1" si="22">IF(B132 &lt; 30, RANDBETWEEN(-100, 100) / 10000, RANDBETWEEN(-100,100) / 100)</f>
-        <v>-0.23</v>
+        <v>-0.49</v>
       </c>
       <c r="K132">
         <f t="shared" ref="K132:K195" ca="1" si="23">IF(B132 &lt; 30, RANDBETWEEN(-100, 100) / 10000, RANDBETWEEN(-100,100) / 100)</f>
-        <v>0.3</v>
+        <v>-0.72</v>
       </c>
       <c r="L132">
         <v>0.5</v>
       </c>
       <c r="M132">
         <f t="shared" ca="1" si="17"/>
-        <v>-1.4065499999999995</v>
+        <v>-2.0465499999999994</v>
       </c>
       <c r="N132">
         <f t="shared" ca="1" si="18"/>
-        <v>-1.9617154811715443</v>
+        <v>-2.8543235704323489</v>
       </c>
       <c r="O132">
         <f t="shared" ca="1" si="19"/>
-        <v>1.9783829024999986</v>
+        <v>4.1883669024999977</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.3">
@@ -7027,7 +7027,7 @@
       </c>
       <c r="D133" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>26.473549999999999</v>
+        <v>26.481449999999999</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -7042,26 +7042,26 @@
       </c>
       <c r="J133">
         <f t="shared" ca="1" si="22"/>
-        <v>1.2999999999999999E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="K133">
         <f t="shared" ca="1" si="23"/>
-        <v>-9.7000000000000003E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="L133">
         <v>0.5</v>
       </c>
       <c r="M133">
         <f t="shared" ca="1" si="17"/>
-        <v>0.73355000000000015</v>
+        <v>0.74145000000000016</v>
       </c>
       <c r="N133">
         <f t="shared" ca="1" si="18"/>
-        <v>2.8498445998446087</v>
+        <v>2.8805361305361377</v>
       </c>
       <c r="O133">
         <f t="shared" ca="1" si="19"/>
-        <v>0.53809560250000021</v>
+        <v>0.54974810250000028</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.3">
@@ -7076,7 +7076,7 @@
       </c>
       <c r="D134" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>40.7849</v>
+        <v>40.529899999999998</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -7091,26 +7091,26 @@
       </c>
       <c r="J134">
         <f t="shared" ca="1" si="22"/>
-        <v>0.79</v>
+        <v>-0.82</v>
       </c>
       <c r="K134">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.61</v>
+        <v>0.49</v>
       </c>
       <c r="L134">
         <v>0.5</v>
       </c>
       <c r="M134">
         <f t="shared" ca="1" si="17"/>
-        <v>0.43489999999999912</v>
+        <v>0.17989999999999912</v>
       </c>
       <c r="N134">
         <f t="shared" ca="1" si="18"/>
-        <v>1.0778190830235346</v>
+        <v>0.44584882280047644</v>
       </c>
       <c r="O134">
         <f t="shared" ca="1" si="19"/>
-        <v>0.18913800999999925</v>
+        <v>3.2364009999999679E-2</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.3">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="D135" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>32.912050000000001</v>
+        <v>33.75705</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -7140,26 +7140,26 @@
       </c>
       <c r="J135">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.48</v>
+        <v>0.96</v>
       </c>
       <c r="K135">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.26</v>
+        <v>-0.01</v>
       </c>
       <c r="L135">
         <v>0.5</v>
       </c>
       <c r="M135">
         <f t="shared" ca="1" si="17"/>
-        <v>-1.5879499999999984</v>
+        <v>-0.74294999999999833</v>
       </c>
       <c r="N135">
         <f t="shared" ca="1" si="18"/>
-        <v>-4.6027536231884048</v>
+        <v>-2.153478260869568</v>
       </c>
       <c r="O135">
         <f t="shared" ca="1" si="19"/>
-        <v>2.521585202499995</v>
+        <v>0.55197470249999747</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.3">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="D136" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>20.487299999999998</v>
+        <v>20.47955</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -7189,26 +7189,26 @@
       </c>
       <c r="J136">
         <f t="shared" ca="1" si="22"/>
-        <v>7.9000000000000008E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="K136">
         <f t="shared" ca="1" si="23"/>
-        <v>5.5999999999999999E-3</v>
+        <v>-8.6E-3</v>
       </c>
       <c r="L136">
         <v>0.5</v>
       </c>
       <c r="M136">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.51270000000000082</v>
+        <v>-0.52045000000000086</v>
       </c>
       <c r="N136">
         <f t="shared" ca="1" si="18"/>
-        <v>-2.4414285714285833</v>
+        <v>-2.4783333333333379</v>
       </c>
       <c r="O136">
         <f t="shared" ca="1" si="19"/>
-        <v>0.26286129000000086</v>
+        <v>0.27086820250000088</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
@@ -7223,7 +7223,7 @@
       </c>
       <c r="D137" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>45.154299999999999</v>
+        <v>44.219299999999997</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -7238,26 +7238,26 @@
       </c>
       <c r="J137">
         <f t="shared" ca="1" si="22"/>
-        <v>0.49</v>
+        <v>-0.31</v>
       </c>
       <c r="K137">
         <f t="shared" ca="1" si="23"/>
-        <v>0.98</v>
+        <v>-0.09</v>
       </c>
       <c r="L137">
         <v>0.5</v>
       </c>
       <c r="M137">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1542999999999997</v>
+        <v>0.21929999999999977</v>
       </c>
       <c r="N137">
         <f t="shared" ca="1" si="18"/>
-        <v>2.623409090909079</v>
+        <v>0.49840909090907992</v>
       </c>
       <c r="O137">
         <f t="shared" ca="1" si="19"/>
-        <v>1.3324084899999993</v>
+        <v>4.8092489999999898E-2</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.3">
@@ -7272,7 +7272,7 @@
       </c>
       <c r="D138" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>27.288249999999998</v>
+        <v>27.286899999999999</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -7287,26 +7287,26 @@
       </c>
       <c r="J138">
         <f t="shared" ca="1" si="22"/>
-        <v>7.9000000000000008E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="K138">
         <f t="shared" ca="1" si="23"/>
-        <v>7.3000000000000001E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="L138">
         <v>0.5</v>
       </c>
       <c r="M138">
         <f t="shared" ca="1" si="17"/>
-        <v>0.28824999999999962</v>
+        <v>0.2868999999999996</v>
       </c>
       <c r="N138">
         <f t="shared" ca="1" si="18"/>
-        <v>1.0675925925925922</v>
+        <v>1.0625925925925817</v>
       </c>
       <c r="O138">
         <f t="shared" ca="1" si="19"/>
-        <v>8.3088062499999782E-2</v>
+        <v>8.2311609999999771E-2</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.3">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="D139" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>7.8487450000000001</v>
+        <v>7.8463449999999995</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -7336,26 +7336,26 @@
       </c>
       <c r="J139">
         <f t="shared" ca="1" si="22"/>
-        <v>8.5000000000000006E-3</v>
+        <v>-9.1999999999999998E-3</v>
       </c>
       <c r="K139">
         <f t="shared" ca="1" si="23"/>
-        <v>-9.4999999999999998E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="L139">
         <v>0.5</v>
       </c>
       <c r="M139">
         <f t="shared" ca="1" si="17"/>
-        <v>0.34874499999999981</v>
+        <v>0.34634499999999979</v>
       </c>
       <c r="N139">
         <f t="shared" ca="1" si="18"/>
-        <v>4.6499333333333448</v>
+        <v>4.617933333333335</v>
       </c>
       <c r="O139">
         <f t="shared" ca="1" si="19"/>
-        <v>0.12162307502499986</v>
+        <v>0.11995485902499986</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.3">
@@ -7370,7 +7370,7 @@
       </c>
       <c r="D140" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>33.021250000000002</v>
+        <v>33.271250000000002</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -7385,26 +7385,26 @@
       </c>
       <c r="J140">
         <f t="shared" ca="1" si="22"/>
-        <v>0.97</v>
+        <v>0.24</v>
       </c>
       <c r="K140">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.86</v>
+        <v>0.37</v>
       </c>
       <c r="L140">
         <v>0.5</v>
       </c>
       <c r="M140">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0212499999999987</v>
+        <v>1.2712499999999989</v>
       </c>
       <c r="N140">
         <f t="shared" ca="1" si="18"/>
-        <v>3.1914062500000062</v>
+        <v>3.9726562500000062</v>
       </c>
       <c r="O140">
         <f t="shared" ca="1" si="19"/>
-        <v>1.0429515624999972</v>
+        <v>1.6160765624999971</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.3">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="D141" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>29.68695</v>
+        <v>29.89695</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -7434,26 +7434,26 @@
       </c>
       <c r="J141">
         <f t="shared" ca="1" si="22"/>
-        <v>0.02</v>
+        <v>-0.62</v>
       </c>
       <c r="K141">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.3</v>
+        <v>0.76</v>
       </c>
       <c r="L141">
         <v>0.5</v>
       </c>
       <c r="M141">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.31304999999999994</v>
+        <v>-0.10304999999999992</v>
       </c>
       <c r="N141">
         <f t="shared" ca="1" si="18"/>
-        <v>-1.0434999999999972</v>
+        <v>-0.34349999999999659</v>
       </c>
       <c r="O141">
         <f t="shared" ca="1" si="19"/>
-        <v>9.8000302499999956E-2</v>
+        <v>1.0619302499999983E-2</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.3">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="D142" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>8.6171050000000005</v>
+        <v>8.6167049999999996</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -7483,26 +7483,26 @@
       </c>
       <c r="J142">
         <f t="shared" ca="1" si="22"/>
-        <v>-3.5000000000000001E-3</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="K142">
         <f t="shared" ca="1" si="23"/>
-        <v>-7.4999999999999997E-3</v>
+        <v>-5.7999999999999996E-3</v>
       </c>
       <c r="L142">
         <v>0.5</v>
       </c>
       <c r="M142">
         <f t="shared" ca="1" si="17"/>
-        <v>0.11710500000000007</v>
+        <v>0.11670500000000007</v>
       </c>
       <c r="N142">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3777058823529531</v>
+        <v>1.373000000000002</v>
       </c>
       <c r="O142">
         <f t="shared" ca="1" si="19"/>
-        <v>1.3713581025000017E-2</v>
+        <v>1.3620057025000017E-2</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.3">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="D143" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>69.25030000000001</v>
+        <v>70.030300000000011</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -7532,26 +7532,26 @@
       </c>
       <c r="J143">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.85</v>
+        <v>-0.03</v>
       </c>
       <c r="K143">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.05</v>
+        <v>0.69</v>
       </c>
       <c r="L143">
         <v>0.5</v>
       </c>
       <c r="M143">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.61969999999999892</v>
+        <v>0.16030000000000111</v>
       </c>
       <c r="N143">
         <f t="shared" ca="1" si="18"/>
-        <v>-0.8869328753399075</v>
+        <v>0.22942607700016104</v>
       </c>
       <c r="O143">
         <f t="shared" ca="1" si="19"/>
-        <v>0.38402808999999866</v>
+        <v>2.5696090000000355E-2</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.3">
@@ -7566,7 +7566,7 @@
       </c>
       <c r="D144" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>49.267800000000001</v>
+        <v>48.882799999999996</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -7581,26 +7581,26 @@
       </c>
       <c r="J144">
         <f t="shared" ca="1" si="22"/>
-        <v>0.28000000000000003</v>
+        <v>-0.52</v>
       </c>
       <c r="K144">
         <f t="shared" ca="1" si="23"/>
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="L144">
         <v>0.5</v>
       </c>
       <c r="M144">
         <f t="shared" ca="1" si="17"/>
-        <v>0.47779999999999878</v>
+        <v>9.2799999999998717E-2</v>
       </c>
       <c r="N144">
         <f t="shared" ca="1" si="18"/>
-        <v>0.9792990366878529</v>
+        <v>0.19020291043245763</v>
       </c>
       <c r="O144">
         <f t="shared" ca="1" si="19"/>
-        <v>0.22829283999999883</v>
+        <v>8.6118399999997614E-3</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
@@ -7615,7 +7615,7 @@
       </c>
       <c r="D145" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>27.617249999999999</v>
+        <v>27.62115</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -7630,26 +7630,26 @@
       </c>
       <c r="J145">
         <f t="shared" ca="1" si="22"/>
-        <v>7.6E-3</v>
+        <v>-1.8E-3</v>
       </c>
       <c r="K145">
         <f t="shared" ca="1" si="23"/>
-        <v>-8.0999999999999996E-3</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="L145">
         <v>0.5</v>
       </c>
       <c r="M145">
         <f t="shared" ca="1" si="17"/>
-        <v>0.23725000000000071</v>
+        <v>0.2411500000000007</v>
       </c>
       <c r="N145">
         <f t="shared" ca="1" si="18"/>
-        <v>0.86650840029218745</v>
+        <v>0.88075237399563022</v>
       </c>
       <c r="O145">
         <f t="shared" ca="1" si="19"/>
-        <v>5.6287562500000339E-2</v>
+        <v>5.8153322500000333E-2</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="D146" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>70.175350000000009</v>
+        <v>70.290350000000004</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -7679,26 +7679,26 @@
       </c>
       <c r="J146">
         <f t="shared" ca="1" si="22"/>
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="K146">
         <f t="shared" ca="1" si="23"/>
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="L146">
         <v>0.5</v>
       </c>
       <c r="M146">
         <f t="shared" ca="1" si="17"/>
-        <v>0.31535000000000252</v>
+        <v>0.43035000000000251</v>
       </c>
       <c r="N146">
         <f t="shared" ca="1" si="18"/>
-        <v>0.45140280561124513</v>
+        <v>0.61601774978528034</v>
       </c>
       <c r="O146">
         <f t="shared" ca="1" si="19"/>
-        <v>9.9445622500001593E-2</v>
+        <v>0.18520112250000215</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
@@ -7713,7 +7713,7 @@
       </c>
       <c r="D147" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>47.984349999999999</v>
+        <v>48.054349999999999</v>
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
@@ -7728,26 +7728,26 @@
       </c>
       <c r="J147">
         <f t="shared" ca="1" si="22"/>
-        <v>0.01</v>
+        <v>0.51</v>
       </c>
       <c r="K147">
         <f t="shared" ca="1" si="23"/>
-        <v>0.99</v>
+        <v>0.63</v>
       </c>
       <c r="L147">
         <v>0.5</v>
       </c>
       <c r="M147">
         <f t="shared" ca="1" si="17"/>
-        <v>0.91434999999999889</v>
+        <v>0.98434999999999895</v>
       </c>
       <c r="N147">
         <f t="shared" ca="1" si="18"/>
-        <v>1.94253239855533</v>
+        <v>2.0912470788187809</v>
       </c>
       <c r="O147">
         <f t="shared" ca="1" si="19"/>
-        <v>0.83603592249999792</v>
+        <v>0.96894492249999797</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
@@ -7762,7 +7762,7 @@
       </c>
       <c r="D148" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>25.067150000000002</v>
+        <v>25.0684</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -7777,26 +7777,26 @@
       </c>
       <c r="J148">
         <f t="shared" ca="1" si="22"/>
-        <v>-6.4999999999999997E-3</v>
+        <v>-4.0000000000000002E-4</v>
       </c>
       <c r="K148">
         <f t="shared" ca="1" si="23"/>
-        <v>5.3E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="L148">
         <v>0.5</v>
       </c>
       <c r="M148">
         <f t="shared" ca="1" si="17"/>
-        <v>2.74715</v>
+        <v>2.7483999999999997</v>
       </c>
       <c r="N148">
         <f t="shared" ca="1" si="18"/>
-        <v>12.308019713261654</v>
+        <v>12.313620071684594</v>
       </c>
       <c r="O148">
         <f t="shared" ca="1" si="19"/>
-        <v>7.5468331224999998</v>
+        <v>7.5537025599999987</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
@@ -7811,7 +7811,7 @@
       </c>
       <c r="D149" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>89.162949999999995</v>
+        <v>89.332949999999997</v>
       </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -7826,26 +7826,26 @@
       </c>
       <c r="J149">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.87</v>
+        <v>0.36</v>
       </c>
       <c r="K149">
         <f t="shared" ca="1" si="23"/>
-        <v>0.08</v>
+        <v>-0.81</v>
       </c>
       <c r="L149">
         <v>0.5</v>
       </c>
       <c r="M149">
         <f t="shared" ca="1" si="17"/>
-        <v>-2.0770499999999967</v>
+        <v>-1.9070499999999968</v>
       </c>
       <c r="N149">
         <f t="shared" ca="1" si="18"/>
-        <v>-2.2764686540990842</v>
+        <v>-2.0901468654099031</v>
       </c>
       <c r="O149">
         <f t="shared" ca="1" si="19"/>
-        <v>4.3141367024999866</v>
+        <v>3.6368397024999877</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="D150" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>71.279200000000003</v>
+        <v>72.1892</v>
       </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
@@ -7875,26 +7875,26 @@
       </c>
       <c r="J150">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.72</v>
+        <v>-0.41</v>
       </c>
       <c r="K150">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.76</v>
+        <v>0.75</v>
       </c>
       <c r="L150">
         <v>0.5</v>
       </c>
       <c r="M150">
         <f t="shared" ca="1" si="17"/>
-        <v>2.0791999999999953</v>
+        <v>2.989199999999995</v>
       </c>
       <c r="N150">
         <f t="shared" ca="1" si="18"/>
-        <v>3.0046242774566467</v>
+        <v>4.3196531791907411</v>
       </c>
       <c r="O150">
         <f t="shared" ca="1" si="19"/>
-        <v>4.3230726399999799</v>
+        <v>8.9353166399999697</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
@@ -7909,7 +7909,7 @@
       </c>
       <c r="D151" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>66.4773</v>
+        <v>65.587299999999999</v>
       </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -7924,26 +7924,26 @@
       </c>
       <c r="J151">
         <f t="shared" ca="1" si="22"/>
-        <v>0.47</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="K151">
         <f t="shared" ca="1" si="23"/>
-        <v>0.15</v>
+        <v>-0.61</v>
       </c>
       <c r="L151">
         <v>0.5</v>
       </c>
       <c r="M151">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.42270000000000124</v>
+        <v>-1.3127000000000011</v>
       </c>
       <c r="N151">
         <f t="shared" ca="1" si="18"/>
-        <v>-0.63183856502243563</v>
+        <v>-1.962182361733944</v>
       </c>
       <c r="O151">
         <f t="shared" ca="1" si="19"/>
-        <v>0.17867529000000104</v>
+        <v>1.7231812900000028</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
@@ -7958,7 +7958,7 @@
       </c>
       <c r="D152" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>39.409350000000003</v>
+        <v>40.089350000000003</v>
       </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
@@ -7973,26 +7973,26 @@
       </c>
       <c r="J152">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.48</v>
+        <v>-0.34</v>
       </c>
       <c r="K152">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.98</v>
+        <v>0.24</v>
       </c>
       <c r="L152">
         <v>0.5</v>
       </c>
       <c r="M152">
         <f t="shared" ca="1" si="17"/>
-        <v>1.5093500000000017</v>
+        <v>2.1893500000000019</v>
       </c>
       <c r="N152">
         <f t="shared" ca="1" si="18"/>
-        <v>3.9824538258575348</v>
+        <v>5.7766490765171596</v>
       </c>
       <c r="O152">
         <f t="shared" ca="1" si="19"/>
-        <v>2.2781374225000053</v>
+        <v>4.7932534225000083</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
@@ -8007,7 +8007,7 @@
       </c>
       <c r="D153" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>35.233150000000002</v>
+        <v>35.237049999999996</v>
       </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
@@ -8022,26 +8022,26 @@
       </c>
       <c r="J153">
         <f t="shared" ca="1" si="22"/>
-        <v>-4.1000000000000003E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="K153">
         <f t="shared" ca="1" si="23"/>
-        <v>-8.2000000000000007E-3</v>
+        <v>-9.4000000000000004E-3</v>
       </c>
       <c r="L153">
         <v>0.5</v>
       </c>
       <c r="M153">
         <f t="shared" ca="1" si="17"/>
-        <v>5.8331500000000016</v>
+        <v>5.8370500000000014</v>
       </c>
       <c r="N153">
         <f t="shared" ca="1" si="18"/>
-        <v>19.840646258503412</v>
+        <v>19.853911564625836</v>
       </c>
       <c r="O153">
         <f t="shared" ca="1" si="19"/>
-        <v>34.025638922500022</v>
+        <v>34.071152702500015</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="D154" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>68.145849999999996</v>
+        <v>67.855850000000004</v>
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
@@ -8071,26 +8071,26 @@
       </c>
       <c r="J154">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.52</v>
+        <v>-0.16</v>
       </c>
       <c r="K154">
         <f t="shared" ca="1" si="23"/>
-        <v>0.66</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="L154">
         <v>0.5</v>
       </c>
       <c r="M154">
         <f t="shared" ca="1" si="17"/>
-        <v>-3.0541499999999999</v>
+        <v>-3.3441500000000004</v>
       </c>
       <c r="N154">
         <f t="shared" ca="1" si="18"/>
-        <v>-4.2895365168539428</v>
+        <v>-4.6968398876404471</v>
       </c>
       <c r="O154">
         <f t="shared" ca="1" si="19"/>
-        <v>9.3278322224999997</v>
+        <v>11.183339222500003</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
@@ -8105,7 +8105,7 @@
       </c>
       <c r="D155" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>51.86495</v>
+        <v>52.124949999999998</v>
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -8120,26 +8120,26 @@
       </c>
       <c r="J155">
         <f t="shared" ca="1" si="22"/>
-        <v>0.69</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K155">
         <f t="shared" ca="1" si="23"/>
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="L155">
         <v>0.5</v>
       </c>
       <c r="M155">
         <f t="shared" ca="1" si="17"/>
-        <v>0.86495000000000144</v>
+        <v>1.1249500000000014</v>
       </c>
       <c r="N155">
         <f t="shared" ca="1" si="18"/>
-        <v>1.6959803921568595</v>
+        <v>2.2057843137254896</v>
       </c>
       <c r="O155">
         <f t="shared" ca="1" si="19"/>
-        <v>0.74813850250000247</v>
+        <v>1.2655125025000034</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
@@ -8154,7 +8154,7 @@
       </c>
       <c r="D156" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>35.327649999999998</v>
+        <v>34.707650000000001</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -8169,26 +8169,26 @@
       </c>
       <c r="J156">
         <f t="shared" ca="1" si="22"/>
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="K156">
         <f t="shared" ca="1" si="23"/>
-        <v>0.28000000000000003</v>
+        <v>-0.92</v>
       </c>
       <c r="L156">
         <v>0.5</v>
       </c>
       <c r="M156">
         <f t="shared" ca="1" si="17"/>
-        <v>3.3276499999999993</v>
+        <v>2.7076499999999992</v>
       </c>
       <c r="N156">
         <f t="shared" ca="1" si="18"/>
-        <v>10.398906249999996</v>
+        <v>8.4614062500000031</v>
       </c>
       <c r="O156">
         <f t="shared" ca="1" si="19"/>
-        <v>11.073254522499996</v>
+        <v>7.3313685224999956</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
@@ -8203,7 +8203,7 @@
       </c>
       <c r="D157" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>25.532799999999998</v>
+        <v>25.538499999999999</v>
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
@@ -8218,26 +8218,26 @@
       </c>
       <c r="J157">
         <f t="shared" ca="1" si="22"/>
-        <v>-1.1999999999999999E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="K157">
         <f t="shared" ca="1" si="23"/>
-        <v>-3.7000000000000002E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="L157">
         <v>0.5</v>
       </c>
       <c r="M157">
         <f t="shared" ca="1" si="17"/>
-        <v>-2.4672000000000005</v>
+        <v>-2.4615000000000005</v>
       </c>
       <c r="N157">
         <f t="shared" ca="1" si="18"/>
-        <v>-8.811428571428582</v>
+        <v>-8.7910714285714278</v>
       </c>
       <c r="O157">
         <f t="shared" ca="1" si="19"/>
-        <v>6.0870758400000025</v>
+        <v>6.0589822500000023</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
@@ -8252,7 +8252,7 @@
       </c>
       <c r="D158" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>35.956250000000004</v>
+        <v>35.621250000000003</v>
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
@@ -8267,26 +8267,26 @@
       </c>
       <c r="J158">
         <f t="shared" ca="1" si="22"/>
-        <v>0.09</v>
+        <v>0.67</v>
       </c>
       <c r="K158">
         <f t="shared" ca="1" si="23"/>
-        <v>0.97</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="L158">
         <v>0.5</v>
       </c>
       <c r="M158">
         <f t="shared" ca="1" si="17"/>
-        <v>-1.2437499999999999</v>
+        <v>-1.5787499999999999</v>
       </c>
       <c r="N158">
         <f t="shared" ca="1" si="18"/>
-        <v>-3.3434139784946248</v>
+        <v>-4.2439516129032189</v>
       </c>
       <c r="O158">
         <f t="shared" ca="1" si="19"/>
-        <v>1.5469140624999997</v>
+        <v>2.4924515624999994</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
@@ -8301,7 +8301,7 @@
       </c>
       <c r="D159" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>74.781949999999995</v>
+        <v>75.466949999999997</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -8316,26 +8316,26 @@
       </c>
       <c r="J159">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.09</v>
+        <v>0.81</v>
       </c>
       <c r="K159">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.93</v>
+        <v>-0.46</v>
       </c>
       <c r="L159">
         <v>0.5</v>
       </c>
       <c r="M159">
         <f t="shared" ca="1" si="17"/>
-        <v>1.9819500000000028</v>
+        <v>2.666950000000003</v>
       </c>
       <c r="N159">
         <f t="shared" ca="1" si="18"/>
-        <v>2.7224587912087816</v>
+        <v>3.6633928571428553</v>
       </c>
       <c r="O159">
         <f t="shared" ca="1" si="19"/>
-        <v>3.928125802500011</v>
+        <v>7.1126223025000161</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
@@ -8350,7 +8350,7 @@
       </c>
       <c r="D160" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>92.444149999999993</v>
+        <v>92.779150000000001</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -8365,26 +8365,26 @@
       </c>
       <c r="J160">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.61</v>
+        <v>0.84</v>
       </c>
       <c r="K160">
         <f t="shared" ca="1" si="23"/>
-        <v>0.93</v>
+        <v>0.15</v>
       </c>
       <c r="L160">
         <v>0.5</v>
       </c>
       <c r="M160">
         <f t="shared" ca="1" si="17"/>
-        <v>-2.8558500000000007</v>
+        <v>-2.5208500000000003</v>
       </c>
       <c r="N160">
         <f t="shared" ca="1" si="18"/>
-        <v>-2.9966946484784929</v>
+        <v>-2.6451731374606435</v>
       </c>
       <c r="O160">
         <f t="shared" ca="1" si="19"/>
-        <v>8.155879222500003</v>
+        <v>6.3546847225000009</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.3">
@@ -8399,7 +8399,7 @@
       </c>
       <c r="D161" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>72.423249999999996</v>
+        <v>71.998249999999999</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -8414,26 +8414,26 @@
       </c>
       <c r="J161">
         <f t="shared" ca="1" si="22"/>
-        <v>0.41</v>
+        <v>-0.85</v>
       </c>
       <c r="K161">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.92</v>
+        <v>-0.51</v>
       </c>
       <c r="L161">
         <v>0.5</v>
       </c>
       <c r="M161">
         <f t="shared" ca="1" si="17"/>
-        <v>-3.0767500000000014</v>
+        <v>-3.5017500000000013</v>
       </c>
       <c r="N161">
         <f t="shared" ca="1" si="18"/>
-        <v>-4.0751655629139076</v>
+        <v>-4.6380794701986749</v>
       </c>
       <c r="O161">
         <f t="shared" ca="1" si="19"/>
-        <v>9.466390562500008</v>
+        <v>12.262253062500008</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.3">
@@ -8448,7 +8448,7 @@
       </c>
       <c r="D162" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>73.144900000000007</v>
+        <v>73.8399</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -8463,26 +8463,26 @@
       </c>
       <c r="J162">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.46</v>
+        <v>-0.16</v>
       </c>
       <c r="K162">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.41</v>
+        <v>0.68</v>
       </c>
       <c r="L162">
         <v>0.5</v>
       </c>
       <c r="M162">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.5551000000000007</v>
+        <v>0.13989999999999925</v>
       </c>
       <c r="N162">
         <f t="shared" ca="1" si="18"/>
-        <v>-0.75318860244232289</v>
+        <v>0.18982360922659147</v>
       </c>
       <c r="O162">
         <f t="shared" ca="1" si="19"/>
-        <v>0.30813601000000079</v>
+        <v>1.9572009999999789E-2</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
@@ -8497,7 +8497,7 @@
       </c>
       <c r="D163" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>73.610150000000004</v>
+        <v>74.245149999999995</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -8512,26 +8512,26 @@
       </c>
       <c r="J163">
         <f t="shared" ca="1" si="22"/>
-        <v>0.03</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="K163">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.96</v>
+        <v>0.62</v>
       </c>
       <c r="L163">
         <v>0.5</v>
       </c>
       <c r="M163">
         <f t="shared" ca="1" si="17"/>
-        <v>0.21014999999999506</v>
+        <v>0.84514999999999496</v>
       </c>
       <c r="N163">
         <f t="shared" ca="1" si="18"/>
-        <v>0.28630790190735667</v>
+        <v>1.1514305177111606</v>
       </c>
       <c r="O163">
         <f t="shared" ca="1" si="19"/>
-        <v>4.4163022499997928E-2</v>
+        <v>0.71427852249999146</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.3">
@@ -8546,7 +8546,7 @@
       </c>
       <c r="D164" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>71.292200000000008</v>
+        <v>71.862200000000001</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -8561,26 +8561,26 @@
       </c>
       <c r="J164">
         <f t="shared" ca="1" si="22"/>
-        <v>0.46</v>
+        <v>0.9</v>
       </c>
       <c r="K164">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.94</v>
+        <v>-0.24</v>
       </c>
       <c r="L164">
         <v>0.5</v>
       </c>
       <c r="M164">
         <f t="shared" ca="1" si="17"/>
-        <v>-2.6078000000000028</v>
+        <v>-2.0378000000000025</v>
       </c>
       <c r="N164">
         <f t="shared" ca="1" si="18"/>
-        <v>-3.5288227334235422</v>
+        <v>-2.7575101488498066</v>
       </c>
       <c r="O164">
         <f t="shared" ca="1" si="19"/>
-        <v>6.8006208400000148</v>
+        <v>4.15262884000001</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
@@ -8595,7 +8595,7 @@
       </c>
       <c r="D165" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>61.030300000000004</v>
+        <v>61.045300000000005</v>
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -8610,26 +8610,26 @@
       </c>
       <c r="J165">
         <f t="shared" ca="1" si="22"/>
-        <v>0.51</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="K165">
         <f t="shared" ca="1" si="23"/>
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="L165">
         <v>0.5</v>
       </c>
       <c r="M165">
         <f t="shared" ca="1" si="17"/>
-        <v>3.4302999999999999</v>
+        <v>3.4453</v>
       </c>
       <c r="N165">
         <f t="shared" ca="1" si="18"/>
-        <v>5.9553819444444489</v>
+        <v>5.9814236111111141</v>
       </c>
       <c r="O165">
         <f t="shared" ca="1" si="19"/>
-        <v>11.766958089999999</v>
+        <v>11.87009209</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="D166" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>59.090800000000002</v>
+        <v>60.1708</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -8659,26 +8659,26 @@
       </c>
       <c r="J166">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.09</v>
+        <v>0.62</v>
       </c>
       <c r="K166">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.8</v>
+        <v>0.65</v>
       </c>
       <c r="L166">
         <v>0.5</v>
       </c>
       <c r="M166">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1907999999999999</v>
+        <v>2.2707999999999999</v>
       </c>
       <c r="N166">
         <f t="shared" ca="1" si="18"/>
-        <v>2.0566493955095133</v>
+        <v>3.9219343696027753</v>
       </c>
       <c r="O166">
         <f t="shared" ca="1" si="19"/>
-        <v>1.4180046399999997</v>
+        <v>5.15653264</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.3">
@@ -8693,7 +8693,7 @@
       </c>
       <c r="D167" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>24.946300000000001</v>
+        <v>24.954049999999999</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -8708,26 +8708,26 @@
       </c>
       <c r="J167">
         <f t="shared" ca="1" si="22"/>
-        <v>-6.7000000000000002E-3</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="K167">
         <f t="shared" ca="1" si="23"/>
-        <v>-6.1000000000000004E-3</v>
+        <v>-7.1000000000000004E-3</v>
       </c>
       <c r="L167">
         <v>0.5</v>
       </c>
       <c r="M167">
         <f t="shared" ca="1" si="17"/>
-        <v>2.3462999999999985</v>
+        <v>2.3540499999999986</v>
       </c>
       <c r="N167">
         <f t="shared" ca="1" si="18"/>
-        <v>10.381858407079637</v>
+        <v>10.416150442477857</v>
       </c>
       <c r="O167">
         <f t="shared" ca="1" si="19"/>
-        <v>5.5051236899999934</v>
+        <v>5.5415514024999935</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.3">
@@ -8742,7 +8742,7 @@
       </c>
       <c r="D168" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>26.014199999999999</v>
+        <v>26.010349999999999</v>
       </c>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
@@ -8757,26 +8757,26 @@
       </c>
       <c r="J168">
         <f t="shared" ca="1" si="22"/>
-        <v>5.8999999999999999E-3</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="K168">
         <f t="shared" ca="1" si="23"/>
-        <v>5.4999999999999997E-3</v>
+        <v>-3.2000000000000002E-3</v>
       </c>
       <c r="L168">
         <v>0.5</v>
       </c>
       <c r="M168">
         <f t="shared" ca="1" si="17"/>
-        <v>2.6142000000000007</v>
+        <v>2.6103500000000013</v>
       </c>
       <c r="N168">
         <f t="shared" ca="1" si="18"/>
-        <v>11.171794871794871</v>
+        <v>11.155341880341885</v>
       </c>
       <c r="O168">
         <f t="shared" ca="1" si="19"/>
-        <v>6.8340416400000041</v>
+        <v>6.8139271225000071</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="D169" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>23.393750000000001</v>
+        <v>23.383500000000002</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -8806,26 +8806,26 @@
       </c>
       <c r="J169">
         <f t="shared" ca="1" si="22"/>
-        <v>6.0000000000000001E-3</v>
+        <v>-7.1999999999999998E-3</v>
       </c>
       <c r="K169">
         <f t="shared" ca="1" si="23"/>
-        <v>4.0000000000000001E-3</v>
+        <v>-3.3E-3</v>
       </c>
       <c r="L169">
         <v>0.5</v>
       </c>
       <c r="M169">
         <f t="shared" ca="1" si="17"/>
-        <v>-1.0162500000000003</v>
+        <v>-1.0265000000000002</v>
       </c>
       <c r="N169">
         <f t="shared" ca="1" si="18"/>
-        <v>-4.1632527652601397</v>
+        <v>-4.2052437525604169</v>
       </c>
       <c r="O169">
         <f t="shared" ca="1" si="19"/>
-        <v>1.0327640625000007</v>
+        <v>1.0537022500000004</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.3">
@@ -8840,7 +8840,7 @@
       </c>
       <c r="D170" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>44.0745</v>
+        <v>44.374499999999998</v>
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
@@ -8855,26 +8855,26 @@
       </c>
       <c r="J170">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.65</v>
+        <v>0.71</v>
       </c>
       <c r="K170">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.19</v>
+        <v>-0.95</v>
       </c>
       <c r="L170">
         <v>0.5</v>
       </c>
       <c r="M170">
         <f t="shared" ca="1" si="17"/>
-        <v>1.4945000000000004</v>
+        <v>1.7945000000000002</v>
       </c>
       <c r="N170">
         <f t="shared" ca="1" si="18"/>
-        <v>3.5098637858149484</v>
+        <v>4.2144199154532602</v>
       </c>
       <c r="O170">
         <f t="shared" ca="1" si="19"/>
-        <v>2.2335302500000012</v>
+        <v>3.2202302500000006</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.3">
@@ -8889,7 +8889,7 @@
       </c>
       <c r="D171" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>23.54485</v>
+        <v>23.549949999999999</v>
       </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
@@ -8904,26 +8904,26 @@
       </c>
       <c r="J171">
         <f t="shared" ca="1" si="22"/>
-        <v>-4.3E-3</v>
+        <v>-9.7000000000000003E-3</v>
       </c>
       <c r="K171">
         <f t="shared" ca="1" si="23"/>
-        <v>-7.1000000000000004E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="L171">
         <v>0.5</v>
       </c>
       <c r="M171">
         <f t="shared" ca="1" si="17"/>
-        <v>0.15484999999999885</v>
+        <v>0.15994999999999887</v>
       </c>
       <c r="N171">
         <f t="shared" ca="1" si="18"/>
-        <v>0.6620350577169809</v>
+        <v>0.68383924754167325</v>
       </c>
       <c r="O171">
         <f t="shared" ca="1" si="19"/>
-        <v>2.3978522499999644E-2</v>
+        <v>2.558400249999964E-2</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.3">
@@ -8938,7 +8938,7 @@
       </c>
       <c r="D172" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>85.51</v>
+        <v>86.055000000000007</v>
       </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
@@ -8953,26 +8953,26 @@
       </c>
       <c r="J172">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.99</v>
+        <v>-0.4</v>
       </c>
       <c r="K172">
         <f t="shared" ca="1" si="23"/>
-        <v>0.28000000000000003</v>
+        <v>0.78</v>
       </c>
       <c r="L172">
         <v>0.5</v>
       </c>
       <c r="M172">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.3300000000000014</v>
+        <v>0.21499999999999858</v>
       </c>
       <c r="N172">
         <f t="shared" ca="1" si="18"/>
-        <v>-0.38443616029822936</v>
+        <v>0.25046598322460145</v>
       </c>
       <c r="O172">
         <f t="shared" ca="1" si="19"/>
-        <v>0.10890000000000093</v>
+        <v>4.6224999999999392E-2</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.3">
@@ -8987,7 +8987,7 @@
       </c>
       <c r="D173" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>26.122150000000001</v>
+        <v>26.124300000000002</v>
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -9002,26 +9002,26 @@
       </c>
       <c r="J173">
         <f t="shared" ca="1" si="22"/>
-        <v>-3.3E-3</v>
+        <v>-2.5000000000000001E-3</v>
       </c>
       <c r="K173">
         <f t="shared" ca="1" si="23"/>
-        <v>2.2000000000000001E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="L173">
         <v>0.5</v>
       </c>
       <c r="M173">
         <f t="shared" ca="1" si="17"/>
-        <v>0.84214999999999884</v>
+        <v>0.84429999999999894</v>
       </c>
       <c r="N173">
         <f t="shared" ca="1" si="18"/>
-        <v>3.3312895569620249</v>
+        <v>3.339794303797472</v>
       </c>
       <c r="O173">
         <f t="shared" ca="1" si="19"/>
-        <v>0.70921662249999806</v>
+        <v>0.71284248999999822</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.3">
@@ -9036,7 +9036,7 @@
       </c>
       <c r="D174" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>85.970849999999999</v>
+        <v>86.280850000000001</v>
       </c>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
@@ -9051,26 +9051,26 @@
       </c>
       <c r="J174">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.62</v>
+        <v>-0.85</v>
       </c>
       <c r="K174">
         <f t="shared" ca="1" si="23"/>
-        <v>0.08</v>
+        <v>0.93</v>
       </c>
       <c r="L174">
         <v>0.5</v>
       </c>
       <c r="M174">
         <f t="shared" ca="1" si="17"/>
-        <v>-1.4091500000000008</v>
+        <v>-1.0991500000000007</v>
       </c>
       <c r="N174">
         <f t="shared" ca="1" si="18"/>
-        <v>-1.6126688029297287</v>
+        <v>-1.2578965438315381</v>
       </c>
       <c r="O174">
         <f t="shared" ca="1" si="19"/>
-        <v>1.9857037225000023</v>
+        <v>1.2081307225000015</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.3">
@@ -9085,7 +9085,7 @@
       </c>
       <c r="D175" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>21.955549999999999</v>
+        <v>21.952200000000001</v>
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -9100,26 +9100,26 @@
       </c>
       <c r="J175">
         <f t="shared" ca="1" si="22"/>
-        <v>9.7000000000000003E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="K175">
         <f t="shared" ca="1" si="23"/>
-        <v>2.0999999999999999E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="L175">
         <v>0.5</v>
       </c>
       <c r="M175">
         <f t="shared" ca="1" si="17"/>
-        <v>1.8955500000000014</v>
+        <v>1.8922000000000014</v>
       </c>
       <c r="N175">
         <f t="shared" ca="1" si="18"/>
-        <v>9.4494017946161524</v>
+        <v>9.4327018943170629</v>
       </c>
       <c r="O175">
         <f t="shared" ca="1" si="19"/>
-        <v>3.5931098025000052</v>
+        <v>3.5804208400000053</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
@@ -9134,7 +9134,7 @@
       </c>
       <c r="D176" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>51.801549999999999</v>
+        <v>50.756549999999997</v>
       </c>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
@@ -9149,26 +9149,26 @@
       </c>
       <c r="J176">
         <f t="shared" ca="1" si="22"/>
-        <v>0.21</v>
+        <v>-0.42</v>
       </c>
       <c r="K176">
         <f t="shared" ca="1" si="23"/>
-        <v>0.55000000000000004</v>
+        <v>-0.91</v>
       </c>
       <c r="L176">
         <v>0.5</v>
       </c>
       <c r="M176">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.68845000000000212</v>
+        <v>-1.7334500000000022</v>
       </c>
       <c r="N176">
         <f t="shared" ca="1" si="18"/>
-        <v>-1.3115831586969051</v>
+        <v>-3.3024385597256734</v>
       </c>
       <c r="O176">
         <f t="shared" ca="1" si="19"/>
-        <v>0.47396340250000291</v>
+        <v>3.0048489025000076</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.3">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="D177" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>26.017600000000002</v>
+        <v>26.021000000000001</v>
       </c>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
@@ -9198,26 +9198,26 @@
       </c>
       <c r="J177">
         <f t="shared" ca="1" si="22"/>
-        <v>7.3000000000000001E-3</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="K177">
         <f t="shared" ca="1" si="23"/>
-        <v>-4.0000000000000001E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="L177">
         <v>0.5</v>
       </c>
       <c r="M177">
         <f t="shared" ca="1" si="17"/>
-        <v>0.61760000000000159</v>
+        <v>0.62100000000000155</v>
       </c>
       <c r="N177">
         <f t="shared" ca="1" si="18"/>
-        <v>2.4314960629921334</v>
+        <v>2.4448818897637947</v>
       </c>
       <c r="O177">
         <f t="shared" ca="1" si="19"/>
-        <v>0.38142976000000195</v>
+        <v>0.3856410000000019</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.3">
@@ -9232,7 +9232,7 @@
       </c>
       <c r="D178" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>86.008899999999997</v>
+        <v>85.653899999999993</v>
       </c>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
@@ -9247,26 +9247,26 @@
       </c>
       <c r="J178">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.08</v>
+        <v>0.91</v>
       </c>
       <c r="K178">
         <f t="shared" ca="1" si="23"/>
-        <v>0.71</v>
+        <v>-0.99</v>
       </c>
       <c r="L178">
         <v>0.5</v>
       </c>
       <c r="M178">
         <f t="shared" ca="1" si="17"/>
-        <v>0.8088999999999964</v>
+        <v>0.45389999999999653</v>
       </c>
       <c r="N178">
         <f t="shared" ca="1" si="18"/>
-        <v>0.9494131455398902</v>
+        <v>0.53274647887322502</v>
       </c>
       <c r="O178">
         <f t="shared" ca="1" si="19"/>
-        <v>0.65431920999999416</v>
+        <v>0.20602520999999685</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.3">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="D179" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>48.87735</v>
+        <v>49.452350000000003</v>
       </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
@@ -9296,26 +9296,26 @@
       </c>
       <c r="J179">
         <f t="shared" ca="1" si="22"/>
-        <v>0.67</v>
+        <v>-0.08</v>
       </c>
       <c r="K179">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.98</v>
+        <v>0.92</v>
       </c>
       <c r="L179">
         <v>0.5</v>
       </c>
       <c r="M179">
         <f t="shared" ca="1" si="17"/>
-        <v>5.7773499999999993</v>
+        <v>6.3523499999999995</v>
       </c>
       <c r="N179">
         <f t="shared" ca="1" si="18"/>
-        <v>13.404524361948944</v>
+        <v>14.738631090487232</v>
       </c>
       <c r="O179">
         <f t="shared" ca="1" si="19"/>
-        <v>33.377773022499994</v>
+        <v>40.352350522499997</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.3">
@@ -9330,7 +9330,7 @@
       </c>
       <c r="D180" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>41.134500000000003</v>
+        <v>40.5745</v>
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
@@ -9345,26 +9345,26 @@
       </c>
       <c r="J180">
         <f t="shared" ca="1" si="22"/>
-        <v>0.25</v>
+        <v>0.73</v>
       </c>
       <c r="K180">
         <f t="shared" ca="1" si="23"/>
-        <v>0.68</v>
+        <v>-0.92</v>
       </c>
       <c r="L180">
         <v>0.5</v>
       </c>
       <c r="M180">
         <f t="shared" ca="1" si="17"/>
-        <v>0.13449999999999934</v>
+        <v>-0.42550000000000071</v>
       </c>
       <c r="N180">
         <f t="shared" ca="1" si="18"/>
-        <v>0.32804878048782182</v>
+        <v>-1.0378048780487759</v>
       </c>
       <c r="O180">
         <f t="shared" ca="1" si="19"/>
-        <v>1.8090249999999822E-2</v>
+        <v>0.18105025000000061</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.3">
@@ -9379,7 +9379,7 @@
       </c>
       <c r="D181" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>9.3797499999999996</v>
+        <v>9.3797999999999995</v>
       </c>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
@@ -9394,26 +9394,26 @@
       </c>
       <c r="J181">
         <f t="shared" ca="1" si="22"/>
-        <v>8.3000000000000001E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="K181">
         <f t="shared" ca="1" si="23"/>
-        <v>1.2999999999999999E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="L181">
         <v>0.5</v>
       </c>
       <c r="M181">
         <f t="shared" ca="1" si="17"/>
-        <v>1.3797500000000003</v>
+        <v>1.3798000000000001</v>
       </c>
       <c r="N181">
         <f t="shared" ca="1" si="18"/>
-        <v>17.246874999999996</v>
+        <v>17.247499999999995</v>
       </c>
       <c r="O181">
         <f t="shared" ca="1" si="19"/>
-        <v>1.9037100625000007</v>
+        <v>1.9038480400000004</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.3">
@@ -9428,7 +9428,7 @@
       </c>
       <c r="D182" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>56.857349999999997</v>
+        <v>56.867350000000002</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
@@ -9443,26 +9443,26 @@
       </c>
       <c r="J182">
         <f t="shared" ca="1" si="22"/>
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="K182">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.26</v>
+        <v>-0.74</v>
       </c>
       <c r="L182">
         <v>0.5</v>
       </c>
       <c r="M182">
         <f t="shared" ca="1" si="17"/>
-        <v>-4.1426500000000015</v>
+        <v>-4.1326500000000017</v>
       </c>
       <c r="N182">
         <f t="shared" ca="1" si="18"/>
-        <v>-6.7912295081967278</v>
+        <v>-6.7748360655737638</v>
       </c>
       <c r="O182">
         <f t="shared" ca="1" si="19"/>
-        <v>17.161549022500012</v>
+        <v>17.078796022500015</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.3">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="D183" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>15.9191</v>
+        <v>15.921800000000001</v>
       </c>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
@@ -9492,26 +9492,26 @@
       </c>
       <c r="J183">
         <f t="shared" ca="1" si="22"/>
-        <v>5.4999999999999997E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="K183">
         <f t="shared" ca="1" si="23"/>
-        <v>1.6000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L183">
         <v>0.5</v>
       </c>
       <c r="M183">
         <f t="shared" ca="1" si="17"/>
-        <v>-5.0809000000000006</v>
+        <v>-5.0781999999999998</v>
       </c>
       <c r="N183">
         <f t="shared" ca="1" si="18"/>
-        <v>-24.194761904761908</v>
+        <v>-24.181904761904761</v>
       </c>
       <c r="O183">
         <f t="shared" ca="1" si="19"/>
-        <v>25.815544810000006</v>
+        <v>25.78811524</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.3">
@@ -9526,7 +9526,7 @@
       </c>
       <c r="D184" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>31.238350000000001</v>
+        <v>31.229749999999999</v>
       </c>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
@@ -9541,26 +9541,26 @@
       </c>
       <c r="J184">
         <f t="shared" ca="1" si="22"/>
-        <v>-5.0000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="K184">
         <f t="shared" ca="1" si="23"/>
-        <v>9.1999999999999998E-3</v>
+        <v>-8.8999999999999999E-3</v>
       </c>
       <c r="L184">
         <v>0.5</v>
       </c>
       <c r="M184">
         <f t="shared" ca="1" si="17"/>
-        <v>2.0383500000000008</v>
+        <v>2.0297500000000008</v>
       </c>
       <c r="N184">
         <f t="shared" ca="1" si="18"/>
-        <v>6.980650684931522</v>
+        <v>6.9511986301369788</v>
       </c>
       <c r="O184">
         <f t="shared" ca="1" si="19"/>
-        <v>4.1548707225000028</v>
+        <v>4.1198850625000034</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.3">
@@ -9575,7 +9575,7 @@
       </c>
       <c r="D185" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>45.855199999999996</v>
+        <v>44.720199999999998</v>
       </c>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
@@ -9590,26 +9590,26 @@
       </c>
       <c r="J185">
         <f t="shared" ca="1" si="22"/>
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="K185">
         <f t="shared" ca="1" si="23"/>
-        <v>0.73</v>
+        <v>-0.82</v>
       </c>
       <c r="L185">
         <v>0.5</v>
       </c>
       <c r="M185">
         <f t="shared" ca="1" si="17"/>
-        <v>1.5552000000000021</v>
+        <v>0.42020000000000229</v>
       </c>
       <c r="N185">
         <f t="shared" ca="1" si="18"/>
-        <v>3.510609480812632</v>
+        <v>0.94853273137698313</v>
       </c>
       <c r="O185">
         <f t="shared" ca="1" si="19"/>
-        <v>2.4186470400000069</v>
+        <v>0.17656804000000192</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.3">
@@ -9624,7 +9624,7 @@
       </c>
       <c r="D186" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>45.988500000000002</v>
+        <v>45.888500000000001</v>
       </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
@@ -9639,26 +9639,26 @@
       </c>
       <c r="J186">
         <f t="shared" ca="1" si="22"/>
-        <v>0.08</v>
+        <v>0.86</v>
       </c>
       <c r="K186">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.02</v>
+        <v>-1</v>
       </c>
       <c r="L186">
         <v>0.5</v>
       </c>
       <c r="M186">
         <f t="shared" ca="1" si="17"/>
-        <v>-1.1115000000000006</v>
+        <v>-1.2115000000000007</v>
       </c>
       <c r="N186">
         <f t="shared" ca="1" si="18"/>
-        <v>-2.3598726114649637</v>
+        <v>-2.5721868365180534</v>
       </c>
       <c r="O186">
         <f t="shared" ca="1" si="19"/>
-        <v>1.2354322500000012</v>
+        <v>1.4677322500000016</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.3">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="D187" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>88.934599999999989</v>
+        <v>89.639600000000002</v>
       </c>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
@@ -9688,26 +9688,26 @@
       </c>
       <c r="J187">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.51</v>
+        <v>0.33</v>
       </c>
       <c r="K187">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.1</v>
+        <v>0.47</v>
       </c>
       <c r="L187">
         <v>0.5</v>
       </c>
       <c r="M187">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.66539999999999855</v>
+        <v>3.9600000000001495E-2</v>
       </c>
       <c r="N187">
         <f t="shared" ca="1" si="18"/>
-        <v>-0.74263392857143451</v>
+        <v>4.4196428571430246E-2</v>
       </c>
       <c r="O187">
         <f t="shared" ca="1" si="19"/>
-        <v>0.4427571599999981</v>
+        <v>1.5681600000001185E-3</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.3">
@@ -9722,7 +9722,7 @@
       </c>
       <c r="D188" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>68.674999999999997</v>
+        <v>68.594999999999999</v>
       </c>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
@@ -9741,22 +9741,22 @@
       </c>
       <c r="K188">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.42</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="L188">
         <v>0.5</v>
       </c>
       <c r="M188">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.22500000000000456</v>
+        <v>-0.30500000000000455</v>
       </c>
       <c r="N188">
         <f t="shared" ca="1" si="18"/>
-        <v>-0.32656023222061847</v>
+        <v>-0.44267053701017023</v>
       </c>
       <c r="O188">
         <f t="shared" ca="1" si="19"/>
-        <v>5.062500000000205E-2</v>
+        <v>9.3025000000002772E-2</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.3">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="D189" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>61.85765</v>
+        <v>61.657649999999997</v>
       </c>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
@@ -9786,26 +9786,26 @@
       </c>
       <c r="J189">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.91</v>
+        <v>-0.76</v>
       </c>
       <c r="K189">
         <f t="shared" ca="1" si="23"/>
-        <v>0.41</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="L189">
         <v>0.5</v>
       </c>
       <c r="M189">
         <f t="shared" ca="1" si="17"/>
-        <v>-4.1423500000000004</v>
+        <v>-4.3423500000000006</v>
       </c>
       <c r="N189">
         <f t="shared" ca="1" si="18"/>
-        <v>-6.276287878787878</v>
+        <v>-6.5793181818181834</v>
       </c>
       <c r="O189">
         <f t="shared" ca="1" si="19"/>
-        <v>17.159063522500002</v>
+        <v>18.856003522500004</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.3">
@@ -9820,7 +9820,7 @@
       </c>
       <c r="D190" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>65.839249999999993</v>
+        <v>65.64425</v>
       </c>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
@@ -9835,26 +9835,26 @@
       </c>
       <c r="J190">
         <f t="shared" ca="1" si="22"/>
-        <v>0.41</v>
+        <v>-0.98</v>
       </c>
       <c r="K190">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.59</v>
+        <v>0.41</v>
       </c>
       <c r="L190">
         <v>0.5</v>
       </c>
       <c r="M190">
         <f t="shared" ca="1" si="17"/>
-        <v>-2.6607500000000002</v>
+        <v>-2.8557500000000005</v>
       </c>
       <c r="N190">
         <f t="shared" ca="1" si="18"/>
-        <v>-3.8843065693430767</v>
+        <v>-4.1689781021897794</v>
       </c>
       <c r="O190">
         <f t="shared" ca="1" si="19"/>
-        <v>7.0795905625000008</v>
+        <v>8.1553080625000032</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.3">
@@ -9869,7 +9869,7 @@
       </c>
       <c r="D191" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>34.421599999999998</v>
+        <v>34.256599999999999</v>
       </c>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
@@ -9884,26 +9884,26 @@
       </c>
       <c r="J191">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.19</v>
+        <v>-0.94</v>
       </c>
       <c r="K191">
         <f t="shared" ca="1" si="23"/>
-        <v>0.56999999999999995</v>
+        <v>0.99</v>
       </c>
       <c r="L191">
         <v>0.5</v>
       </c>
       <c r="M191">
         <f t="shared" ca="1" si="17"/>
-        <v>0.32159999999999878</v>
+        <v>0.15659999999999885</v>
       </c>
       <c r="N191">
         <f t="shared" ca="1" si="18"/>
-        <v>0.94310850439882632</v>
+        <v>0.45923753665688682</v>
       </c>
       <c r="O191">
         <f t="shared" ca="1" si="19"/>
-        <v>0.10342655999999921</v>
+        <v>2.4523559999999639E-2</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.3">
@@ -9918,7 +9918,7 @@
       </c>
       <c r="D192" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>34.496000000000002</v>
+        <v>35.816000000000003</v>
       </c>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
@@ -9933,26 +9933,26 @@
       </c>
       <c r="J192">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.84</v>
+        <v>0.96</v>
       </c>
       <c r="K192">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.64</v>
+        <v>0.2</v>
       </c>
       <c r="L192">
         <v>0.5</v>
       </c>
       <c r="M192">
         <f t="shared" ca="1" si="17"/>
-        <v>-1.1040000000000008</v>
+        <v>0.21599999999999922</v>
       </c>
       <c r="N192">
         <f t="shared" ca="1" si="18"/>
-        <v>-3.1011235955056171</v>
+        <v>0.6067415730337089</v>
       </c>
       <c r="O192">
         <f t="shared" ca="1" si="19"/>
-        <v>1.2188160000000017</v>
+        <v>4.6655999999999663E-2</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.3">
@@ -9967,7 +9967,7 @@
       </c>
       <c r="D193" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>18.812249999999999</v>
+        <v>18.8078</v>
       </c>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
@@ -9982,26 +9982,26 @@
       </c>
       <c r="J193">
         <f t="shared" ca="1" si="22"/>
-        <v>9.1000000000000004E-3</v>
+        <v>-8.9999999999999998E-4</v>
       </c>
       <c r="K193">
         <f t="shared" ca="1" si="23"/>
-        <v>-4.7999999999999996E-3</v>
+        <v>-3.7000000000000002E-3</v>
       </c>
       <c r="L193">
         <v>0.5</v>
       </c>
       <c r="M193">
         <f t="shared" ca="1" si="17"/>
-        <v>2.0122499999999994</v>
+        <v>2.0077999999999996</v>
       </c>
       <c r="N193">
         <f t="shared" ca="1" si="18"/>
-        <v>11.977678571428552</v>
+        <v>11.951190476190465</v>
       </c>
       <c r="O193">
         <f t="shared" ca="1" si="19"/>
-        <v>4.0491500624999981</v>
+        <v>4.0312608399999981</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.3">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="D194" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>27.860800000000001</v>
+        <v>27.854300000000002</v>
       </c>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
@@ -10031,26 +10031,26 @@
       </c>
       <c r="J194">
         <f t="shared" ca="1" si="22"/>
-        <v>4.1999999999999997E-3</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="K194">
         <f t="shared" ca="1" si="23"/>
-        <v>6.7000000000000002E-3</v>
+        <v>-8.9999999999999998E-4</v>
       </c>
       <c r="L194">
         <v>0.5</v>
       </c>
       <c r="M194">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2607999999999999</v>
+        <v>1.2543</v>
       </c>
       <c r="N194">
         <f t="shared" ca="1" si="18"/>
-        <v>4.7398496240601551</v>
+        <v>4.7154135338345782</v>
       </c>
       <c r="O194">
         <f t="shared" ca="1" si="19"/>
-        <v>1.5896166399999998</v>
+        <v>1.57326849</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.3">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="D195" s="4">
         <f t="shared" ref="D195:D209" ca="1" si="24">B195+M195</f>
-        <v>37.774249999999995</v>
+        <v>37.059249999999999</v>
       </c>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
@@ -10080,26 +10080,26 @@
       </c>
       <c r="J195">
         <f t="shared" ca="1" si="22"/>
-        <v>0.56000000000000005</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="K195">
         <f t="shared" ca="1" si="23"/>
-        <v>0.04</v>
+        <v>-0.25</v>
       </c>
       <c r="L195">
         <v>0.5</v>
       </c>
       <c r="M195">
         <f t="shared" ref="M195:M209" ca="1" si="25">(I195+J195+K195)*L195</f>
-        <v>-3.5257499999999991</v>
+        <v>-4.2407499999999994</v>
       </c>
       <c r="N195">
         <f t="shared" ref="N195:N209" ca="1" si="26">((D195/B195)-1)*100</f>
-        <v>-8.5369249394673155</v>
+        <v>-10.268159806295396</v>
       </c>
       <c r="O195">
         <f t="shared" ref="O195:O209" ca="1" si="27">M195^2</f>
-        <v>12.430913062499993</v>
+        <v>17.983960562499995</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.3">
@@ -10114,7 +10114,7 @@
       </c>
       <c r="D196" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>56.20485</v>
+        <v>56.739849999999997</v>
       </c>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
@@ -10129,26 +10129,26 @@
       </c>
       <c r="J196">
         <f t="shared" ref="J196:J209" ca="1" si="30">IF(B196 &lt; 30, RANDBETWEEN(-100, 100) / 10000, RANDBETWEEN(-100,100) / 100)</f>
-        <v>-0.11</v>
+        <v>0.64</v>
       </c>
       <c r="K196">
         <f t="shared" ref="K196:K209" ca="1" si="31">IF(B196 &lt; 30, RANDBETWEEN(-100, 100) / 10000, RANDBETWEEN(-100,100) / 100)</f>
-        <v>-0.47</v>
+        <v>-0.15</v>
       </c>
       <c r="L196">
         <v>0.5</v>
       </c>
       <c r="M196">
         <f t="shared" ca="1" si="25"/>
-        <v>-2.0951499999999976</v>
+        <v>-1.5601499999999975</v>
       </c>
       <c r="N196">
         <f t="shared" ca="1" si="26"/>
-        <v>-3.5937392795883261</v>
+        <v>-2.6760720411663774</v>
       </c>
       <c r="O196">
         <f t="shared" ca="1" si="27"/>
-        <v>4.38965352249999</v>
+        <v>2.434068022499992</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.3">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="D197" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>14.12555</v>
+        <v>14.132300000000001</v>
       </c>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
@@ -10178,26 +10178,26 @@
       </c>
       <c r="J197">
         <f t="shared" ca="1" si="30"/>
-        <v>-7.1000000000000004E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="K197">
         <f t="shared" ca="1" si="31"/>
-        <v>6.9999999999999999E-4</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="L197">
         <v>0.5</v>
       </c>
       <c r="M197">
         <f t="shared" ca="1" si="25"/>
-        <v>7.6255500000000005</v>
+        <v>7.6322999999999999</v>
       </c>
       <c r="N197">
         <f t="shared" ca="1" si="26"/>
-        <v>117.31615384615384</v>
+        <v>117.41999999999999</v>
       </c>
       <c r="O197">
         <f t="shared" ca="1" si="27"/>
-        <v>58.14901280250001</v>
+        <v>58.252003289999998</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.3">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="D198" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>60.684899999999999</v>
+        <v>60.754899999999999</v>
       </c>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
@@ -10227,26 +10227,26 @@
       </c>
       <c r="J198">
         <f t="shared" ca="1" si="30"/>
-        <v>0.71</v>
+        <v>-0.68</v>
       </c>
       <c r="K198">
         <f t="shared" ca="1" si="31"/>
-        <v>-0.83</v>
+        <v>0.7</v>
       </c>
       <c r="L198">
         <v>0.5</v>
       </c>
       <c r="M198">
         <f t="shared" ca="1" si="25"/>
-        <v>-1.1150999999999995</v>
+        <v>-1.0450999999999997</v>
       </c>
       <c r="N198">
         <f t="shared" ca="1" si="26"/>
-        <v>-1.8043689320388356</v>
+        <v>-1.6911003236245947</v>
       </c>
       <c r="O198">
         <f t="shared" ca="1" si="27"/>
-        <v>1.2434480099999989</v>
+        <v>1.0922340099999994</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.3">
@@ -10261,7 +10261,7 @@
       </c>
       <c r="D199" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>54.98415</v>
+        <v>54.959150000000001</v>
       </c>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
@@ -10276,26 +10276,26 @@
       </c>
       <c r="J199">
         <f t="shared" ca="1" si="30"/>
-        <v>-0.34</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K199">
         <f t="shared" ca="1" si="31"/>
-        <v>-0.04</v>
+        <v>-0.98</v>
       </c>
       <c r="L199">
         <v>0.5</v>
       </c>
       <c r="M199">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.51584999999999914</v>
+        <v>-0.54084999999999905</v>
       </c>
       <c r="N199">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.92945945945945851</v>
+        <v>-0.9745045045045031</v>
       </c>
       <c r="O199">
         <f t="shared" ca="1" si="27"/>
-        <v>0.26610122249999912</v>
+        <v>0.292518722499999</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.3">
@@ -10310,7 +10310,7 @@
       </c>
       <c r="D200" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>29.5486</v>
+        <v>29.541150000000002</v>
       </c>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
@@ -10325,26 +10325,26 @@
       </c>
       <c r="J200">
         <f t="shared" ca="1" si="30"/>
-        <v>1.6999999999999999E-3</v>
+        <v>-6.1000000000000004E-3</v>
       </c>
       <c r="K200">
         <f t="shared" ca="1" si="31"/>
-        <v>1.4E-3</v>
+        <v>-5.7000000000000002E-3</v>
       </c>
       <c r="L200">
         <v>0.5</v>
       </c>
       <c r="M200">
         <f t="shared" ca="1" si="25"/>
-        <v>8.9486000000000008</v>
+        <v>8.9411500000000004</v>
       </c>
       <c r="N200">
         <f t="shared" ca="1" si="26"/>
-        <v>43.439805825242715</v>
+        <v>43.403640776699028</v>
       </c>
       <c r="O200">
         <f t="shared" ca="1" si="27"/>
-        <v>80.077441960000016</v>
+        <v>79.944163322500003</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.3">
@@ -10359,7 +10359,7 @@
       </c>
       <c r="D201" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>55.766999999999996</v>
+        <v>55.821999999999996</v>
       </c>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
@@ -10374,26 +10374,26 @@
       </c>
       <c r="J201">
         <f t="shared" ca="1" si="30"/>
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="K201">
         <f t="shared" ca="1" si="31"/>
-        <v>-0.98</v>
+        <v>-0.99</v>
       </c>
       <c r="L201">
         <v>0.5</v>
       </c>
       <c r="M201">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.73300000000000121</v>
+        <v>-0.67800000000000127</v>
       </c>
       <c r="N201">
         <f t="shared" ca="1" si="26"/>
-        <v>-1.297345132743366</v>
+        <v>-1.2000000000000122</v>
       </c>
       <c r="O201">
         <f t="shared" ca="1" si="27"/>
-        <v>0.53728900000000179</v>
+        <v>0.4596840000000017</v>
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.3">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="D202" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>68.923199999999994</v>
+        <v>68.898200000000003</v>
       </c>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
@@ -10423,26 +10423,26 @@
       </c>
       <c r="J202">
         <f t="shared" ca="1" si="30"/>
-        <v>-0.19</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="K202">
         <f t="shared" ca="1" si="31"/>
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="L202">
         <v>0.5</v>
       </c>
       <c r="M202">
         <f t="shared" ca="1" si="25"/>
-        <v>1.5231999999999952</v>
+        <v>1.4981999999999949</v>
       </c>
       <c r="N202">
         <f t="shared" ca="1" si="26"/>
-        <v>2.2599406528189814</v>
+        <v>2.222848664688426</v>
       </c>
       <c r="O202">
         <f t="shared" ca="1" si="27"/>
-        <v>2.3201382399999853</v>
+        <v>2.2446032399999845</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.3">
@@ -10457,7 +10457,7 @@
       </c>
       <c r="D203" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>51.339700000000001</v>
+        <v>52.7547</v>
       </c>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
@@ -10472,26 +10472,26 @@
       </c>
       <c r="J203">
         <f t="shared" ca="1" si="30"/>
-        <v>-0.79</v>
+        <v>0.22</v>
       </c>
       <c r="K203">
         <f t="shared" ca="1" si="31"/>
-        <v>-0.9</v>
+        <v>0.92</v>
       </c>
       <c r="L203">
         <v>0.5</v>
       </c>
       <c r="M203">
         <f t="shared" ca="1" si="25"/>
-        <v>2.3396999999999992</v>
+        <v>3.7546999999999993</v>
       </c>
       <c r="N203">
         <f t="shared" ca="1" si="26"/>
-        <v>4.774897959183666</v>
+        <v>7.6626530612244892</v>
       </c>
       <c r="O203">
         <f t="shared" ca="1" si="27"/>
-        <v>5.474196089999996</v>
+        <v>14.097772089999994</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.3">
@@ -10506,7 +10506,7 @@
       </c>
       <c r="D204" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>21.754049999999999</v>
+        <v>21.740549999999999</v>
       </c>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
@@ -10521,26 +10521,26 @@
       </c>
       <c r="J204">
         <f t="shared" ca="1" si="30"/>
-        <v>6.4999999999999997E-3</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="K204">
         <f t="shared" ca="1" si="31"/>
-        <v>7.1000000000000004E-3</v>
+        <v>-5.4000000000000003E-3</v>
       </c>
       <c r="L204">
         <v>0.5</v>
       </c>
       <c r="M204">
         <f t="shared" ca="1" si="25"/>
-        <v>0.75404999999999933</v>
+        <v>0.74054999999999926</v>
       </c>
       <c r="N204">
         <f t="shared" ca="1" si="26"/>
-        <v>3.5907142857142915</v>
+        <v>3.5264285714285748</v>
       </c>
       <c r="O204">
         <f t="shared" ca="1" si="27"/>
-        <v>0.56859140249999895</v>
+        <v>0.5484143024999989</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.3">
@@ -10555,7 +10555,7 @@
       </c>
       <c r="D205" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>25.148</v>
+        <v>25.145</v>
       </c>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
@@ -10570,26 +10570,26 @@
       </c>
       <c r="J205">
         <f t="shared" ca="1" si="30"/>
-        <v>4.1000000000000003E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="K205">
         <f t="shared" ca="1" si="31"/>
-        <v>-4.3E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="L205">
         <v>0.5</v>
       </c>
       <c r="M205">
         <f t="shared" ca="1" si="25"/>
-        <v>1.7480000000000009</v>
+        <v>1.745000000000001</v>
       </c>
       <c r="N205">
         <f t="shared" ca="1" si="26"/>
-        <v>7.4700854700854746</v>
+        <v>7.457264957264953</v>
       </c>
       <c r="O205">
         <f t="shared" ca="1" si="27"/>
-        <v>3.0555040000000031</v>
+        <v>3.0450250000000034</v>
       </c>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.3">
@@ -10604,7 +10604,7 @@
       </c>
       <c r="D206" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>45.603250000000003</v>
+        <v>46.52825</v>
       </c>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
@@ -10619,26 +10619,26 @@
       </c>
       <c r="J206">
         <f t="shared" ca="1" si="30"/>
-        <v>-0.74</v>
+        <v>0.98</v>
       </c>
       <c r="K206">
         <f t="shared" ca="1" si="31"/>
-        <v>-0.51</v>
+        <v>-0.38</v>
       </c>
       <c r="L206">
         <v>0.5</v>
       </c>
       <c r="M206">
         <f t="shared" ca="1" si="25"/>
-        <v>0.3732500000000023</v>
+        <v>1.2982500000000023</v>
       </c>
       <c r="N206">
         <f t="shared" ca="1" si="26"/>
-        <v>0.82522661950035214</v>
+        <v>2.870329427371221</v>
       </c>
       <c r="O206">
         <f t="shared" ca="1" si="27"/>
-        <v>0.13931556250000171</v>
+        <v>1.6854530625000061</v>
       </c>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.3">
@@ -10653,7 +10653,7 @@
       </c>
       <c r="D207" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>47.42595</v>
+        <v>47.220950000000002</v>
       </c>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
@@ -10668,26 +10668,26 @@
       </c>
       <c r="J207">
         <f t="shared" ca="1" si="30"/>
-        <v>0.73</v>
+        <v>-0.27</v>
       </c>
       <c r="K207">
         <f t="shared" ca="1" si="31"/>
-        <v>0.18</v>
+        <v>0.77</v>
       </c>
       <c r="L207">
         <v>0.5</v>
       </c>
       <c r="M207">
         <f t="shared" ca="1" si="25"/>
-        <v>-1.5740500000000015</v>
+        <v>-1.7790500000000014</v>
       </c>
       <c r="N207">
         <f t="shared" ca="1" si="26"/>
-        <v>-3.2123469387755121</v>
+        <v>-3.6307142857142871</v>
       </c>
       <c r="O207">
         <f t="shared" ca="1" si="27"/>
-        <v>2.4776334025000049</v>
+        <v>3.1650189025000048</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.3">
@@ -10702,7 +10702,7 @@
       </c>
       <c r="D208" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>44.119300000000003</v>
+        <v>45.284300000000002</v>
       </c>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
@@ -10717,26 +10717,26 @@
       </c>
       <c r="J208">
         <f t="shared" ca="1" si="30"/>
-        <v>-0.64</v>
+        <v>0.92</v>
       </c>
       <c r="K208">
         <f t="shared" ca="1" si="31"/>
-        <v>-0.87</v>
+        <v>-0.1</v>
       </c>
       <c r="L208">
         <v>0.5</v>
       </c>
       <c r="M208">
         <f t="shared" ca="1" si="25"/>
-        <v>1.9300000000000206E-2</v>
+        <v>1.1843000000000001</v>
       </c>
       <c r="N208">
         <f t="shared" ca="1" si="26"/>
-        <v>4.3764172335603035E-2</v>
+        <v>2.6854875283446766</v>
       </c>
       <c r="O208">
         <f t="shared" ca="1" si="27"/>
-        <v>3.7249000000000792E-4</v>
+        <v>1.4025664900000003</v>
       </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.3">
@@ -10751,7 +10751,7 @@
       </c>
       <c r="D209" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>68.643799999999999</v>
+        <v>69.258800000000008</v>
       </c>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
@@ -10766,26 +10766,26 @@
       </c>
       <c r="J209">
         <f t="shared" ca="1" si="30"/>
-        <v>0.63</v>
+        <v>0.19</v>
       </c>
       <c r="K209">
         <f t="shared" ca="1" si="31"/>
-        <v>-0.75</v>
+        <v>0.92</v>
       </c>
       <c r="L209">
         <v>0.5</v>
       </c>
       <c r="M209">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.35619999999999891</v>
+        <v>0.25880000000000114</v>
       </c>
       <c r="N209">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.5162318840579716</v>
+        <v>0.37507246376813352</v>
       </c>
       <c r="O209">
         <f t="shared" ca="1" si="27"/>
-        <v>0.12687843999999923</v>
+        <v>6.6977440000000596E-2</v>
       </c>
     </row>
   </sheetData>

--- a/NoiceAndFakes/noice.xlsx
+++ b/NoiceAndFakes/noice.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="23256" windowHeight="13176"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="noice" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -501,7 +501,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -512,7 +512,7 @@
   <dimension ref="A1:V209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:V209"/>
+      <selection activeCell="H31" sqref="A1:V209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +546,7 @@
       </c>
       <c r="D2">
         <f ca="1">RSQ(B3:B459,D3:D459)</f>
-        <v>0.99423355611915154</v>
+        <v>0.99463213692660091</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -613,11 +613,11 @@
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D66" ca="1" si="0">B3+M3</f>
-        <v>29.21865</v>
+        <v>29.227899999999998</v>
       </c>
       <c r="E3" s="3">
         <f ca="1">RSQ(B3:B209,D3:D209)</f>
-        <v>0.99423355611915154</v>
+        <v>0.99463213692660091</v>
       </c>
       <c r="F3" s="5" t="e">
         <f>RSQ(B367:B459,D367:D459)</f>
@@ -634,30 +634,30 @@
       </c>
       <c r="J3">
         <f ca="1">IF(B3 &lt; 30, RANDBETWEEN(-100, 100) / 10000, RANDBETWEEN(-100,100) / 100)</f>
-        <v>-6.4999999999999997E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="K3">
         <f ca="1">IF(B3 &lt; 30, RANDBETWEEN(-100, 100) / 10000, RANDBETWEEN(-100,100) / 100)</f>
-        <v>1.4E-3</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="L3">
         <v>0.5</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M66" ca="1" si="1">(I3+J3+K3)*L3</f>
-        <v>1.0586499999999994</v>
+        <v>1.0678999999999994</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" ca="1" si="2">((D3/B3)-1)*100</f>
-        <v>3.7594105113636367</v>
+        <v>3.7922585227272654</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" ca="1" si="3">M3^2</f>
-        <v>1.1207398224999987</v>
+        <v>1.1404104099999988</v>
       </c>
       <c r="P3">
         <f ca="1">SQRT(P110/997)</f>
-        <v>0.89402944148218189</v>
+        <v>0.86667866892681156</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -672,7 +672,7 @@
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>18.828900000000001</v>
+        <v>18.824449999999999</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
@@ -691,26 +691,26 @@
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J67" ca="1" si="6">IF(B4 &lt; 30, RANDBETWEEN(-100, 100) / 10000, RANDBETWEEN(-100,100) / 100)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K67" ca="1" si="7">IF(B4 &lt; 30, RANDBETWEEN(-100, 100) / 10000, RANDBETWEEN(-100,100) / 100)</f>
-        <v>-2.3999999999999998E-3</v>
+        <v>-6.3E-3</v>
       </c>
       <c r="L4">
         <v>0.5</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25890000000000007</v>
+        <v>0.25445000000000007</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3941841680129352</v>
+        <v>1.3702207862143156</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="3"/>
-        <v>6.7029210000000033E-2</v>
+        <v>6.4744802500000032E-2</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -725,7 +725,7 @@
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>14.14485</v>
+        <v>14.14655</v>
       </c>
       <c r="E5" s="3" t="e">
         <f>SQRT((SUM(#REF!)/169))</f>
@@ -746,26 +746,26 @@
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="6"/>
-        <v>1.8E-3</v>
+        <v>-4.7999999999999996E-3</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="7"/>
-        <v>-4.7999999999999996E-3</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="L5">
         <v>0.5</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1151499999999999</v>
+        <v>-1.1134499999999998</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.3076671035386624</v>
+        <v>-7.2965268676277839</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2435595224999998</v>
+        <v>1.2397709024999997</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -780,7 +780,7 @@
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6390700000000002</v>
+        <v>7.6393699999999995</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -795,26 +795,26 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="6"/>
-        <v>9.4000000000000004E-3</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="7"/>
-        <v>-8.8999999999999999E-3</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="L6">
         <v>0.5</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.37092999999999987</v>
+        <v>-0.37062999999999985</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.630836454431952</v>
+        <v>-4.6270911360799083</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13758906489999989</v>
+        <v>0.13736659689999989</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -829,7 +829,7 @@
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>47.781950000000002</v>
+        <v>47.97195</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -846,26 +846,26 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.76</v>
+        <v>-0.4</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="7"/>
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="L7">
         <v>0.5</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2080500000000023</v>
+        <v>-1.0180500000000023</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.4659114104919388</v>
+        <v>-2.0780771586037972</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4593848025000056</v>
+        <v>1.0364258025000048</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -880,7 +880,7 @@
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43.146599999999999</v>
+        <v>43.211599999999997</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
@@ -897,26 +897,26 @@
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.98</v>
+        <v>-0.54</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.16</v>
+        <v>-0.47</v>
       </c>
       <c r="L8">
         <v>0.5</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4333999999999987</v>
+        <v>-1.3683999999999985</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.2153432032301477</v>
+        <v>-3.0695379093764075</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.0546355599999964</v>
+        <v>1.8725185599999958</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -931,7 +931,7 @@
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>33.172199999999997</v>
+        <v>32.792200000000001</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
@@ -950,26 +950,26 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="6"/>
-        <v>0.61</v>
+        <v>0.16</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="7"/>
-        <v>0.54</v>
+        <v>0.23</v>
       </c>
       <c r="L9">
         <v>0.5</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.94779999999999842</v>
+        <v>-1.3277999999999983</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.7778429073856969</v>
+        <v>-3.8915592028135881</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89832483999999702</v>
+        <v>1.7630528399999956</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -984,7 +984,7 @@
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>15.1311</v>
+        <v>15.129850000000001</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
@@ -1001,26 +1001,26 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="6"/>
-        <v>2.3999999999999998E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="7"/>
-        <v>2.5000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="L10">
         <v>0.5</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.10889999999999983</v>
+        <v>-0.11014999999999985</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.7145669291338641</v>
+        <v>-0.72276902887138395</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1859209999999964E-2</v>
+        <v>1.2133022499999965E-2</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37.870000000000005</v>
+        <v>37.410000000000004</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
@@ -1054,26 +1054,26 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="6"/>
-        <v>0.95</v>
+        <v>-0.3</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.7</v>
+        <v>-0.37</v>
       </c>
       <c r="L11">
         <v>0.5</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.12999999999999901</v>
+        <v>-0.58999999999999897</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.34210526315788803</v>
+        <v>-1.552631578947361</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6899999999999742E-2</v>
+        <v>0.3480999999999988</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>34.938850000000002</v>
+        <v>36.013850000000005</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
@@ -1107,26 +1107,26 @@
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.93</v>
+        <v>0.7</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.54</v>
+        <v>-0.02</v>
       </c>
       <c r="L12">
         <v>0.5</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0611499999999985</v>
+        <v>1.3850000000001592E-2</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.9476388888888816</v>
+        <v>3.8472222222241115E-2</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1260393224999967</v>
+        <v>1.918225000000441E-4</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>12.19435</v>
+        <v>12.1867</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
@@ -1158,26 +1158,26 @@
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="6"/>
-        <v>6.4000000000000003E-3</v>
+        <v>-3.8999999999999998E-3</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="L13">
         <v>0.5</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19435000000000036</v>
+        <v>0.18670000000000034</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6195833333333409</v>
+        <v>1.5558333333333341</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7771922500000138E-2</v>
+        <v>3.4856890000000126E-2</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45.70635</v>
+        <v>45.366349999999997</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1207,26 +1207,26 @@
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.1</v>
+        <v>-0.54</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="7"/>
-        <v>0.63</v>
+        <v>0.39</v>
       </c>
       <c r="L14">
         <v>0.5</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.29365000000000013</v>
+        <v>-0.63365000000000005</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.6383695652173893</v>
+        <v>-1.3775000000000093</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="3"/>
-        <v>8.6230322500000081E-2</v>
+        <v>0.40151232250000007</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>41.613250000000001</v>
+        <v>40.983249999999998</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1256,26 +1256,26 @@
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.12</v>
+        <v>-0.95</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.49</v>
+        <v>-0.92</v>
       </c>
       <c r="L15">
         <v>0.5</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11325000000000046</v>
+        <v>-0.5167499999999996</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2728915662650655</v>
+        <v>-1.2451807228915701</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2825562500000104E-2</v>
+        <v>0.26703056249999957</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36.54645</v>
+        <v>36.356450000000002</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1305,26 +1305,26 @@
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.59</v>
+        <v>0.22</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.79</v>
+        <v>-0.4</v>
       </c>
       <c r="L16">
         <v>0.5</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34644999999999943</v>
+        <v>0.15644999999999937</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95704419889501846</v>
+        <v>0.43218232044199834</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12002760249999961</v>
+        <v>2.4476602499999802E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>48.622900000000001</v>
+        <v>48.007899999999999</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1354,26 +1354,26 @@
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.38</v>
+        <v>-0.94</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.24</v>
+        <v>-0.91</v>
       </c>
       <c r="L17">
         <v>0.5</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3771</v>
+        <v>-1.9921</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.7541999999999955</v>
+        <v>-3.9842000000000044</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8964044099999999</v>
+        <v>3.9684624099999999</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>39.204099999999997</v>
+        <v>40.144100000000002</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1403,26 +1403,26 @@
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.56000000000000005</v>
+        <v>0.35</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.69</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L18">
         <v>0.5</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.7958999999999996</v>
+        <v>-1.8558999999999997</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="2"/>
-        <v>-6.6569047619047694</v>
+        <v>-4.4188095238095197</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="3"/>
-        <v>7.8170568099999977</v>
+        <v>3.4443648099999988</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>20.969750000000001</v>
+        <v>20.962500000000002</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1452,26 +1452,26 @@
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="6"/>
-        <v>7.0000000000000001E-3</v>
+        <v>6.3E-3</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="7"/>
-        <v>6.1999999999999998E-3</v>
+        <v>-7.6E-3</v>
       </c>
       <c r="L19">
         <v>0.5</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.0249999999999382E-2</v>
+        <v>-3.7499999999999381E-2</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.14404761904761587</v>
+        <v>-0.17857142857141683</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1506249999996256E-4</v>
+        <v>1.4062499999999535E-3</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>33.609299999999998</v>
+        <v>32.884299999999996</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1501,26 +1501,26 @@
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="6"/>
-        <v>0.33</v>
+        <v>-0.96</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="L20">
         <v>0.5</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60929999999999851</v>
+        <v>-0.11570000000000148</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8463636363636349</v>
+        <v>-0.35060606060607347</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37124648999999821</v>
+        <v>1.3386490000000343E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>29.580349999999999</v>
+        <v>29.578800000000001</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1550,26 +1550,26 @@
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="6"/>
-        <v>2.0000000000000001E-4</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="7"/>
-        <v>0.01</v>
+        <v>1E-4</v>
       </c>
       <c r="L21">
         <v>0.5</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58035000000000048</v>
+        <v>0.57880000000000043</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0012068965517216</v>
+        <v>1.9958620689655149</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33680612250000053</v>
+        <v>0.33500944000000049</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>12.8546</v>
+        <v>12.86205</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1599,26 +1599,26 @@
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="6"/>
-        <v>-1.8E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="7"/>
-        <v>-4.1000000000000003E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="L22">
         <v>0.5</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3545999999999998</v>
+        <v>0.36204999999999982</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="2"/>
-        <v>2.8367999999999949</v>
+        <v>2.896399999999999</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12574115999999985</v>
+        <v>0.13108020249999985</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>33.407299999999999</v>
+        <v>33.827300000000001</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1648,26 +1648,26 @@
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="6"/>
-        <v>0.57999999999999996</v>
+        <v>0.35</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="7"/>
-        <v>-7.0000000000000007E-2</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <v>0.5</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4073000000000004</v>
+        <v>1.8273000000000004</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="2"/>
-        <v>4.3978124999999979</v>
+        <v>5.7103125000000032</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9804932900000012</v>
+        <v>3.3390252900000013</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>30.827349999999999</v>
+        <v>30.837299999999999</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1697,26 +1697,26 @@
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="6"/>
-        <v>-7.7000000000000002E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="7"/>
-        <v>-6.0000000000000001E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="L24">
         <v>0.5</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3273499999999994</v>
+        <v>1.3372999999999993</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="2"/>
-        <v>4.4994915254237267</v>
+        <v>4.5332203389830461</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7618580224999982</v>
+        <v>1.7883712899999979</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>28.735900000000001</v>
+        <v>28.728000000000002</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1746,26 +1746,26 @@
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="6"/>
-        <v>7.0000000000000001E-3</v>
+        <v>-3.8999999999999998E-3</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="7"/>
-        <v>6.4999999999999997E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="L25">
         <v>0.5</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23590000000000064</v>
+        <v>0.22800000000000062</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82771929824561052</v>
+        <v>0.80000000000000071</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5648810000000298E-2</v>
+        <v>5.198400000000028E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>36.104500000000002</v>
+        <v>35.159500000000001</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1795,26 +1795,26 @@
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="6"/>
-        <v>0.23</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="7"/>
-        <v>0.71</v>
+        <v>-0.67</v>
       </c>
       <c r="L26">
         <v>0.5</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1044999999999991</v>
+        <v>0.15949999999999914</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1557142857142839</v>
+        <v>0.45571428571429262</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2199202499999982</v>
+        <v>2.5440249999999727E-2</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>28.75365</v>
+        <v>28.743749999999999</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1844,26 +1844,26 @@
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="6"/>
-        <v>1E-4</v>
+        <v>-8.3999999999999995E-3</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0000000000000001E-3</v>
+        <v>-6.3E-3</v>
       </c>
       <c r="L27">
         <v>0.5</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.24635000000000079</v>
+        <v>-0.25625000000000075</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.84948275862068989</v>
+        <v>-0.88362068965517349</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="3"/>
-        <v>6.0688322500000391E-2</v>
+        <v>6.5664062500000384E-2</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="D28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>10.81025</v>
+        <v>10.80875</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1893,26 +1893,26 @@
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="6"/>
-        <v>6.1000000000000004E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="7"/>
-        <v>-8.8999999999999999E-3</v>
+        <v>-9.1999999999999998E-3</v>
       </c>
       <c r="L28">
         <v>0.5</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.18974999999999981</v>
+        <v>-0.19124999999999978</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.7249999999999988</v>
+        <v>-1.73863636363637</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="3"/>
-        <v>3.6005062499999928E-2</v>
+        <v>3.6576562499999916E-2</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>38.084350000000001</v>
+        <v>37.824350000000003</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1942,26 +1942,26 @@
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.42</v>
+        <v>0.23</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="7"/>
-        <v>0.98</v>
+        <v>-0.19</v>
       </c>
       <c r="L29">
         <v>0.5</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4349999999999481E-2</v>
+        <v>-0.17565000000000053</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22197368421053021</v>
+        <v>-0.46223684210525695</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1149224999999122E-3</v>
+        <v>3.0852922500000185E-2</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>35.705849999999998</v>
+        <v>34.980850000000004</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1991,26 +1991,26 @@
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="6"/>
-        <v>0.89</v>
+        <v>-0.49</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="7"/>
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="L30">
         <v>0.5</v>
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70585000000000153</v>
+        <v>-1.9149999999998495E-2</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0167142857142828</v>
+        <v>-5.4714285714274613E-2</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49822422250000215</v>
+        <v>3.6672249999994232E-4</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>11.97705</v>
+        <v>11.97035</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2040,26 +2040,26 @@
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="6"/>
-        <v>-1.1999999999999999E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="7"/>
-        <v>8.8999999999999999E-3</v>
+        <v>-8.3999999999999995E-3</v>
       </c>
       <c r="L31">
         <v>0.5</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.2949999999999714E-2</v>
+        <v>-2.9649999999999711E-2</v>
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.19124999999999837</v>
+        <v>-0.2470833333333311</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2670249999998682E-4</v>
+        <v>8.7912249999998291E-4</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="D32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>28.143349999999998</v>
+        <v>28.144549999999999</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2089,26 +2089,26 @@
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="6"/>
-        <v>7.4000000000000003E-3</v>
+        <v>-2E-3</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="7"/>
-        <v>-5.8999999999999999E-3</v>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="L32">
         <v>0.5</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14334999999999984</v>
+        <v>0.14454999999999985</v>
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51196428571427255</v>
+        <v>0.51624999999999588</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="3"/>
-        <v>2.0549222499999954E-2</v>
+        <v>2.0894702499999956E-2</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D33" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>27.044650000000001</v>
+        <v>27.051349999999999</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2138,26 +2138,26 @@
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="6"/>
-        <v>1.9E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="7"/>
-        <v>-8.5000000000000006E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="L33">
         <v>0.5</v>
       </c>
       <c r="M33">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4650000000000162E-2</v>
+        <v>5.1350000000000159E-2</v>
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16537037037036573</v>
+        <v>0.19018518518518768</v>
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9936225000000145E-3</v>
+        <v>2.6368225000000163E-3</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="D34" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>21.403600000000001</v>
+        <v>21.403099999999998</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2187,26 +2187,26 @@
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="6"/>
-        <v>-6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>-7.4999999999999997E-3</v>
       </c>
       <c r="L34">
         <v>0.5</v>
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40359999999999918</v>
+        <v>0.40309999999999918</v>
       </c>
       <c r="N34">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9219047619047691</v>
+        <v>1.9195238095238043</v>
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16289295999999934</v>
+        <v>0.16248960999999934</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="D35" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>82.495950000000008</v>
+        <v>82.830950000000001</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2236,26 +2236,26 @@
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.04</v>
+        <v>-0.59</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.66</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L35">
         <v>0.5</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5950000000003082E-2</v>
+        <v>0.36095000000000316</v>
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1465987631884573E-2</v>
+        <v>0.43767430580816669</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="3"/>
-        <v>6.734025000001599E-4</v>
+        <v>0.13028490250000227</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="D36" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>22.46245</v>
+        <v>22.468150000000001</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2285,26 +2285,26 @@
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="6"/>
-        <v>-2.0999999999999999E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="L36">
         <v>0.5</v>
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43244999999999917</v>
+        <v>0.43814999999999921</v>
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9630049931911087</v>
+        <v>1.9888788016341419</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18701300249999928</v>
+        <v>0.1919754224999993</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="D37" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>84.402699999999996</v>
+        <v>84.512699999999995</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2334,26 +2334,26 @@
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="6"/>
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="7"/>
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="L37">
         <v>0.5</v>
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26269999999999727</v>
+        <v>0.37269999999999726</v>
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31221773235083905</v>
+        <v>0.44295222248633692</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="3"/>
-        <v>6.901128999999856E-2</v>
+        <v>0.13890528999999796</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="D38" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>69.664050000000003</v>
+        <v>69.944050000000004</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2383,26 +2383,26 @@
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.47</v>
+        <v>0.7</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="7"/>
-        <v>0.46</v>
+        <v>-0.15</v>
       </c>
       <c r="L38">
         <v>0.5</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6740500000000037</v>
+        <v>0.95405000000000384</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97702565589217194</v>
+        <v>1.3828815770401626</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45434340250000499</v>
+        <v>0.91021140250000732</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="D39" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>75.330449999999999</v>
+        <v>75.205449999999999</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2432,26 +2432,26 @@
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="6"/>
-        <v>0.78</v>
+        <v>0.47</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.53</v>
+        <v>-0.47</v>
       </c>
       <c r="L39">
         <v>0.5</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2895500000000055</v>
+        <v>-1.4145500000000055</v>
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.6830462020360315</v>
+        <v>-1.8461889845993285</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6629392025000143</v>
+        <v>2.0009517025000156</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="D40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>86.3108</v>
+        <v>86.225799999999992</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2481,26 +2481,26 @@
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.28999999999999998</v>
+        <v>0.38</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="7"/>
-        <v>0.91</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L40">
         <v>0.5</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1008000000000044</v>
+        <v>1.0158000000000043</v>
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2918671517427649</v>
+        <v>1.192113601689937</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2117606400000098</v>
+        <v>1.0318496400000086</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="D41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>78.054050000000004</v>
+        <v>76.744050000000001</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2530,26 +2530,26 @@
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="6"/>
-        <v>0.47</v>
+        <v>-0.4</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="7"/>
-        <v>0.99</v>
+        <v>-0.76</v>
       </c>
       <c r="L41">
         <v>0.5</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0659500000000048</v>
+        <v>-2.3759500000000049</v>
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.3472573306370084</v>
+        <v>-3.0029701718908064</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1362494025000103</v>
+        <v>5.6451384025000229</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="D42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>50.267600000000002</v>
+        <v>50.517600000000002</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2579,26 +2579,26 @@
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.82</v>
+        <v>-0.92</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="7"/>
-        <v>0.22</v>
+        <v>0.82</v>
       </c>
       <c r="L42">
         <v>0.5</v>
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.84240000000000059</v>
+        <v>-0.5924000000000007</v>
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.6482097436900767</v>
+        <v>-1.1590686754059831</v>
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70963776000000101</v>
+        <v>0.35093776000000082</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="D43" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>47.739550000000001</v>
+        <v>47.20955</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2628,26 +2628,26 @@
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="6"/>
-        <v>0.69</v>
+        <v>-0.61</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="7"/>
-        <v>0.39</v>
+        <v>0.63</v>
       </c>
       <c r="L43">
         <v>0.5</v>
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34954999999999797</v>
+        <v>-0.180450000000002</v>
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73760286980375511</v>
+        <v>-0.38077653513399756</v>
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12218520249999858</v>
+        <v>3.256220250000072E-2</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="D44" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>20.886050000000001</v>
+        <v>20.88815</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2677,26 +2677,26 @@
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="6"/>
-        <v>-2.8E-3</v>
+        <v>-1.8E-3</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1000000000000004E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="L44">
         <v>0.5</v>
       </c>
       <c r="M44">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0660499999999997</v>
+        <v>2.0681499999999997</v>
       </c>
       <c r="N44">
         <f t="shared" ca="1" si="2"/>
-        <v>10.977948990435715</v>
+        <v>10.989107332624858</v>
       </c>
       <c r="O44">
         <f t="shared" ca="1" si="3"/>
-        <v>4.2685626024999985</v>
+        <v>4.277244422499999</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="D45" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>86.595500000000001</v>
+        <v>86.390500000000003</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2726,26 +2726,26 @@
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.01</v>
+        <v>-0.35</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.63</v>
+        <v>-0.7</v>
       </c>
       <c r="L45">
         <v>0.5</v>
       </c>
       <c r="M45">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.014499999999998</v>
+        <v>-1.2194999999999978</v>
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.1579728341513551</v>
+        <v>-1.3919643876269761</v>
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0292102499999958</v>
+        <v>1.4871802499999947</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="D46" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>70.952749999999995</v>
+        <v>70.507750000000001</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2775,26 +2775,26 @@
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.12</v>
+        <v>-0.94</v>
       </c>
       <c r="L46">
         <v>0.5</v>
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0127499999999992</v>
+        <v>1.5677499999999991</v>
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="2"/>
-        <v>2.9195677400638109</v>
+        <v>2.2740789091963975</v>
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="3"/>
-        <v>4.0511625624999965</v>
+        <v>2.4578400624999972</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="D47" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>89.3005</v>
+        <v>89.715499999999992</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2824,26 +2824,26 @@
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.49</v>
+        <v>0.04</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.27</v>
+        <v>0.03</v>
       </c>
       <c r="L47">
         <v>0.5</v>
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2994999999999994</v>
+        <v>-0.88449999999999929</v>
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.434326710816769</v>
+        <v>-0.97626931567329489</v>
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6887002499999986</v>
+        <v>0.78234024999999874</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="D48" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>76.4375</v>
+        <v>75.282499999999999</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2873,26 +2873,26 @@
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="6"/>
-        <v>0.26</v>
+        <v>-0.91</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="7"/>
-        <v>0.21</v>
+        <v>-0.93</v>
       </c>
       <c r="L48">
         <v>0.5</v>
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7274999999999997</v>
+        <v>-0.42750000000000032</v>
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96090344736494693</v>
+        <v>-0.56465460309073068</v>
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52925624999999954</v>
+        <v>0.18275625000000029</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="D49" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>50.945999999999998</v>
+        <v>51.116</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2922,26 +2922,26 @@
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="6"/>
-        <v>0.38</v>
+        <v>-0.78</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.8</v>
+        <v>0.7</v>
       </c>
       <c r="L49">
         <v>0.5</v>
       </c>
       <c r="M49">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.17399999999999866</v>
+        <v>-3.9999999999986713E-3</v>
       </c>
       <c r="N49">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.34037558685445779</v>
+        <v>-7.8247261345754104E-3</v>
       </c>
       <c r="O49">
         <f t="shared" ca="1" si="3"/>
-        <v>3.0275999999999532E-2</v>
+        <v>1.5999999999989371E-5</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="D50" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>77.207499999999996</v>
+        <v>76.977499999999992</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2975,22 +2975,22 @@
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.02</v>
+        <v>-0.48</v>
       </c>
       <c r="L50">
         <v>0.5</v>
       </c>
       <c r="M50">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0125000000000028</v>
+        <v>-1.2425000000000028</v>
       </c>
       <c r="N50">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.2944259780107381</v>
+        <v>-1.5884684223983703</v>
       </c>
       <c r="O50">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0251562500000058</v>
+        <v>1.5438062500000069</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -3005,7 +3005,7 @@
       </c>
       <c r="D51" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>26.353549999999998</v>
+        <v>26.356100000000001</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -3020,26 +3020,26 @@
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="6"/>
-        <v>2E-3</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="7"/>
-        <v>8.5000000000000006E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="L51">
         <v>0.5</v>
       </c>
       <c r="M51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63355000000000117</v>
+        <v>0.63610000000000122</v>
       </c>
       <c r="N51">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4632581648522445</v>
+        <v>2.4731726283048205</v>
       </c>
       <c r="O51">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40138560250000149</v>
+        <v>0.40462321000000157</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="D52" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>95.210800000000006</v>
+        <v>96.150800000000004</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -3069,26 +3069,26 @@
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.56999999999999995</v>
+        <v>0.24</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.97</v>
+        <v>0.1</v>
       </c>
       <c r="L52">
         <v>0.5</v>
       </c>
       <c r="M52">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.58919999999999506</v>
+        <v>0.35080000000000494</v>
       </c>
       <c r="N52">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.6150313152400777</v>
+        <v>0.36617954070981007</v>
       </c>
       <c r="O52">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34715663999999419</v>
+        <v>0.12306064000000347</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="D53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>58.765949999999997</v>
+        <v>58.200949999999999</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -3118,26 +3118,26 @@
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="6"/>
-        <v>0.66</v>
+        <v>-0.37</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="7"/>
-        <v>0.89</v>
+        <v>0.79</v>
       </c>
       <c r="L53">
         <v>0.5</v>
       </c>
       <c r="M53">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86594999999999944</v>
+        <v>0.30094999999999944</v>
       </c>
       <c r="N53">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4955958549222714</v>
+        <v>0.51977547495682952</v>
       </c>
       <c r="O53">
         <f t="shared" ca="1" si="3"/>
-        <v>0.749869402499999</v>
+        <v>9.0570902499999661E-2</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="D54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>37.927599999999998</v>
+        <v>38.992600000000003</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -3167,26 +3167,26 @@
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.61</v>
+        <v>0.82</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="7"/>
-        <v>0.18</v>
+        <v>0.88</v>
       </c>
       <c r="L54">
         <v>0.5</v>
       </c>
       <c r="M54">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0723999999999987</v>
+        <v>-1.0073999999999985</v>
       </c>
       <c r="N54">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.1810000000000027</v>
+        <v>-2.5184999999999902</v>
       </c>
       <c r="O54">
         <f t="shared" ca="1" si="3"/>
-        <v>4.2948417599999944</v>
+        <v>1.0148547599999971</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="D55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>21.681999999999999</v>
+        <v>21.6874</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -3216,26 +3216,26 @@
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="6"/>
-        <v>-7.6E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="7"/>
-        <v>-3.8E-3</v>
+        <v>-3.2000000000000002E-3</v>
       </c>
       <c r="L55">
         <v>0.5</v>
       </c>
       <c r="M55">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38199999999999878</v>
+        <v>0.38739999999999886</v>
       </c>
       <c r="N55">
         <f t="shared" ca="1" si="2"/>
-        <v>1.79342723004694</v>
+        <v>1.8187793427230092</v>
       </c>
       <c r="O55">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14592399999999908</v>
+        <v>0.15007875999999912</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="D56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>114.7735</v>
+        <v>113.9785</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -3265,26 +3265,26 @@
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="6"/>
-        <v>0.75</v>
+        <v>0.19</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="7"/>
-        <v>0.05</v>
+        <v>-0.98</v>
       </c>
       <c r="L56">
         <v>0.5</v>
       </c>
       <c r="M56">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37349999999999428</v>
+        <v>-0.42150000000000576</v>
       </c>
       <c r="N56">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32648601398601595</v>
+        <v>-0.3684440559440616</v>
       </c>
       <c r="O56">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13950224999999572</v>
+        <v>0.17766225000000485</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -3299,7 +3299,7 @@
       </c>
       <c r="D57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>83.994950000000003</v>
+        <v>84.684950000000001</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -3314,26 +3314,26 @@
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="6"/>
-        <v>0.42</v>
+        <v>0.59</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.24</v>
+        <v>0.97</v>
       </c>
       <c r="L57">
         <v>0.5</v>
       </c>
       <c r="M57">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.80504999999999771</v>
+        <v>-0.11504999999999777</v>
       </c>
       <c r="N57">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.94935141509433496</v>
+        <v>-0.13567216981131835</v>
       </c>
       <c r="O57">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64810550249999632</v>
+        <v>1.3236502499999485E-2</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="D58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>38.67145</v>
+        <v>38.016449999999999</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -3363,26 +3363,26 @@
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.43</v>
+        <v>-0.63</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="7"/>
-        <v>0.8</v>
+        <v>-0.31</v>
       </c>
       <c r="L58">
         <v>0.5</v>
       </c>
       <c r="M58">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8714500000000007</v>
+        <v>1.2164500000000007</v>
       </c>
       <c r="N58">
         <f t="shared" ca="1" si="2"/>
-        <v>5.0854619565217529</v>
+        <v>3.305570652173917</v>
       </c>
       <c r="O58">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5023251025000026</v>
+        <v>1.4797506025000018</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -3397,7 +3397,7 @@
       </c>
       <c r="D59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>114.98249999999999</v>
+        <v>115.22749999999999</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -3412,26 +3412,26 @@
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.14000000000000001</v>
+        <v>-0.02</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.83</v>
+        <v>-0.46</v>
       </c>
       <c r="L59">
         <v>0.5</v>
       </c>
       <c r="M59">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.11750000000000027</v>
+        <v>0.1274999999999997</v>
       </c>
       <c r="N59">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.10208514335361407</v>
+        <v>0.11077324066028904</v>
       </c>
       <c r="O59">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3806250000000063E-2</v>
+        <v>1.6256249999999924E-2</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="D60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>71.5154</v>
+        <v>71.665399999999991</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3461,26 +3461,26 @@
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.51</v>
+        <v>0.24</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="7"/>
-        <v>0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="L60">
         <v>0.5</v>
       </c>
       <c r="M60">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.9846000000000035</v>
+        <v>-1.8346000000000033</v>
       </c>
       <c r="N60">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.7001360544217645</v>
+        <v>-2.4960544217687231</v>
       </c>
       <c r="O60">
         <f t="shared" ca="1" si="3"/>
-        <v>3.9386371600000136</v>
+        <v>3.3657571600000122</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="D61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>25.844550000000002</v>
+        <v>25.846550000000001</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3510,26 +3510,26 @@
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="6"/>
-        <v>-5.4000000000000003E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="7"/>
-        <v>1.5E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="L61">
         <v>0.5</v>
       </c>
       <c r="M61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34455000000000069</v>
+        <v>0.34655000000000069</v>
       </c>
       <c r="N61">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3511764705882445</v>
+        <v>1.3590196078431482</v>
       </c>
       <c r="O61">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11871470250000048</v>
+        <v>0.12009690250000048</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="D62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>132.21950000000001</v>
+        <v>132.34450000000001</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3559,26 +3559,26 @@
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.54</v>
+        <v>-0.95</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.76</v>
+        <v>-0.1</v>
       </c>
       <c r="L62">
         <v>0.5</v>
       </c>
       <c r="M62">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3804999999999921</v>
+        <v>-1.2554999999999923</v>
       </c>
       <c r="N62">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.0333083832335221</v>
+        <v>-0.93974550898202613</v>
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9057802499999781</v>
+        <v>1.5762802499999806</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="D63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>98.477149999999995</v>
+        <v>98.337149999999994</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -3608,26 +3608,26 @@
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.18</v>
+        <v>-0.96</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="7"/>
-        <v>0.14000000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="L63">
         <v>0.5</v>
       </c>
       <c r="M63">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37715000000000348</v>
+        <v>0.23715000000000347</v>
       </c>
       <c r="N63">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3844546381243541</v>
+        <v>0.24174311926605796</v>
       </c>
       <c r="O63">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14224212250000262</v>
+        <v>5.6240122500001648E-2</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="D64" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>82.889900000000011</v>
+        <v>83.394900000000007</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3657,26 +3657,26 @@
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.36</v>
+        <v>-0.6</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.62</v>
+        <v>0.63</v>
       </c>
       <c r="L64">
         <v>0.5</v>
       </c>
       <c r="M64">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0100999999999991</v>
+        <v>-1.5050999999999994</v>
       </c>
       <c r="N64">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.3676089517078891</v>
+        <v>-1.7727915194346244</v>
       </c>
       <c r="O64">
         <f t="shared" ca="1" si="3"/>
-        <v>4.0405020099999964</v>
+        <v>2.2653260099999981</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="D65" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>55.63935</v>
+        <v>56.399349999999998</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3706,26 +3706,26 @@
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.99</v>
+        <v>-0.03</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.05</v>
+        <v>0.51</v>
       </c>
       <c r="L65">
         <v>0.5</v>
       </c>
       <c r="M65">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.560650000000003</v>
+        <v>-0.80065000000000286</v>
       </c>
       <c r="N65">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.7284090909090897</v>
+        <v>-1.3997377622377738</v>
       </c>
       <c r="O65">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4356284225000091</v>
+        <v>0.64104042250000459</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="D66" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>56.423349999999999</v>
+        <v>56.553350000000002</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3755,26 +3755,26 @@
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="6"/>
-        <v>0.36</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="7"/>
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="L66">
         <v>0.5</v>
       </c>
       <c r="M66">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.5766500000000017</v>
+        <v>-1.4466500000000015</v>
       </c>
       <c r="N66">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.7183620689655186</v>
+        <v>-2.4942241379310337</v>
       </c>
       <c r="O66">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4858252225000053</v>
+        <v>2.0927962225000045</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="D67" s="4">
         <f t="shared" ref="D67:D130" ca="1" si="8">B67+M67</f>
-        <v>46.693049999999999</v>
+        <v>46.488050000000001</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3804,26 +3804,26 @@
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="6"/>
-        <v>0.03</v>
+        <v>-0.42</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.88</v>
+        <v>-0.84</v>
       </c>
       <c r="L67">
         <v>0.5</v>
       </c>
       <c r="M67">
         <f t="shared" ref="M67:M130" ca="1" si="9">(I67+J67+K67)*L67</f>
-        <v>-0.50695000000000268</v>
+        <v>-0.71195000000000253</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N130" ca="1" si="10">((D67/B67)-1)*100</f>
-        <v>-1.074046610169499</v>
+        <v>-1.5083686440678035</v>
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O130" ca="1" si="11">M67^2</f>
-        <v>0.25699830250000272</v>
+        <v>0.50687280250000355</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="D68" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>38.093899999999998</v>
+        <v>38.868899999999996</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3853,26 +3853,26 @@
       </c>
       <c r="J68">
         <f t="shared" ref="J68:J131" ca="1" si="14">IF(B68 &lt; 30, RANDBETWEEN(-100, 100) / 10000, RANDBETWEEN(-100,100) / 100)</f>
-        <v>-0.24</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K68">
         <f t="shared" ref="K68:K131" ca="1" si="15">IF(B68 &lt; 30, RANDBETWEEN(-100, 100) / 10000, RANDBETWEEN(-100,100) / 100)</f>
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="L68">
         <v>0.5</v>
       </c>
       <c r="M68">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5938999999999988</v>
+        <v>2.3688999999999991</v>
       </c>
       <c r="N68">
         <f t="shared" ca="1" si="10"/>
-        <v>4.3668493150684773</v>
+        <v>6.4901369863013647</v>
       </c>
       <c r="O68">
         <f t="shared" ca="1" si="11"/>
-        <v>2.540517209999996</v>
+        <v>5.6116872099999959</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -3887,7 +3887,7 @@
       </c>
       <c r="D69" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>27.746749999999999</v>
+        <v>27.750900000000001</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3902,26 +3902,26 @@
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="14"/>
-        <v>-7.7999999999999996E-3</v>
+        <v>-3.8999999999999998E-3</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="15"/>
-        <v>-9.4000000000000004E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="L69">
         <v>0.5</v>
       </c>
       <c r="M69">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.5532500000000008</v>
+        <v>-0.5491000000000007</v>
       </c>
       <c r="N69">
         <f t="shared" ca="1" si="10"/>
-        <v>-1.9549469964664334</v>
+        <v>-1.9402826855123623</v>
       </c>
       <c r="O69">
         <f t="shared" ca="1" si="11"/>
-        <v>0.30608556250000091</v>
+        <v>0.30151081000000074</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="D70" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>48.789050000000003</v>
+        <v>49.234050000000003</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3951,26 +3951,26 @@
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.05</v>
+        <v>-0.99</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.93</v>
+        <v>0.9</v>
       </c>
       <c r="L70">
         <v>0.5</v>
       </c>
       <c r="M70">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.21094999999999847</v>
+        <v>0.23405000000000159</v>
       </c>
       <c r="N70">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.43051020408162444</v>
+        <v>0.47765306122449225</v>
       </c>
       <c r="O70">
         <f t="shared" ca="1" si="11"/>
-        <v>4.4499902499999355E-2</v>
+        <v>5.4779402500000747E-2</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
@@ -3985,7 +3985,7 @@
       </c>
       <c r="D71" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>25.237449999999999</v>
+        <v>25.241199999999999</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -4000,26 +4000,26 @@
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="14"/>
-        <v>-9.1000000000000004E-3</v>
+        <v>-5.4999999999999997E-3</v>
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="15"/>
-        <v>-2.0999999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="L71">
         <v>0.5</v>
       </c>
       <c r="M71">
         <f t="shared" ca="1" si="9"/>
-        <v>2.2374499999999999</v>
+        <v>2.2412000000000005</v>
       </c>
       <c r="N71">
         <f t="shared" ca="1" si="10"/>
-        <v>9.7280434782608616</v>
+        <v>9.7443478260869512</v>
       </c>
       <c r="O71">
         <f t="shared" ca="1" si="11"/>
-        <v>5.0061825024999997</v>
+        <v>5.0229774400000027</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="D72" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>1.9599674999999999</v>
+        <v>1.9617675000000001</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -4049,26 +4049,26 @@
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="14"/>
-        <v>-3.0000000000000001E-3</v>
+        <v>-2E-3</v>
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="15"/>
-        <v>-6.1999999999999998E-3</v>
+        <v>-3.5999999999999999E-3</v>
       </c>
       <c r="L72">
         <v>0.5</v>
       </c>
       <c r="M72">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.0400325000000001</v>
+        <v>-1.0382324999999999</v>
       </c>
       <c r="N72">
         <f t="shared" ca="1" si="10"/>
-        <v>-34.667750000000005</v>
+        <v>-34.607749999999996</v>
       </c>
       <c r="O72">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0816676010562503</v>
+        <v>1.0779267240562498</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="D73" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>53.02975</v>
+        <v>53.414749999999998</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -4098,26 +4098,26 @@
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.22</v>
+        <v>-0.03</v>
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="15"/>
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="L73">
         <v>0.5</v>
       </c>
       <c r="M73">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0297499999999982</v>
+        <v>1.4147499999999984</v>
       </c>
       <c r="N73">
         <f t="shared" ca="1" si="10"/>
-        <v>1.9802884615384597</v>
+        <v>2.7206730769230747</v>
       </c>
       <c r="O73">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0603850624999962</v>
+        <v>2.0015175624999957</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="D74" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>54.796399999999998</v>
+        <v>55.336399999999998</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -4147,26 +4147,26 @@
       </c>
       <c r="J74">
         <f t="shared" ca="1" si="14"/>
-        <v>0.79</v>
+        <v>0.44</v>
       </c>
       <c r="K74">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.84</v>
+        <v>0.59</v>
       </c>
       <c r="L74">
         <v>0.5</v>
       </c>
       <c r="M74">
         <f t="shared" ca="1" si="9"/>
-        <v>1.7964000000000007</v>
+        <v>2.3364000000000007</v>
       </c>
       <c r="N74">
         <f t="shared" ca="1" si="10"/>
-        <v>3.3894339622641434</v>
+        <v>4.4083018867924428</v>
       </c>
       <c r="O74">
         <f t="shared" ca="1" si="11"/>
-        <v>3.2270529600000022</v>
+        <v>5.4587649600000034</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="D75" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>29.0535</v>
+        <v>29.047000000000001</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -4196,26 +4196,26 @@
       </c>
       <c r="J75">
         <f t="shared" ca="1" si="14"/>
-        <v>5.9999999999999995E-4</v>
+        <v>-4.4999999999999997E-3</v>
       </c>
       <c r="K75">
         <f t="shared" ca="1" si="15"/>
-        <v>8.8000000000000005E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="L75">
         <v>0.5</v>
       </c>
       <c r="M75">
         <f t="shared" ca="1" si="9"/>
-        <v>2.0535000000000001</v>
+        <v>2.0469999999999997</v>
       </c>
       <c r="N75">
         <f t="shared" ca="1" si="10"/>
-        <v>7.6055555555555543</v>
+        <v>7.5814814814814779</v>
       </c>
       <c r="O75">
         <f t="shared" ca="1" si="11"/>
-        <v>4.2168622500000001</v>
+        <v>4.1902089999999985</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="D76" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>12.674250000000001</v>
+        <v>12.683299999999999</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -4245,26 +4245,26 @@
       </c>
       <c r="J76">
         <f t="shared" ca="1" si="14"/>
-        <v>-2.8999999999999998E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="K76">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L76">
         <v>0.5</v>
       </c>
       <c r="M76">
         <f t="shared" ca="1" si="9"/>
-        <v>1.67425</v>
+        <v>1.6832999999999998</v>
       </c>
       <c r="N76">
         <f t="shared" ca="1" si="10"/>
-        <v>15.220454545454555</v>
+        <v>15.302727272727257</v>
       </c>
       <c r="O76">
         <f t="shared" ca="1" si="11"/>
-        <v>2.8031130625</v>
+        <v>2.8334988899999991</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="D77" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>5.1696349999999995</v>
+        <v>5.1785350000000001</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -4294,26 +4294,26 @@
       </c>
       <c r="J77">
         <f t="shared" ca="1" si="14"/>
-        <v>2.3999999999999998E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="K77">
         <f t="shared" ca="1" si="15"/>
-        <v>-7.7000000000000002E-3</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="L77">
         <v>0.5</v>
       </c>
       <c r="M77">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.83036500000000002</v>
+        <v>-0.82146499999999989</v>
       </c>
       <c r="N77">
         <f t="shared" ca="1" si="10"/>
-        <v>-13.83941666666667</v>
+        <v>-13.691083333333331</v>
       </c>
       <c r="O77">
         <f t="shared" ca="1" si="11"/>
-        <v>0.68950603322500004</v>
+        <v>0.67480474622499986</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="D78" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>58.693550000000002</v>
+        <v>57.893549999999998</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -4343,26 +4343,26 @@
       </c>
       <c r="J78">
         <f t="shared" ca="1" si="14"/>
-        <v>0.48</v>
+        <v>-0.37</v>
       </c>
       <c r="K78">
         <f t="shared" ca="1" si="15"/>
-        <v>0.38</v>
+        <v>-0.37</v>
       </c>
       <c r="L78">
         <v>0.5</v>
       </c>
       <c r="M78">
         <f t="shared" ca="1" si="9"/>
-        <v>1.6935499999999986</v>
+        <v>0.89354999999999851</v>
       </c>
       <c r="N78">
         <f t="shared" ca="1" si="10"/>
-        <v>2.9711403508771994</v>
+        <v>1.5676315789473705</v>
       </c>
       <c r="O78">
         <f t="shared" ca="1" si="11"/>
-        <v>2.8681116024999951</v>
+        <v>0.79843160249999734</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
@@ -4377,7 +4377,7 @@
       </c>
       <c r="D79" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>63.150750000000002</v>
+        <v>63.865749999999998</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -4392,26 +4392,26 @@
       </c>
       <c r="J79">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.78</v>
+        <v>0.18</v>
       </c>
       <c r="K79">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.99</v>
+        <v>-0.52</v>
       </c>
       <c r="L79">
         <v>0.5</v>
       </c>
       <c r="M79">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.8492500000000001</v>
+        <v>-2.1342499999999998</v>
       </c>
       <c r="N79">
         <f t="shared" ca="1" si="10"/>
-        <v>-4.317045454545454</v>
+        <v>-3.2337121212121289</v>
       </c>
       <c r="O79">
         <f t="shared" ca="1" si="11"/>
-        <v>8.118225562500001</v>
+        <v>4.5550230624999992</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="D80" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>20.813649999999999</v>
+        <v>20.806750000000001</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -4441,26 +4441,26 @@
       </c>
       <c r="J80">
         <f t="shared" ca="1" si="14"/>
-        <v>8.0999999999999996E-3</v>
+        <v>-8.8999999999999999E-3</v>
       </c>
       <c r="K80">
         <f t="shared" ca="1" si="15"/>
-        <v>1.8E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L80">
         <v>0.5</v>
       </c>
       <c r="M80">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.18635000000000002</v>
+        <v>-0.19325000000000003</v>
       </c>
       <c r="N80">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.88738095238095616</v>
+        <v>-0.92023809523809064</v>
       </c>
       <c r="O80">
         <f t="shared" ca="1" si="11"/>
-        <v>3.4726322500000004E-2</v>
+        <v>3.7345562500000012E-2</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
@@ -4475,7 +4475,7 @@
       </c>
       <c r="D81" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>11.026949999999999</v>
+        <v>11.0344</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -4490,26 +4490,26 @@
       </c>
       <c r="J81">
         <f t="shared" ca="1" si="14"/>
-        <v>-7.0000000000000001E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="K81">
         <f t="shared" ca="1" si="15"/>
-        <v>2.0999999999999999E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="L81">
         <v>0.5</v>
       </c>
       <c r="M81">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.97305000000000008</v>
+        <v>-0.96560000000000012</v>
       </c>
       <c r="N81">
         <f t="shared" ca="1" si="10"/>
-        <v>-8.1087500000000095</v>
+        <v>-8.0466666666666686</v>
       </c>
       <c r="O81">
         <f t="shared" ca="1" si="11"/>
-        <v>0.94682630250000011</v>
+        <v>0.93238336000000022</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="D82" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>66.002300000000005</v>
+        <v>65.157299999999992</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -4539,26 +4539,26 @@
       </c>
       <c r="J82">
         <f t="shared" ca="1" si="14"/>
-        <v>0.25</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="K82">
         <f t="shared" ca="1" si="15"/>
-        <v>0.44</v>
+        <v>-0.72</v>
       </c>
       <c r="L82">
         <v>0.5</v>
       </c>
       <c r="M82">
         <f t="shared" ca="1" si="9"/>
-        <v>2.0022999999999995</v>
+        <v>1.1572999999999993</v>
       </c>
       <c r="N82">
         <f t="shared" ca="1" si="10"/>
-        <v>3.1285937500000083</v>
+        <v>1.8082812499999878</v>
       </c>
       <c r="O82">
         <f t="shared" ca="1" si="11"/>
-        <v>4.0092052899999979</v>
+        <v>1.3393432899999984</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="D83" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>73.8596</v>
+        <v>73.794600000000003</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -4588,26 +4588,26 @@
       </c>
       <c r="J83">
         <f t="shared" ca="1" si="14"/>
-        <v>0.65</v>
+        <v>-0.2</v>
       </c>
       <c r="K83">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.6</v>
+        <v>0.12</v>
       </c>
       <c r="L83">
         <v>0.5</v>
       </c>
       <c r="M83">
         <f t="shared" ca="1" si="9"/>
-        <v>-4.1403999999999979</v>
+        <v>-4.2053999999999983</v>
       </c>
       <c r="N83">
         <f t="shared" ca="1" si="10"/>
-        <v>-5.3082051282051239</v>
+        <v>-5.3915384615384587</v>
       </c>
       <c r="O83">
         <f t="shared" ca="1" si="11"/>
-        <v>17.142912159999984</v>
+        <v>17.685389159999986</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="D84" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>62.868099999999998</v>
+        <v>62.823100000000004</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -4637,26 +4637,26 @@
       </c>
       <c r="J84">
         <f t="shared" ca="1" si="14"/>
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="K84">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.08</v>
+        <v>-0.09</v>
       </c>
       <c r="L84">
         <v>0.5</v>
       </c>
       <c r="M84">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.1318999999999986</v>
+        <v>-2.1768999999999985</v>
       </c>
       <c r="N84">
         <f t="shared" ca="1" si="10"/>
-        <v>-3.2798461538461554</v>
+        <v>-3.3490769230769213</v>
       </c>
       <c r="O84">
         <f t="shared" ca="1" si="11"/>
-        <v>4.544997609999994</v>
+        <v>4.7388936099999937</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="D85" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>40.544049999999999</v>
+        <v>40.569049999999997</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -4686,26 +4686,26 @@
       </c>
       <c r="J85">
         <f t="shared" ca="1" si="14"/>
-        <v>0.41</v>
+        <v>0.08</v>
       </c>
       <c r="K85">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.83</v>
+        <v>-0.45</v>
       </c>
       <c r="L85">
         <v>0.5</v>
       </c>
       <c r="M85">
         <f t="shared" ca="1" si="9"/>
-        <v>3.5440499999999995</v>
+        <v>3.5690499999999994</v>
       </c>
       <c r="N85">
         <f t="shared" ca="1" si="10"/>
-        <v>9.57851351351351</v>
+        <v>9.6460810810810713</v>
       </c>
       <c r="O85">
         <f t="shared" ca="1" si="11"/>
-        <v>12.560290402499996</v>
+        <v>12.738117902499996</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="D86" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>37.408299999999997</v>
+        <v>36.9133</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -4735,26 +4735,26 @@
       </c>
       <c r="J86">
         <f t="shared" ca="1" si="14"/>
-        <v>0.27</v>
+        <v>0.72</v>
       </c>
       <c r="K86">
         <f t="shared" ca="1" si="15"/>
-        <v>0.55000000000000004</v>
+        <v>-0.89</v>
       </c>
       <c r="L86">
         <v>0.5</v>
       </c>
       <c r="M86">
         <f t="shared" ca="1" si="9"/>
-        <v>-9.169999999999956E-2</v>
+        <v>-0.58669999999999956</v>
       </c>
       <c r="N86">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.24453333333334104</v>
+        <v>-1.56453333333334</v>
       </c>
       <c r="O86">
         <f t="shared" ca="1" si="11"/>
-        <v>8.4088899999999189E-3</v>
+        <v>0.3442168899999995</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
@@ -4769,7 +4769,7 @@
       </c>
       <c r="D87" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>31.364750000000001</v>
+        <v>31.339749999999999</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -4784,26 +4784,26 @@
       </c>
       <c r="J87">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.24</v>
+        <v>-0.9</v>
       </c>
       <c r="K87">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.95</v>
+        <v>-0.34</v>
       </c>
       <c r="L87">
         <v>0.5</v>
       </c>
       <c r="M87">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.13525000000000031</v>
+        <v>-0.16025000000000036</v>
       </c>
       <c r="N87">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.42936507936507384</v>
+        <v>-0.50873015873016403</v>
       </c>
       <c r="O87">
         <f t="shared" ca="1" si="11"/>
-        <v>1.8292562500000085E-2</v>
+        <v>2.5680062500000118E-2</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="D88" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>30.496199999999998</v>
+        <v>30.488499999999998</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -4833,26 +4833,26 @@
       </c>
       <c r="J88">
         <f t="shared" ca="1" si="14"/>
-        <v>8.6999999999999994E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="K88">
         <f t="shared" ca="1" si="15"/>
-        <v>-2.0000000000000001E-4</v>
+        <v>-9.1000000000000004E-3</v>
       </c>
       <c r="L88">
         <v>0.5</v>
       </c>
       <c r="M88">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0962000000000007</v>
+        <v>1.0885000000000007</v>
       </c>
       <c r="N88">
         <f t="shared" ca="1" si="10"/>
-        <v>3.7285714285714366</v>
+        <v>3.702380952380957</v>
       </c>
       <c r="O88">
         <f t="shared" ca="1" si="11"/>
-        <v>1.2016544400000015</v>
+        <v>1.1848322500000015</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D89" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>34.459499999999998</v>
+        <v>34.479500000000002</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -4882,26 +4882,26 @@
       </c>
       <c r="J89">
         <f t="shared" ca="1" si="14"/>
-        <v>0.56999999999999995</v>
+        <v>-0.12</v>
       </c>
       <c r="K89">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.33</v>
+        <v>0.4</v>
       </c>
       <c r="L89">
         <v>0.5</v>
       </c>
       <c r="M89">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.24050000000000185</v>
+        <v>-0.22050000000000181</v>
       </c>
       <c r="N89">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.69308357348704108</v>
+        <v>-0.63544668587897091</v>
       </c>
       <c r="O89">
         <f t="shared" ca="1" si="11"/>
-        <v>5.7840250000000891E-2</v>
+        <v>4.8620250000000795E-2</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
@@ -4916,7 +4916,7 @@
       </c>
       <c r="D90" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>46.625149999999998</v>
+        <v>46.555149999999998</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -4931,26 +4931,26 @@
       </c>
       <c r="J90">
         <f t="shared" ca="1" si="14"/>
-        <v>0.32</v>
+        <v>-0.66</v>
       </c>
       <c r="K90">
         <f t="shared" ca="1" si="15"/>
-        <v>0.1</v>
+        <v>0.94</v>
       </c>
       <c r="L90">
         <v>0.5</v>
       </c>
       <c r="M90">
         <f t="shared" ca="1" si="9"/>
-        <v>2.1251500000000005</v>
+        <v>2.0551500000000003</v>
       </c>
       <c r="N90">
         <f t="shared" ca="1" si="10"/>
-        <v>4.7756179775280794</v>
+        <v>4.6183146067415581</v>
       </c>
       <c r="O90">
         <f t="shared" ca="1" si="11"/>
-        <v>4.5162625225000026</v>
+        <v>4.2236415225000012</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -4965,7 +4965,7 @@
       </c>
       <c r="D91" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>45.661500000000004</v>
+        <v>46.131500000000003</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -4980,26 +4980,26 @@
       </c>
       <c r="J91">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.35</v>
+        <v>0.39</v>
       </c>
       <c r="K91">
         <f t="shared" ca="1" si="15"/>
-        <v>0.36</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L91">
         <v>0.5</v>
       </c>
       <c r="M91">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.83849999999999891</v>
+        <v>-0.36849999999999872</v>
       </c>
       <c r="N91">
         <f t="shared" ca="1" si="10"/>
-        <v>-1.8032258064516027</v>
+        <v>-0.79247311827956857</v>
       </c>
       <c r="O91">
         <f t="shared" ca="1" si="11"/>
-        <v>0.70308224999999813</v>
+        <v>0.13579224999999906</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="D92" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>47.024899999999995</v>
+        <v>46.639899999999997</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -5029,26 +5029,26 @@
       </c>
       <c r="J92">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.19</v>
+        <v>-0.81</v>
       </c>
       <c r="K92">
         <f t="shared" ca="1" si="15"/>
-        <v>0.82</v>
+        <v>0.67</v>
       </c>
       <c r="L92">
         <v>0.5</v>
       </c>
       <c r="M92">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.8751000000000013</v>
+        <v>-2.2601000000000013</v>
       </c>
       <c r="N92">
         <f t="shared" ca="1" si="10"/>
-        <v>-3.8345603271983664</v>
+        <v>-4.6218813905930523</v>
       </c>
       <c r="O92">
         <f t="shared" ca="1" si="11"/>
-        <v>3.5160000100000048</v>
+        <v>5.108052010000006</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
@@ -5063,7 +5063,7 @@
       </c>
       <c r="D93" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>80.537899999999993</v>
+        <v>81.187899999999999</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -5078,26 +5078,26 @@
       </c>
       <c r="J93">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.1</v>
+        <v>0.92</v>
       </c>
       <c r="K93">
         <f t="shared" ca="1" si="15"/>
-        <v>0.14000000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="L93">
         <v>0.5</v>
       </c>
       <c r="M93">
         <f t="shared" ca="1" si="9"/>
-        <v>-6.2099999999996935E-2</v>
+        <v>0.58790000000000309</v>
       </c>
       <c r="N93">
         <f t="shared" ca="1" si="10"/>
-        <v>-7.7047146401987288E-2</v>
+        <v>0.7294044665012489</v>
       </c>
       <c r="O93">
         <f t="shared" ca="1" si="11"/>
-        <v>3.8564099999996194E-3</v>
+        <v>0.3456264100000036</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
@@ -5112,7 +5112,7 @@
       </c>
       <c r="D94" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>79.127899999999997</v>
+        <v>79.627899999999997</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -5127,26 +5127,26 @@
       </c>
       <c r="J94">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.88</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K94">
         <f t="shared" ca="1" si="15"/>
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="L94">
         <v>0.5</v>
       </c>
       <c r="M94">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.3721000000000005</v>
+        <v>-0.87210000000000054</v>
       </c>
       <c r="N94">
         <f t="shared" ca="1" si="10"/>
-        <v>-1.7044720496894428</v>
+        <v>-1.0833540372670813</v>
       </c>
       <c r="O94">
         <f t="shared" ca="1" si="11"/>
-        <v>1.8826584100000014</v>
+        <v>0.76055841000000091</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="D95" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>72.966949999999997</v>
+        <v>73.586950000000002</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -5176,26 +5176,26 @@
       </c>
       <c r="J95">
         <f t="shared" ca="1" si="14"/>
-        <v>0.56000000000000005</v>
+        <v>0.81</v>
       </c>
       <c r="K95">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.21</v>
+        <v>0.78</v>
       </c>
       <c r="L95">
         <v>0.5</v>
       </c>
       <c r="M95">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1669500000000026</v>
+        <v>5.7869500000000027</v>
       </c>
       <c r="N95">
         <f t="shared" ca="1" si="10"/>
-        <v>7.6208702064896716</v>
+        <v>8.535324483775808</v>
       </c>
       <c r="O95">
         <f t="shared" ca="1" si="11"/>
-        <v>26.697372302500028</v>
+        <v>33.488790302500028</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="D96" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>78.905349999999999</v>
+        <v>78.235350000000011</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -5225,26 +5225,26 @@
       </c>
       <c r="J96">
         <f t="shared" ca="1" si="14"/>
-        <v>0.64</v>
+        <v>0.25</v>
       </c>
       <c r="K96">
         <f t="shared" ca="1" si="15"/>
-        <v>0.78</v>
+        <v>-0.17</v>
       </c>
       <c r="L96">
         <v>0.5</v>
       </c>
       <c r="M96">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3499999999991332E-3</v>
+        <v>-0.66465000000000085</v>
       </c>
       <c r="N96">
         <f t="shared" ca="1" si="10"/>
-        <v>6.7807351077142641E-3</v>
+        <v>-0.84239543726235544</v>
       </c>
       <c r="O96">
         <f t="shared" ca="1" si="11"/>
-        <v>2.8622499999990726E-5</v>
+        <v>0.44175962250000111</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="D97" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>81.38355</v>
+        <v>81.613550000000004</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -5274,26 +5274,26 @@
       </c>
       <c r="J97">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.63</v>
+        <v>0.79</v>
       </c>
       <c r="K97">
         <f t="shared" ca="1" si="15"/>
-        <v>0.21</v>
+        <v>-0.75</v>
       </c>
       <c r="L97">
         <v>0.5</v>
       </c>
       <c r="M97">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.3164500000000023</v>
+        <v>-2.0864500000000024</v>
       </c>
       <c r="N97">
         <f t="shared" ca="1" si="10"/>
-        <v>-2.7675627240143386</v>
+        <v>-2.4927718040621216</v>
       </c>
       <c r="O97">
         <f t="shared" ca="1" si="11"/>
-        <v>5.3659406025000109</v>
+        <v>4.3532736025000096</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="D98" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>87.271950000000004</v>
+        <v>86.341949999999997</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -5323,26 +5323,26 @@
       </c>
       <c r="J98">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.15</v>
+        <v>-0.83</v>
       </c>
       <c r="K98">
         <f t="shared" ca="1" si="15"/>
-        <v>0.22</v>
+        <v>-0.96</v>
       </c>
       <c r="L98">
         <v>0.5</v>
       </c>
       <c r="M98">
         <f t="shared" ca="1" si="9"/>
-        <v>2.1719500000000056</v>
+        <v>1.2419500000000059</v>
       </c>
       <c r="N98">
         <f t="shared" ca="1" si="10"/>
-        <v>2.5522326674500606</v>
+        <v>1.4594007050528823</v>
       </c>
       <c r="O98">
         <f t="shared" ca="1" si="11"/>
-        <v>4.7173668025000239</v>
+        <v>1.5424398025000146</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
@@ -5357,7 +5357,7 @@
       </c>
       <c r="D99" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>86.864599999999996</v>
+        <v>86.394599999999997</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -5372,26 +5372,26 @@
       </c>
       <c r="J99">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>-0.39</v>
       </c>
       <c r="K99">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.35</v>
+        <v>-0.9</v>
       </c>
       <c r="L99">
         <v>0.5</v>
       </c>
       <c r="M99">
         <f t="shared" ca="1" si="9"/>
-        <v>1.6645999999999972</v>
+        <v>1.1945999999999972</v>
       </c>
       <c r="N99">
         <f t="shared" ca="1" si="10"/>
-        <v>1.9537558685445822</v>
+        <v>1.4021126760563218</v>
       </c>
       <c r="O99">
         <f t="shared" ca="1" si="11"/>
-        <v>2.7708931599999906</v>
+        <v>1.4270691599999934</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="D100" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>92.360749999999996</v>
+        <v>92.190749999999994</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -5421,26 +5421,26 @@
       </c>
       <c r="J100">
         <f t="shared" ca="1" si="14"/>
-        <v>0.18</v>
+        <v>-0.4</v>
       </c>
       <c r="K100">
         <f t="shared" ca="1" si="15"/>
-        <v>0.38</v>
+        <v>0.62</v>
       </c>
       <c r="L100">
         <v>0.5</v>
       </c>
       <c r="M100">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.2392499999999997</v>
+        <v>-2.4092499999999997</v>
       </c>
       <c r="N100">
         <f t="shared" ca="1" si="10"/>
-        <v>-2.3670718816067637</v>
+        <v>-2.5467758985200817</v>
       </c>
       <c r="O100">
         <f t="shared" ca="1" si="11"/>
-        <v>5.0142405624999986</v>
+        <v>5.8044855624999983</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="D101" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>97.7483</v>
+        <v>97.503299999999996</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -5470,26 +5470,26 @@
       </c>
       <c r="J101">
         <f t="shared" ca="1" si="14"/>
-        <v>0.1</v>
+        <v>-0.54</v>
       </c>
       <c r="K101">
         <f t="shared" ca="1" si="15"/>
-        <v>0.54</v>
+        <v>0.69</v>
       </c>
       <c r="L101">
         <v>0.5</v>
       </c>
       <c r="M101">
         <f t="shared" ca="1" si="9"/>
-        <v>-3.5516999999999972</v>
+        <v>-3.7966999999999969</v>
       </c>
       <c r="N101">
         <f t="shared" ca="1" si="10"/>
-        <v>-3.5061204343533992</v>
+        <v>-3.7479763079960482</v>
       </c>
       <c r="O101">
         <f t="shared" ca="1" si="11"/>
-        <v>12.61457288999998</v>
+        <v>14.414930889999976</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="D102" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>72.588250000000002</v>
+        <v>72.713250000000002</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -5519,26 +5519,26 @@
       </c>
       <c r="J102">
         <f t="shared" ca="1" si="14"/>
-        <v>0.9</v>
+        <v>-0.43</v>
       </c>
       <c r="K102">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.88</v>
+        <v>0.7</v>
       </c>
       <c r="L102">
         <v>0.5</v>
       </c>
       <c r="M102">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.7117499999999999</v>
+        <v>-2.5867499999999999</v>
       </c>
       <c r="N102">
         <f t="shared" ca="1" si="10"/>
-        <v>-3.6012616201859138</v>
+        <v>-3.4352589641434172</v>
       </c>
       <c r="O102">
         <f t="shared" ca="1" si="11"/>
-        <v>7.3535880624999992</v>
+        <v>6.6912755624999996</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="D103" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>36.803600000000003</v>
+        <v>36.653599999999997</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -5568,26 +5568,26 @@
       </c>
       <c r="J103">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.17</v>
+        <v>-0.34</v>
       </c>
       <c r="K103">
         <f t="shared" ca="1" si="15"/>
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
       <c r="L103">
         <v>0.5</v>
       </c>
       <c r="M103">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4036000000000013</v>
+        <v>1.2536000000000014</v>
       </c>
       <c r="N103">
         <f t="shared" ca="1" si="10"/>
-        <v>3.9649717514124383</v>
+        <v>3.5412429378530952</v>
       </c>
       <c r="O103">
         <f t="shared" ca="1" si="11"/>
-        <v>1.9700929600000037</v>
+        <v>1.5715129600000035</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="D104" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>74.432000000000002</v>
+        <v>74.156999999999996</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -5617,26 +5617,26 @@
       </c>
       <c r="J104">
         <f t="shared" ca="1" si="14"/>
-        <v>0.38</v>
+        <v>-0.54</v>
       </c>
       <c r="K104">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.32</v>
+        <v>0.05</v>
       </c>
       <c r="L104">
         <v>0.5</v>
       </c>
       <c r="M104">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.7680000000000019</v>
+        <v>-1.0430000000000019</v>
       </c>
       <c r="N104">
         <f t="shared" ca="1" si="10"/>
-        <v>-1.0212765957446801</v>
+        <v>-1.3869680851063881</v>
       </c>
       <c r="O104">
         <f t="shared" ca="1" si="11"/>
-        <v>0.5898240000000029</v>
+        <v>1.0878490000000041</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
@@ -5651,7 +5651,7 @@
       </c>
       <c r="D105" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>73.313400000000001</v>
+        <v>72.623400000000004</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -5666,26 +5666,26 @@
       </c>
       <c r="J105">
         <f t="shared" ca="1" si="14"/>
-        <v>0.79</v>
+        <v>-0.64</v>
       </c>
       <c r="K105">
         <f t="shared" ca="1" si="15"/>
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="L105">
         <v>0.5</v>
       </c>
       <c r="M105">
         <f t="shared" ca="1" si="9"/>
-        <v>1.340000000000062E-2</v>
+        <v>-0.67659999999999942</v>
       </c>
       <c r="N105">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8281036834921771E-2</v>
+        <v>-0.92305593451568191</v>
       </c>
       <c r="O105">
         <f t="shared" ca="1" si="11"/>
-        <v>1.7956000000001661E-4</v>
+        <v>0.45778755999999921</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="D106" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>61.254399999999997</v>
+        <v>60.629399999999997</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -5715,26 +5715,26 @@
       </c>
       <c r="J106">
         <f t="shared" ca="1" si="14"/>
-        <v>0.92</v>
+        <v>-0.43</v>
       </c>
       <c r="K106">
         <f t="shared" ca="1" si="15"/>
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="L106">
         <v>0.5</v>
       </c>
       <c r="M106">
         <f t="shared" ca="1" si="9"/>
-        <v>0.85440000000000038</v>
+        <v>0.22940000000000041</v>
       </c>
       <c r="N106">
         <f t="shared" ca="1" si="10"/>
-        <v>1.4145695364238486</v>
+        <v>0.37980132450330384</v>
       </c>
       <c r="O106">
         <f t="shared" ca="1" si="11"/>
-        <v>0.72999936000000065</v>
+        <v>5.2624360000000189E-2</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="D107" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>40.466700000000003</v>
+        <v>41.356700000000004</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -5764,26 +5764,26 @@
       </c>
       <c r="J107">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.52</v>
+        <v>0.79</v>
       </c>
       <c r="K107">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.78</v>
+        <v>-0.31</v>
       </c>
       <c r="L107">
         <v>0.5</v>
       </c>
       <c r="M107">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2666999999999988</v>
+        <v>2.156699999999999</v>
       </c>
       <c r="N107">
         <f t="shared" ca="1" si="10"/>
-        <v>3.231377551020409</v>
+        <v>5.5017857142857229</v>
       </c>
       <c r="O107">
         <f t="shared" ca="1" si="11"/>
-        <v>1.604528889999997</v>
+        <v>4.6513548899999959</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="D108" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>74.792650000000009</v>
+        <v>75.69765000000001</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -5813,26 +5813,26 @@
       </c>
       <c r="J108">
         <f t="shared" ca="1" si="14"/>
-        <v>-7.0000000000000007E-2</v>
+        <v>0.45</v>
       </c>
       <c r="K108">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.55000000000000004</v>
+        <v>0.74</v>
       </c>
       <c r="L108">
         <v>0.5</v>
       </c>
       <c r="M108">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.90734999999999877</v>
+        <v>-2.349999999998742E-3</v>
       </c>
       <c r="N108">
         <f t="shared" ca="1" si="10"/>
-        <v>-1.1986129458388284</v>
+        <v>-3.1043593130664071E-3</v>
       </c>
       <c r="O108">
         <f t="shared" ca="1" si="11"/>
-        <v>0.82328402249999777</v>
+        <v>5.5224999999940869E-6</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
@@ -5847,7 +5847,7 @@
       </c>
       <c r="D109" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>74.885549999999995</v>
+        <v>74.680549999999997</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -5862,26 +5862,26 @@
       </c>
       <c r="J109">
         <f t="shared" ca="1" si="14"/>
-        <v>0.25</v>
+        <v>-0.6</v>
       </c>
       <c r="K109">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.24</v>
+        <v>0.2</v>
       </c>
       <c r="L109">
         <v>0.5</v>
       </c>
       <c r="M109">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.51445000000000618</v>
+        <v>-0.71945000000000625</v>
       </c>
       <c r="N109">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.68229442970824117</v>
+        <v>-0.95417771883290481</v>
       </c>
       <c r="O109">
         <f t="shared" ca="1" si="11"/>
-        <v>0.26465880250000634</v>
+        <v>0.517608302500009</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="D110" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>35.742100000000001</v>
+        <v>36.682100000000005</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -5911,30 +5911,30 @@
       </c>
       <c r="J110">
         <f t="shared" ca="1" si="14"/>
-        <v>-7.0000000000000007E-2</v>
+        <v>0.95</v>
       </c>
       <c r="K110">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.67</v>
+        <v>0.19</v>
       </c>
       <c r="L110">
         <v>0.5</v>
       </c>
       <c r="M110">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5420999999999989</v>
+        <v>2.4820999999999991</v>
       </c>
       <c r="N110">
         <f t="shared" ca="1" si="10"/>
-        <v>4.5090643274853681</v>
+        <v>7.2576023391812905</v>
       </c>
       <c r="O110">
         <f t="shared" ca="1" si="11"/>
-        <v>2.3780724099999966</v>
+        <v>6.160820409999995</v>
       </c>
       <c r="P110">
         <f ca="1">SUM(O3:O459)</f>
-        <v>796.89077631023122</v>
+        <v>748.87851942723171</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
@@ -5949,7 +5949,7 @@
       </c>
       <c r="D111" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>32.031799999999997</v>
+        <v>32.781799999999997</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -5964,26 +5964,26 @@
       </c>
       <c r="J111">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.16</v>
+        <v>-0.25</v>
       </c>
       <c r="K111">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.63</v>
+        <v>0.96</v>
       </c>
       <c r="L111">
         <v>0.5</v>
       </c>
       <c r="M111">
         <f t="shared" ca="1" si="9"/>
-        <v>0.43179999999999868</v>
+        <v>1.1817999999999986</v>
       </c>
       <c r="N111">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3664556962025065</v>
+        <v>3.7398734177215065</v>
       </c>
       <c r="O111">
         <f t="shared" ca="1" si="11"/>
-        <v>0.18645123999999885</v>
+        <v>1.3966512399999969</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="D112" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>44.552300000000002</v>
+        <v>44.887299999999996</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -6013,26 +6013,26 @@
       </c>
       <c r="J112">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.7</v>
+        <v>0.39</v>
       </c>
       <c r="K112">
         <f t="shared" ca="1" si="15"/>
-        <v>0.49</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L112">
         <v>0.5</v>
       </c>
       <c r="M112">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1523000000000008</v>
+        <v>1.4873000000000007</v>
       </c>
       <c r="N112">
         <f t="shared" ca="1" si="10"/>
-        <v>2.6550691244239699</v>
+        <v>3.4269585253456247</v>
       </c>
       <c r="O112">
         <f t="shared" ca="1" si="11"/>
-        <v>1.3277952900000018</v>
+        <v>2.2120612900000021</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.3">
@@ -6047,7 +6047,7 @@
       </c>
       <c r="D113" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>53.446400000000004</v>
+        <v>54.111400000000003</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -6062,26 +6062,26 @@
       </c>
       <c r="J113">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.56000000000000005</v>
+        <v>-0.65</v>
       </c>
       <c r="K113">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.47</v>
+        <v>0.95</v>
       </c>
       <c r="L113">
         <v>0.5</v>
       </c>
       <c r="M113">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.553599999999999</v>
+        <v>-0.88859999999999884</v>
       </c>
       <c r="N113">
         <f t="shared" ca="1" si="10"/>
-        <v>-2.8247272727272676</v>
+        <v>-1.6156363636363524</v>
       </c>
       <c r="O113">
         <f t="shared" ca="1" si="11"/>
-        <v>2.4136729599999969</v>
+        <v>0.78960995999999795</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
@@ -6096,7 +6096,7 @@
       </c>
       <c r="D114" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>53.095300000000002</v>
+        <v>53.240300000000005</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -6111,26 +6111,26 @@
       </c>
       <c r="J114">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.09</v>
+        <v>0.08</v>
       </c>
       <c r="K114">
         <f t="shared" ca="1" si="15"/>
-        <v>0.41</v>
+        <v>0.53</v>
       </c>
       <c r="L114">
         <v>0.5</v>
       </c>
       <c r="M114">
         <f t="shared" ca="1" si="9"/>
-        <v>0.89529999999999865</v>
+        <v>1.0402999999999989</v>
       </c>
       <c r="N114">
         <f t="shared" ca="1" si="10"/>
-        <v>1.7151340996168551</v>
+        <v>1.9929118773946319</v>
       </c>
       <c r="O114">
         <f t="shared" ca="1" si="11"/>
-        <v>0.80156208999999756</v>
+        <v>1.0822240899999978</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
@@ -6145,7 +6145,7 @@
       </c>
       <c r="D115" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>31.567999999999998</v>
+        <v>30.393000000000001</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -6160,26 +6160,26 @@
       </c>
       <c r="J115">
         <f t="shared" ca="1" si="14"/>
-        <v>0.38</v>
+        <v>-0.44</v>
       </c>
       <c r="K115">
         <f t="shared" ca="1" si="15"/>
-        <v>0.87</v>
+        <v>-0.66</v>
       </c>
       <c r="L115">
         <v>0.5</v>
       </c>
       <c r="M115">
         <f t="shared" ca="1" si="9"/>
-        <v>6.7999999999999616E-2</v>
+        <v>-1.1070000000000004</v>
       </c>
       <c r="N115">
         <f t="shared" ca="1" si="10"/>
-        <v>0.21587301587300267</v>
+        <v>-3.5142857142857142</v>
       </c>
       <c r="O115">
         <f t="shared" ca="1" si="11"/>
-        <v>4.6239999999999476E-3</v>
+        <v>1.2254490000000009</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
@@ -6194,7 +6194,7 @@
       </c>
       <c r="D116" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>69.237850000000009</v>
+        <v>68.347850000000008</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -6209,26 +6209,26 @@
       </c>
       <c r="J116">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.49</v>
+        <v>-0.98</v>
       </c>
       <c r="K116">
         <f t="shared" ca="1" si="15"/>
-        <v>0.28999999999999998</v>
+        <v>-1</v>
       </c>
       <c r="L116">
         <v>0.5</v>
       </c>
       <c r="M116">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.762149999999997</v>
+        <v>-2.6521499999999971</v>
       </c>
       <c r="N116">
         <f t="shared" ca="1" si="10"/>
-        <v>-2.481901408450693</v>
+        <v>-3.7354225352112524</v>
       </c>
       <c r="O116">
         <f t="shared" ca="1" si="11"/>
-        <v>3.1051726224999894</v>
+        <v>7.0338996224999848</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.3">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="D117" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>63.03425</v>
+        <v>61.624250000000004</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -6258,26 +6258,26 @@
       </c>
       <c r="J117">
         <f t="shared" ca="1" si="14"/>
-        <v>0.66</v>
+        <v>-0.38</v>
       </c>
       <c r="K117">
         <f t="shared" ca="1" si="15"/>
-        <v>0.86</v>
+        <v>-0.92</v>
       </c>
       <c r="L117">
         <v>0.5</v>
       </c>
       <c r="M117">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0342500000000019</v>
+        <v>3.6242500000000017</v>
       </c>
       <c r="N117">
         <f t="shared" ca="1" si="10"/>
-        <v>8.679741379310336</v>
+        <v>6.2487068965517256</v>
       </c>
       <c r="O117">
         <f t="shared" ca="1" si="11"/>
-        <v>25.34367306250002</v>
+        <v>13.135188062500013</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.3">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="D118" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>65.174800000000005</v>
+        <v>65.2898</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -6307,26 +6307,26 @@
       </c>
       <c r="J118">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.8</v>
+        <v>0.2</v>
       </c>
       <c r="K118">
         <f t="shared" ca="1" si="15"/>
-        <v>0.47</v>
+        <v>-0.3</v>
       </c>
       <c r="L118">
         <v>0.5</v>
       </c>
       <c r="M118">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.22520000000000184</v>
+        <v>-0.1102000000000018</v>
       </c>
       <c r="N118">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.34434250764525665</v>
+        <v>-0.16850152905200089</v>
       </c>
       <c r="O118">
         <f t="shared" ca="1" si="11"/>
-        <v>5.0715040000000829E-2</v>
+        <v>1.2144040000000396E-2</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.3">
@@ -6341,7 +6341,7 @@
       </c>
       <c r="D119" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>58.085349999999998</v>
+        <v>58.715350000000001</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -6356,26 +6356,26 @@
       </c>
       <c r="J119">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.38</v>
+        <v>-0.78</v>
       </c>
       <c r="K119">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.71</v>
+        <v>0.95</v>
       </c>
       <c r="L119">
         <v>0.5</v>
       </c>
       <c r="M119">
         <f t="shared" ca="1" si="9"/>
-        <v>-4.8146499999999985</v>
+        <v>-4.1846499999999986</v>
       </c>
       <c r="N119">
         <f t="shared" ca="1" si="10"/>
-        <v>-7.6544515103338595</v>
+        <v>-6.6528616852146278</v>
       </c>
       <c r="O119">
         <f t="shared" ca="1" si="11"/>
-        <v>23.180854622499986</v>
+        <v>17.51129562249999</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.3">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="D120" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>21.967850000000002</v>
+        <v>21.973749999999999</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -6405,26 +6405,26 @@
       </c>
       <c r="J120">
         <f t="shared" ca="1" si="14"/>
-        <v>-5.5999999999999999E-3</v>
+        <v>-7.1000000000000004E-3</v>
       </c>
       <c r="K120">
         <f t="shared" ca="1" si="15"/>
-        <v>-4.7000000000000002E-3</v>
+        <v>8.6E-3</v>
       </c>
       <c r="L120">
         <v>0.5</v>
       </c>
       <c r="M120">
         <f t="shared" ca="1" si="9"/>
-        <v>0.96785000000000077</v>
+        <v>0.97375000000000067</v>
       </c>
       <c r="N120">
         <f t="shared" ca="1" si="10"/>
-        <v>4.6088095238095317</v>
+        <v>4.6369047619047477</v>
       </c>
       <c r="O120">
         <f t="shared" ca="1" si="11"/>
-        <v>0.93673362250000147</v>
+        <v>0.94818906250000135</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
@@ -6439,7 +6439,7 @@
       </c>
       <c r="D121" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>54.568350000000002</v>
+        <v>55.233350000000002</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -6454,26 +6454,26 @@
       </c>
       <c r="J121">
         <f t="shared" ca="1" si="14"/>
-        <v>0.34</v>
+        <v>-0.24</v>
       </c>
       <c r="K121">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.97</v>
+        <v>0.94</v>
       </c>
       <c r="L121">
         <v>0.5</v>
       </c>
       <c r="M121">
         <f t="shared" ca="1" si="9"/>
-        <v>1.268350000000003</v>
+        <v>1.9333500000000028</v>
       </c>
       <c r="N121">
         <f t="shared" ca="1" si="10"/>
-        <v>2.3796435272045224</v>
+        <v>3.62729831144466</v>
       </c>
       <c r="O121">
         <f t="shared" ca="1" si="11"/>
-        <v>1.6087117225000076</v>
+        <v>3.737842222500011</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
@@ -6488,7 +6488,7 @@
       </c>
       <c r="D122" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>48.206299999999999</v>
+        <v>48.451299999999996</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -6503,26 +6503,26 @@
       </c>
       <c r="J122">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.12</v>
+        <v>-0.54</v>
       </c>
       <c r="K122">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.2</v>
+        <v>0.71</v>
       </c>
       <c r="L122">
         <v>0.5</v>
       </c>
       <c r="M122">
         <f t="shared" ca="1" si="9"/>
-        <v>1.7062999999999988</v>
+        <v>1.9512999999999989</v>
       </c>
       <c r="N122">
         <f t="shared" ca="1" si="10"/>
-        <v>3.6694623655914027</v>
+        <v>4.1963440860214973</v>
       </c>
       <c r="O122">
         <f t="shared" ca="1" si="11"/>
-        <v>2.911459689999996</v>
+        <v>3.8075716899999956</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
@@ -6537,7 +6537,7 @@
       </c>
       <c r="D123" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>62.971299999999999</v>
+        <v>63.466300000000004</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -6552,26 +6552,26 @@
       </c>
       <c r="J123">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.92</v>
+        <v>-0.44</v>
       </c>
       <c r="K123">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.89</v>
+        <v>-0.38</v>
       </c>
       <c r="L123">
         <v>0.5</v>
       </c>
       <c r="M123">
         <f t="shared" ca="1" si="9"/>
-        <v>0.17130000000000339</v>
+        <v>0.66630000000000345</v>
       </c>
       <c r="N123">
         <f t="shared" ca="1" si="10"/>
-        <v>0.27277070063693731</v>
+        <v>1.0609872611465176</v>
       </c>
       <c r="O123">
         <f t="shared" ca="1" si="11"/>
-        <v>2.9343690000001164E-2</v>
+        <v>0.44395569000000457</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.3">
@@ -6586,7 +6586,7 @@
       </c>
       <c r="D124" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>63.757150000000003</v>
+        <v>63.542149999999999</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -6601,26 +6601,26 @@
       </c>
       <c r="J124">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.6</v>
+        <v>-0.32</v>
       </c>
       <c r="K124">
         <f t="shared" ca="1" si="15"/>
-        <v>0.08</v>
+        <v>-0.63</v>
       </c>
       <c r="L124">
         <v>0.5</v>
       </c>
       <c r="M124">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.94285000000000196</v>
+        <v>-1.157850000000002</v>
       </c>
       <c r="N124">
         <f t="shared" ca="1" si="10"/>
-        <v>-1.457264296754246</v>
+        <v>-1.7895672333848589</v>
       </c>
       <c r="O124">
         <f t="shared" ca="1" si="11"/>
-        <v>0.88896612250000373</v>
+        <v>1.3406166225000047</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.3">
@@ -6635,7 +6635,7 @@
       </c>
       <c r="D125" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>22.558350000000001</v>
+        <v>22.55585</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -6650,26 +6650,26 @@
       </c>
       <c r="J125">
         <f t="shared" ca="1" si="14"/>
-        <v>2.8999999999999998E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="K125">
         <f t="shared" ca="1" si="15"/>
-        <v>8.2000000000000007E-3</v>
+        <v>-4.0000000000000002E-4</v>
       </c>
       <c r="L125">
         <v>0.5</v>
       </c>
       <c r="M125">
         <f t="shared" ca="1" si="9"/>
-        <v>0.75834999999999875</v>
+        <v>0.7558499999999988</v>
       </c>
       <c r="N125">
         <f t="shared" ca="1" si="10"/>
-        <v>3.4786697247706444</v>
+        <v>3.4672018348623768</v>
       </c>
       <c r="O125">
         <f t="shared" ca="1" si="11"/>
-        <v>0.57509472249999805</v>
+        <v>0.57130922249999816</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
@@ -6684,7 +6684,7 @@
       </c>
       <c r="D126" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>61.962299999999999</v>
+        <v>60.972300000000004</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -6699,26 +6699,26 @@
       </c>
       <c r="J126">
         <f t="shared" ca="1" si="14"/>
-        <v>0.57999999999999996</v>
+        <v>-0.54</v>
       </c>
       <c r="K126">
         <f t="shared" ca="1" si="15"/>
-        <v>0.63</v>
+        <v>-0.23</v>
       </c>
       <c r="L126">
         <v>0.5</v>
       </c>
       <c r="M126">
         <f t="shared" ca="1" si="9"/>
-        <v>2.2622999999999993</v>
+        <v>1.2722999999999993</v>
       </c>
       <c r="N126">
         <f t="shared" ca="1" si="10"/>
-        <v>3.7894472361808873</v>
+        <v>2.1311557788944668</v>
       </c>
       <c r="O126">
         <f t="shared" ca="1" si="11"/>
-        <v>5.1180012899999969</v>
+        <v>1.6187472899999982</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="D127" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>78.520349999999993</v>
+        <v>78.605350000000001</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -6748,26 +6748,26 @@
       </c>
       <c r="J127">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.22</v>
+        <v>0.59</v>
       </c>
       <c r="K127">
         <f t="shared" ca="1" si="15"/>
-        <v>0.31</v>
+        <v>-0.33</v>
       </c>
       <c r="L127">
         <v>0.5</v>
       </c>
       <c r="M127">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.7796499999999984</v>
+        <v>-1.6946499999999984</v>
       </c>
       <c r="N127">
         <f t="shared" ca="1" si="10"/>
-        <v>-2.2162515566625185</v>
+        <v>-2.1103985056039831</v>
       </c>
       <c r="O127">
         <f t="shared" ca="1" si="11"/>
-        <v>3.1671541224999942</v>
+        <v>2.8718386224999946</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
@@ -6782,7 +6782,7 @@
       </c>
       <c r="D128" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>68.691850000000002</v>
+        <v>68.711849999999998</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -6797,26 +6797,26 @@
       </c>
       <c r="J128">
         <f t="shared" ca="1" si="14"/>
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="K128">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.59</v>
+        <v>-0.3</v>
       </c>
       <c r="L128">
         <v>0.5</v>
       </c>
       <c r="M128">
         <f t="shared" ca="1" si="9"/>
-        <v>0.69184999999999919</v>
+        <v>0.71184999999999909</v>
       </c>
       <c r="N128">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0174264705882452</v>
+        <v>1.046838235294123</v>
       </c>
       <c r="O128">
         <f t="shared" ca="1" si="11"/>
-        <v>0.4786564224999989</v>
+        <v>0.50673042249999867</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.3">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="D129" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>58.581200000000003</v>
+        <v>58.571199999999997</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -6846,26 +6846,26 @@
       </c>
       <c r="J129">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.95</v>
+        <v>-0.96</v>
       </c>
       <c r="K129">
         <f t="shared" ca="1" si="15"/>
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="L129">
         <v>0.5</v>
       </c>
       <c r="M129">
         <f t="shared" ca="1" si="9"/>
-        <v>2.0811999999999995</v>
+        <v>2.0711999999999997</v>
       </c>
       <c r="N129">
         <f t="shared" ca="1" si="10"/>
-        <v>3.6835398230088634</v>
+        <v>3.6658407079646071</v>
       </c>
       <c r="O129">
         <f t="shared" ca="1" si="11"/>
-        <v>4.3313934399999976</v>
+        <v>4.2898694399999986</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.3">
@@ -6880,7 +6880,7 @@
       </c>
       <c r="D130" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>80.445000000000007</v>
+        <v>80.844999999999999</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -6895,26 +6895,26 @@
       </c>
       <c r="J130">
         <f t="shared" ca="1" si="14"/>
-        <v>0.24</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="K130">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.61</v>
+        <v>1</v>
       </c>
       <c r="L130">
         <v>0.5</v>
       </c>
       <c r="M130">
         <f t="shared" ca="1" si="9"/>
-        <v>-3.7550000000000003</v>
+        <v>-3.3550000000000004</v>
       </c>
       <c r="N130">
         <f t="shared" ca="1" si="10"/>
-        <v>-4.4596199524940534</v>
+        <v>-3.9845605700712605</v>
       </c>
       <c r="O130">
         <f t="shared" ca="1" si="11"/>
-        <v>14.100025000000002</v>
+        <v>11.256025000000003</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="D131" s="4">
         <f t="shared" ref="D131:D194" ca="1" si="16">B131+M131</f>
-        <v>70.566450000000003</v>
+        <v>70.161450000000002</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -6944,26 +6944,26 @@
       </c>
       <c r="J131">
         <f t="shared" ca="1" si="14"/>
-        <v>0.74</v>
+        <v>-0.49</v>
       </c>
       <c r="K131">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.16</v>
+        <v>0.26</v>
       </c>
       <c r="L131">
         <v>0.5</v>
       </c>
       <c r="M131">
         <f t="shared" ref="M131:M194" ca="1" si="17">(I131+J131+K131)*L131</f>
-        <v>-0.2335500000000002</v>
+        <v>-0.63855000000000017</v>
       </c>
       <c r="N131">
         <f t="shared" ref="N131:N194" ca="1" si="18">((D131/B131)-1)*100</f>
-        <v>-0.3298728813559193</v>
+        <v>-0.90190677966101029</v>
       </c>
       <c r="O131">
         <f t="shared" ref="O131:O194" ca="1" si="19">M131^2</f>
-        <v>5.4545602500000095E-2</v>
+        <v>0.40774610250000021</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.3">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="D132" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>69.653450000000007</v>
+        <v>70.953450000000004</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -6993,26 +6993,26 @@
       </c>
       <c r="J132">
         <f t="shared" ref="J132:J195" ca="1" si="22">IF(B132 &lt; 30, RANDBETWEEN(-100, 100) / 10000, RANDBETWEEN(-100,100) / 100)</f>
-        <v>-0.49</v>
+        <v>0.96</v>
       </c>
       <c r="K132">
         <f t="shared" ref="K132:K195" ca="1" si="23">IF(B132 &lt; 30, RANDBETWEEN(-100, 100) / 10000, RANDBETWEEN(-100,100) / 100)</f>
-        <v>-0.72</v>
+        <v>0.43</v>
       </c>
       <c r="L132">
         <v>0.5</v>
       </c>
       <c r="M132">
         <f t="shared" ca="1" si="17"/>
-        <v>-2.0465499999999994</v>
+        <v>-0.74654999999999949</v>
       </c>
       <c r="N132">
         <f t="shared" ca="1" si="18"/>
-        <v>-2.8543235704323489</v>
+        <v>-1.0412133891213426</v>
       </c>
       <c r="O132">
         <f t="shared" ca="1" si="19"/>
-        <v>4.1883669024999977</v>
+        <v>0.55733690249999923</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.3">
@@ -7027,7 +7027,7 @@
       </c>
       <c r="D133" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>26.481449999999999</v>
+        <v>26.473299999999998</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -7042,26 +7042,26 @@
       </c>
       <c r="J133">
         <f t="shared" ca="1" si="22"/>
-        <v>6.0000000000000001E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="K133">
         <f t="shared" ca="1" si="23"/>
-        <v>1.4E-3</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="L133">
         <v>0.5</v>
       </c>
       <c r="M133">
         <f t="shared" ca="1" si="17"/>
-        <v>0.74145000000000016</v>
+        <v>0.73330000000000017</v>
       </c>
       <c r="N133">
         <f t="shared" ca="1" si="18"/>
-        <v>2.8805361305361377</v>
+        <v>2.8488733488733375</v>
       </c>
       <c r="O133">
         <f t="shared" ca="1" si="19"/>
-        <v>0.54974810250000028</v>
+        <v>0.53772889000000024</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.3">
@@ -7076,7 +7076,7 @@
       </c>
       <c r="D134" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>40.529899999999998</v>
+        <v>40.724899999999998</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -7091,26 +7091,26 @@
       </c>
       <c r="J134">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.82</v>
+        <v>-0.65</v>
       </c>
       <c r="K134">
         <f t="shared" ca="1" si="23"/>
-        <v>0.49</v>
+        <v>0.71</v>
       </c>
       <c r="L134">
         <v>0.5</v>
       </c>
       <c r="M134">
         <f t="shared" ca="1" si="17"/>
-        <v>0.17989999999999912</v>
+        <v>0.37489999999999907</v>
       </c>
       <c r="N134">
         <f t="shared" ca="1" si="18"/>
-        <v>0.44584882280047644</v>
+        <v>0.92912019826516534</v>
       </c>
       <c r="O134">
         <f t="shared" ca="1" si="19"/>
-        <v>3.2364009999999679E-2</v>
+        <v>0.14055000999999931</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.3">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="D135" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>33.75705</v>
+        <v>33.222050000000003</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -7140,26 +7140,26 @@
       </c>
       <c r="J135">
         <f t="shared" ca="1" si="22"/>
-        <v>0.96</v>
+        <v>-1</v>
       </c>
       <c r="K135">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.01</v>
+        <v>0.88</v>
       </c>
       <c r="L135">
         <v>0.5</v>
       </c>
       <c r="M135">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.74294999999999833</v>
+        <v>-1.2779499999999984</v>
       </c>
       <c r="N135">
         <f t="shared" ca="1" si="18"/>
-        <v>-2.153478260869568</v>
+        <v>-3.7042028985507125</v>
       </c>
       <c r="O135">
         <f t="shared" ca="1" si="19"/>
-        <v>0.55197470249999747</v>
+        <v>1.6331562024999957</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.3">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="D136" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>20.47955</v>
+        <v>20.474399999999999</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -7189,26 +7189,26 @@
       </c>
       <c r="J136">
         <f t="shared" ca="1" si="22"/>
-        <v>6.6E-3</v>
+        <v>-9.1999999999999998E-3</v>
       </c>
       <c r="K136">
         <f t="shared" ca="1" si="23"/>
-        <v>-8.6E-3</v>
+        <v>-3.0999999999999999E-3</v>
       </c>
       <c r="L136">
         <v>0.5</v>
       </c>
       <c r="M136">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.52045000000000086</v>
+        <v>-0.52560000000000096</v>
       </c>
       <c r="N136">
         <f t="shared" ca="1" si="18"/>
-        <v>-2.4783333333333379</v>
+        <v>-2.5028571428571511</v>
       </c>
       <c r="O136">
         <f t="shared" ca="1" si="19"/>
-        <v>0.27086820250000088</v>
+        <v>0.276255360000001</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
@@ -7223,7 +7223,7 @@
       </c>
       <c r="D137" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>44.219299999999997</v>
+        <v>44.304299999999998</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -7238,26 +7238,26 @@
       </c>
       <c r="J137">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.31</v>
+        <v>-0.06</v>
       </c>
       <c r="K137">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.09</v>
+        <v>-0.17</v>
       </c>
       <c r="L137">
         <v>0.5</v>
       </c>
       <c r="M137">
         <f t="shared" ca="1" si="17"/>
-        <v>0.21929999999999977</v>
+        <v>0.30429999999999974</v>
       </c>
       <c r="N137">
         <f t="shared" ca="1" si="18"/>
-        <v>0.49840909090907992</v>
+        <v>0.69159090909090004</v>
       </c>
       <c r="O137">
         <f t="shared" ca="1" si="19"/>
-        <v>4.8092489999999898E-2</v>
+        <v>9.2598489999999839E-2</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.3">
@@ -7272,7 +7272,7 @@
       </c>
       <c r="D138" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>27.286899999999999</v>
+        <v>27.285499999999999</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -7287,26 +7287,26 @@
       </c>
       <c r="J138">
         <f t="shared" ca="1" si="22"/>
-        <v>7.1000000000000004E-3</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="K138">
         <f t="shared" ca="1" si="23"/>
-        <v>5.4000000000000003E-3</v>
+        <v>-2.0000000000000001E-4</v>
       </c>
       <c r="L138">
         <v>0.5</v>
       </c>
       <c r="M138">
         <f t="shared" ca="1" si="17"/>
-        <v>0.2868999999999996</v>
+        <v>0.28549999999999964</v>
       </c>
       <c r="N138">
         <f t="shared" ca="1" si="18"/>
-        <v>1.0625925925925817</v>
+        <v>1.0574074074074069</v>
       </c>
       <c r="O138">
         <f t="shared" ca="1" si="19"/>
-        <v>8.2311609999999771E-2</v>
+        <v>8.1510249999999798E-2</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.3">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="D139" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>7.8463449999999995</v>
+        <v>7.8534449999999998</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -7336,26 +7336,26 @@
       </c>
       <c r="J139">
         <f t="shared" ca="1" si="22"/>
-        <v>-9.1999999999999998E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="K139">
         <f t="shared" ca="1" si="23"/>
-        <v>3.3999999999999998E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="L139">
         <v>0.5</v>
       </c>
       <c r="M139">
         <f t="shared" ca="1" si="17"/>
-        <v>0.34634499999999979</v>
+        <v>0.35344499999999984</v>
       </c>
       <c r="N139">
         <f t="shared" ca="1" si="18"/>
-        <v>4.617933333333335</v>
+        <v>4.7126000000000001</v>
       </c>
       <c r="O139">
         <f t="shared" ca="1" si="19"/>
-        <v>0.11995485902499986</v>
+        <v>0.12492336802499988</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.3">
@@ -7370,7 +7370,7 @@
       </c>
       <c r="D140" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>33.271250000000002</v>
+        <v>32.931249999999999</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -7385,26 +7385,26 @@
       </c>
       <c r="J140">
         <f t="shared" ca="1" si="22"/>
-        <v>0.24</v>
+        <v>0.42</v>
       </c>
       <c r="K140">
         <f t="shared" ca="1" si="23"/>
-        <v>0.37</v>
+        <v>-0.49</v>
       </c>
       <c r="L140">
         <v>0.5</v>
       </c>
       <c r="M140">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2712499999999989</v>
+        <v>0.93124999999999869</v>
       </c>
       <c r="N140">
         <f t="shared" ca="1" si="18"/>
-        <v>3.9726562500000062</v>
+        <v>2.9101562499999956</v>
       </c>
       <c r="O140">
         <f t="shared" ca="1" si="19"/>
-        <v>1.6160765624999971</v>
+        <v>0.86722656249999752</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.3">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="D141" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>29.89695</v>
+        <v>29.821950000000001</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -7434,26 +7434,26 @@
       </c>
       <c r="J141">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.62</v>
+        <v>0.22</v>
       </c>
       <c r="K141">
         <f t="shared" ca="1" si="23"/>
-        <v>0.76</v>
+        <v>-0.23</v>
       </c>
       <c r="L141">
         <v>0.5</v>
       </c>
       <c r="M141">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.10304999999999992</v>
+        <v>-0.17804999999999993</v>
       </c>
       <c r="N141">
         <f t="shared" ca="1" si="18"/>
-        <v>-0.34349999999999659</v>
+        <v>-0.59349999999999126</v>
       </c>
       <c r="O141">
         <f t="shared" ca="1" si="19"/>
-        <v>1.0619302499999983E-2</v>
+        <v>3.1701802499999973E-2</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.3">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="D142" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>8.6167049999999996</v>
+        <v>8.6237049999999993</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -7483,26 +7483,26 @@
       </c>
       <c r="J142">
         <f t="shared" ca="1" si="22"/>
-        <v>-6.0000000000000001E-3</v>
+        <v>-3.3999999999999998E-3</v>
       </c>
       <c r="K142">
         <f t="shared" ca="1" si="23"/>
-        <v>-5.7999999999999996E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="L142">
         <v>0.5</v>
       </c>
       <c r="M142">
         <f t="shared" ca="1" si="17"/>
-        <v>0.11670500000000007</v>
+        <v>0.12370500000000008</v>
       </c>
       <c r="N142">
         <f t="shared" ca="1" si="18"/>
-        <v>1.373000000000002</v>
+        <v>1.4553529411764687</v>
       </c>
       <c r="O142">
         <f t="shared" ca="1" si="19"/>
-        <v>1.3620057025000017E-2</v>
+        <v>1.530292702500002E-2</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.3">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="D143" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>70.030300000000011</v>
+        <v>69.50030000000001</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -7532,26 +7532,26 @@
       </c>
       <c r="J143">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.03</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K143">
         <f t="shared" ca="1" si="23"/>
-        <v>0.69</v>
+        <v>-0.33</v>
       </c>
       <c r="L143">
         <v>0.5</v>
       </c>
       <c r="M143">
         <f t="shared" ca="1" si="17"/>
-        <v>0.16030000000000111</v>
+        <v>-0.36969999999999886</v>
       </c>
       <c r="N143">
         <f t="shared" ca="1" si="18"/>
-        <v>0.22942607700016104</v>
+        <v>-0.52912551882066117</v>
       </c>
       <c r="O143">
         <f t="shared" ca="1" si="19"/>
-        <v>2.5696090000000355E-2</v>
+        <v>0.13667808999999917</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.3">
@@ -7566,7 +7566,7 @@
       </c>
       <c r="D144" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>48.882799999999996</v>
+        <v>49.067799999999998</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -7581,26 +7581,26 @@
       </c>
       <c r="J144">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.52</v>
+        <v>0.5</v>
       </c>
       <c r="K144">
         <f t="shared" ca="1" si="23"/>
-        <v>0.36</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="L144">
         <v>0.5</v>
       </c>
       <c r="M144">
         <f t="shared" ca="1" si="17"/>
-        <v>9.2799999999998717E-2</v>
+        <v>0.27779999999999871</v>
       </c>
       <c r="N144">
         <f t="shared" ca="1" si="18"/>
-        <v>0.19020291043245763</v>
+        <v>0.5693789711006314</v>
       </c>
       <c r="O144">
         <f t="shared" ca="1" si="19"/>
-        <v>8.6118399999997614E-3</v>
+        <v>7.7172839999999285E-2</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
@@ -7615,7 +7615,7 @@
       </c>
       <c r="D145" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>27.62115</v>
+        <v>27.624500000000001</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -7630,26 +7630,26 @@
       </c>
       <c r="J145">
         <f t="shared" ca="1" si="22"/>
-        <v>-1.8E-3</v>
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="K145">
         <f t="shared" ca="1" si="23"/>
-        <v>9.1000000000000004E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="L145">
         <v>0.5</v>
       </c>
       <c r="M145">
         <f t="shared" ca="1" si="17"/>
-        <v>0.2411500000000007</v>
+        <v>0.24450000000000072</v>
       </c>
       <c r="N145">
         <f t="shared" ca="1" si="18"/>
-        <v>0.88075237399563022</v>
+        <v>0.8929875821767741</v>
       </c>
       <c r="O145">
         <f t="shared" ca="1" si="19"/>
-        <v>5.8153322500000333E-2</v>
+        <v>5.9780250000000354E-2</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="D146" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>70.290350000000004</v>
+        <v>69.940349999999995</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -7679,26 +7679,26 @@
       </c>
       <c r="J146">
         <f t="shared" ca="1" si="22"/>
-        <v>0.35</v>
+        <v>-0.21</v>
       </c>
       <c r="K146">
         <f t="shared" ca="1" si="23"/>
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="L146">
         <v>0.5</v>
       </c>
       <c r="M146">
         <f t="shared" ca="1" si="17"/>
-        <v>0.43035000000000251</v>
+        <v>8.0350000000002531E-2</v>
       </c>
       <c r="N146">
         <f t="shared" ca="1" si="18"/>
-        <v>0.61601774978528034</v>
+        <v>0.11501574577725826</v>
       </c>
       <c r="O146">
         <f t="shared" ca="1" si="19"/>
-        <v>0.18520112250000215</v>
+        <v>6.4561225000004064E-3</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
@@ -7713,7 +7713,7 @@
       </c>
       <c r="D147" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>48.054349999999999</v>
+        <v>47.174349999999997</v>
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
@@ -7728,26 +7728,26 @@
       </c>
       <c r="J147">
         <f t="shared" ca="1" si="22"/>
-        <v>0.51</v>
+        <v>-0.96</v>
       </c>
       <c r="K147">
         <f t="shared" ca="1" si="23"/>
-        <v>0.63</v>
+        <v>0.34</v>
       </c>
       <c r="L147">
         <v>0.5</v>
       </c>
       <c r="M147">
         <f t="shared" ca="1" si="17"/>
-        <v>0.98434999999999895</v>
+        <v>0.10434999999999892</v>
       </c>
       <c r="N147">
         <f t="shared" ca="1" si="18"/>
-        <v>2.0912470788187809</v>
+        <v>0.22169109836414069</v>
       </c>
       <c r="O147">
         <f t="shared" ca="1" si="19"/>
-        <v>0.96894492249999797</v>
+        <v>1.0888922499999773E-2</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
@@ -7762,7 +7762,7 @@
       </c>
       <c r="D148" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>25.0684</v>
+        <v>25.0688</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -7777,26 +7777,26 @@
       </c>
       <c r="J148">
         <f t="shared" ca="1" si="22"/>
-        <v>-4.0000000000000002E-4</v>
+        <v>-4.7999999999999996E-3</v>
       </c>
       <c r="K148">
         <f t="shared" ca="1" si="23"/>
-        <v>1.6999999999999999E-3</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="L148">
         <v>0.5</v>
       </c>
       <c r="M148">
         <f t="shared" ca="1" si="17"/>
-        <v>2.7483999999999997</v>
+        <v>2.7487999999999997</v>
       </c>
       <c r="N148">
         <f t="shared" ca="1" si="18"/>
-        <v>12.313620071684594</v>
+        <v>12.315412186379927</v>
       </c>
       <c r="O148">
         <f t="shared" ca="1" si="19"/>
-        <v>7.5537025599999987</v>
+        <v>7.5559014399999986</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
@@ -7811,7 +7811,7 @@
       </c>
       <c r="D149" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>89.332949999999997</v>
+        <v>89.742949999999993</v>
       </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -7826,26 +7826,26 @@
       </c>
       <c r="J149">
         <f t="shared" ca="1" si="22"/>
-        <v>0.36</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K149">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.81</v>
+        <v>-0.2</v>
       </c>
       <c r="L149">
         <v>0.5</v>
       </c>
       <c r="M149">
         <f t="shared" ca="1" si="17"/>
-        <v>-1.9070499999999968</v>
+        <v>-1.4970499999999969</v>
       </c>
       <c r="N149">
         <f t="shared" ca="1" si="18"/>
-        <v>-2.0901468654099031</v>
+        <v>-1.6407825515124985</v>
       </c>
       <c r="O149">
         <f t="shared" ca="1" si="19"/>
-        <v>3.6368397024999877</v>
+        <v>2.2411587024999906</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="D150" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>72.1892</v>
+        <v>71.324200000000005</v>
       </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
@@ -7875,26 +7875,26 @@
       </c>
       <c r="J150">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.41</v>
+        <v>-0.46</v>
       </c>
       <c r="K150">
         <f t="shared" ca="1" si="23"/>
-        <v>0.75</v>
+        <v>-0.93</v>
       </c>
       <c r="L150">
         <v>0.5</v>
       </c>
       <c r="M150">
         <f t="shared" ca="1" si="17"/>
-        <v>2.989199999999995</v>
+        <v>2.1241999999999952</v>
       </c>
       <c r="N150">
         <f t="shared" ca="1" si="18"/>
-        <v>4.3196531791907411</v>
+        <v>3.0696531791907455</v>
       </c>
       <c r="O150">
         <f t="shared" ca="1" si="19"/>
-        <v>8.9353166399999697</v>
+        <v>4.5122256399999801</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
@@ -7909,7 +7909,7 @@
       </c>
       <c r="D151" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>65.587299999999999</v>
+        <v>66.317300000000003</v>
       </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -7924,26 +7924,26 @@
       </c>
       <c r="J151">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.55000000000000004</v>
+        <v>-0.17</v>
       </c>
       <c r="K151">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.61</v>
+        <v>0.47</v>
       </c>
       <c r="L151">
         <v>0.5</v>
       </c>
       <c r="M151">
         <f t="shared" ca="1" si="17"/>
-        <v>-1.3127000000000011</v>
+        <v>-0.58270000000000122</v>
       </c>
       <c r="N151">
         <f t="shared" ca="1" si="18"/>
-        <v>-1.962182361733944</v>
+        <v>-0.87100149476831978</v>
       </c>
       <c r="O151">
         <f t="shared" ca="1" si="19"/>
-        <v>1.7231812900000028</v>
+        <v>0.33953929000000144</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
@@ -7958,7 +7958,7 @@
       </c>
       <c r="D152" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>40.089350000000003</v>
+        <v>40.309350000000002</v>
       </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
@@ -7973,26 +7973,26 @@
       </c>
       <c r="J152">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.34</v>
+        <v>0.59</v>
       </c>
       <c r="K152">
         <f t="shared" ca="1" si="23"/>
-        <v>0.24</v>
+        <v>-0.25</v>
       </c>
       <c r="L152">
         <v>0.5</v>
       </c>
       <c r="M152">
         <f t="shared" ca="1" si="17"/>
-        <v>2.1893500000000019</v>
+        <v>2.4093500000000017</v>
       </c>
       <c r="N152">
         <f t="shared" ca="1" si="18"/>
-        <v>5.7766490765171596</v>
+        <v>6.3571240105541049</v>
       </c>
       <c r="O152">
         <f t="shared" ca="1" si="19"/>
-        <v>4.7932534225000083</v>
+        <v>5.8049674225000079</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
@@ -8007,7 +8007,7 @@
       </c>
       <c r="D153" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>35.237049999999996</v>
+        <v>35.23995</v>
       </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
@@ -8022,26 +8022,26 @@
       </c>
       <c r="J153">
         <f t="shared" ca="1" si="22"/>
-        <v>4.8999999999999998E-3</v>
+        <v>-7.9000000000000008E-3</v>
       </c>
       <c r="K153">
         <f t="shared" ca="1" si="23"/>
-        <v>-9.4000000000000004E-3</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="L153">
         <v>0.5</v>
       </c>
       <c r="M153">
         <f t="shared" ca="1" si="17"/>
-        <v>5.8370500000000014</v>
+        <v>5.8399500000000018</v>
       </c>
       <c r="N153">
         <f t="shared" ca="1" si="18"/>
-        <v>19.853911564625836</v>
+        <v>19.863775510204086</v>
       </c>
       <c r="O153">
         <f t="shared" ca="1" si="19"/>
-        <v>34.071152702500015</v>
+        <v>34.105016002500022</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="D154" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>67.855850000000004</v>
+        <v>68.485849999999999</v>
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
@@ -8071,26 +8071,26 @@
       </c>
       <c r="J154">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.16</v>
+        <v>0.03</v>
       </c>
       <c r="K154">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.28000000000000003</v>
+        <v>0.79</v>
       </c>
       <c r="L154">
         <v>0.5</v>
       </c>
       <c r="M154">
         <f t="shared" ca="1" si="17"/>
-        <v>-3.3441500000000004</v>
+        <v>-2.7141500000000001</v>
       </c>
       <c r="N154">
         <f t="shared" ca="1" si="18"/>
-        <v>-4.6968398876404471</v>
+        <v>-3.8120084269662957</v>
       </c>
       <c r="O154">
         <f t="shared" ca="1" si="19"/>
-        <v>11.183339222500003</v>
+        <v>7.3666102225000003</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
@@ -8105,7 +8105,7 @@
       </c>
       <c r="D155" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>52.124949999999998</v>
+        <v>51.374949999999998</v>
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -8120,26 +8120,26 @@
       </c>
       <c r="J155">
         <f t="shared" ca="1" si="22"/>
-        <v>0.56000000000000005</v>
+        <v>0.26</v>
       </c>
       <c r="K155">
         <f t="shared" ca="1" si="23"/>
-        <v>0.65</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="L155">
         <v>0.5</v>
       </c>
       <c r="M155">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1249500000000014</v>
+        <v>0.37495000000000145</v>
       </c>
       <c r="N155">
         <f t="shared" ca="1" si="18"/>
-        <v>2.2057843137254896</v>
+        <v>0.73519607843137713</v>
       </c>
       <c r="O155">
         <f t="shared" ca="1" si="19"/>
-        <v>1.2655125025000034</v>
+        <v>0.1405875025000011</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
@@ -8154,7 +8154,7 @@
       </c>
       <c r="D156" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>34.707650000000001</v>
+        <v>34.752650000000003</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -8169,26 +8169,26 @@
       </c>
       <c r="J156">
         <f t="shared" ca="1" si="22"/>
-        <v>0.33</v>
+        <v>-0.7</v>
       </c>
       <c r="K156">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.92</v>
+        <v>0.2</v>
       </c>
       <c r="L156">
         <v>0.5</v>
       </c>
       <c r="M156">
         <f t="shared" ca="1" si="17"/>
-        <v>2.7076499999999992</v>
+        <v>2.7526499999999992</v>
       </c>
       <c r="N156">
         <f t="shared" ca="1" si="18"/>
-        <v>8.4614062500000031</v>
+        <v>8.6020312500000085</v>
       </c>
       <c r="O156">
         <f t="shared" ca="1" si="19"/>
-        <v>7.3313685224999956</v>
+        <v>7.5770820224999955</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
@@ -8203,7 +8203,7 @@
       </c>
       <c r="D157" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>25.538499999999999</v>
+        <v>25.533750000000001</v>
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
@@ -8218,26 +8218,26 @@
       </c>
       <c r="J157">
         <f t="shared" ca="1" si="22"/>
-        <v>1.9E-3</v>
+        <v>-3.2000000000000002E-3</v>
       </c>
       <c r="K157">
         <f t="shared" ca="1" si="23"/>
-        <v>4.5999999999999999E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="L157">
         <v>0.5</v>
       </c>
       <c r="M157">
         <f t="shared" ca="1" si="17"/>
-        <v>-2.4615000000000005</v>
+        <v>-2.4662500000000001</v>
       </c>
       <c r="N157">
         <f t="shared" ca="1" si="18"/>
-        <v>-8.7910714285714278</v>
+        <v>-8.8080357142857117</v>
       </c>
       <c r="O157">
         <f t="shared" ca="1" si="19"/>
-        <v>6.0589822500000023</v>
+        <v>6.0823890624999999</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
@@ -8252,7 +8252,7 @@
       </c>
       <c r="D158" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>35.621250000000003</v>
+        <v>35.946250000000006</v>
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
@@ -8267,26 +8267,26 @@
       </c>
       <c r="J158">
         <f t="shared" ca="1" si="22"/>
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="K158">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.28000000000000003</v>
+        <v>0.38</v>
       </c>
       <c r="L158">
         <v>0.5</v>
       </c>
       <c r="M158">
         <f t="shared" ca="1" si="17"/>
-        <v>-1.5787499999999999</v>
+        <v>-1.2537499999999997</v>
       </c>
       <c r="N158">
         <f t="shared" ca="1" si="18"/>
-        <v>-4.2439516129032189</v>
+        <v>-3.370295698924719</v>
       </c>
       <c r="O158">
         <f t="shared" ca="1" si="19"/>
-        <v>2.4924515624999994</v>
+        <v>1.5718890624999993</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
@@ -8301,7 +8301,7 @@
       </c>
       <c r="D159" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>75.466949999999997</v>
+        <v>74.661950000000004</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -8316,26 +8316,26 @@
       </c>
       <c r="J159">
         <f t="shared" ca="1" si="22"/>
-        <v>0.81</v>
+        <v>-0.69</v>
       </c>
       <c r="K159">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.46</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="L159">
         <v>0.5</v>
       </c>
       <c r="M159">
         <f t="shared" ca="1" si="17"/>
-        <v>2.666950000000003</v>
+        <v>1.8619500000000031</v>
       </c>
       <c r="N159">
         <f t="shared" ca="1" si="18"/>
-        <v>3.6633928571428553</v>
+        <v>2.5576236263736396</v>
       </c>
       <c r="O159">
         <f t="shared" ca="1" si="19"/>
-        <v>7.1126223025000161</v>
+        <v>3.4668578025000114</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
@@ -8350,7 +8350,7 @@
       </c>
       <c r="D160" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>92.779150000000001</v>
+        <v>92.114149999999995</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -8365,26 +8365,26 @@
       </c>
       <c r="J160">
         <f t="shared" ca="1" si="22"/>
-        <v>0.84</v>
+        <v>0.24</v>
       </c>
       <c r="K160">
         <f t="shared" ca="1" si="23"/>
-        <v>0.15</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="L160">
         <v>0.5</v>
       </c>
       <c r="M160">
         <f t="shared" ca="1" si="17"/>
-        <v>-2.5208500000000003</v>
+        <v>-3.1858500000000003</v>
       </c>
       <c r="N160">
         <f t="shared" ca="1" si="18"/>
-        <v>-2.6451731374606435</v>
+        <v>-3.3429695697796413</v>
       </c>
       <c r="O160">
         <f t="shared" ca="1" si="19"/>
-        <v>6.3546847225000009</v>
+        <v>10.149640222500002</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.3">
@@ -8399,7 +8399,7 @@
       </c>
       <c r="D161" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>71.998249999999999</v>
+        <v>73.103250000000003</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -8414,26 +8414,26 @@
       </c>
       <c r="J161">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.85</v>
+        <v>0.59</v>
       </c>
       <c r="K161">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.51</v>
+        <v>0.26</v>
       </c>
       <c r="L161">
         <v>0.5</v>
       </c>
       <c r="M161">
         <f t="shared" ca="1" si="17"/>
-        <v>-3.5017500000000013</v>
+        <v>-2.3967500000000017</v>
       </c>
       <c r="N161">
         <f t="shared" ca="1" si="18"/>
-        <v>-4.6380794701986749</v>
+        <v>-3.1745033112582699</v>
       </c>
       <c r="O161">
         <f t="shared" ca="1" si="19"/>
-        <v>12.262253062500008</v>
+        <v>5.7444105625000086</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.3">
@@ -8448,7 +8448,7 @@
       </c>
       <c r="D162" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>73.8399</v>
+        <v>73.579900000000009</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -8463,26 +8463,26 @@
       </c>
       <c r="J162">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.16</v>
+        <v>-0.74</v>
       </c>
       <c r="K162">
         <f t="shared" ca="1" si="23"/>
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
       <c r="L162">
         <v>0.5</v>
       </c>
       <c r="M162">
         <f t="shared" ca="1" si="17"/>
-        <v>0.13989999999999925</v>
+        <v>-0.12010000000000076</v>
       </c>
       <c r="N162">
         <f t="shared" ca="1" si="18"/>
-        <v>0.18982360922659147</v>
+        <v>-0.1629579375847956</v>
       </c>
       <c r="O162">
         <f t="shared" ca="1" si="19"/>
-        <v>1.9572009999999789E-2</v>
+        <v>1.4424010000000183E-2</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
@@ -8497,7 +8497,7 @@
       </c>
       <c r="D163" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>74.245149999999995</v>
+        <v>74.415149999999997</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -8512,26 +8512,26 @@
       </c>
       <c r="J163">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.28000000000000003</v>
+        <v>0.08</v>
       </c>
       <c r="K163">
         <f t="shared" ca="1" si="23"/>
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="L163">
         <v>0.5</v>
       </c>
       <c r="M163">
         <f t="shared" ca="1" si="17"/>
-        <v>0.84514999999999496</v>
+        <v>1.0151499999999951</v>
       </c>
       <c r="N163">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1514305177111606</v>
+        <v>1.3830381471389597</v>
       </c>
       <c r="O163">
         <f t="shared" ca="1" si="19"/>
-        <v>0.71427852249999146</v>
+        <v>1.03052952249999</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.3">
@@ -8546,7 +8546,7 @@
       </c>
       <c r="D164" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>71.862200000000001</v>
+        <v>71.052199999999999</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -8561,26 +8561,26 @@
       </c>
       <c r="J164">
         <f t="shared" ca="1" si="22"/>
-        <v>0.9</v>
+        <v>-0.73</v>
       </c>
       <c r="K164">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.24</v>
+        <v>-0.23</v>
       </c>
       <c r="L164">
         <v>0.5</v>
       </c>
       <c r="M164">
         <f t="shared" ca="1" si="17"/>
-        <v>-2.0378000000000025</v>
+        <v>-2.847800000000003</v>
       </c>
       <c r="N164">
         <f t="shared" ca="1" si="18"/>
-        <v>-2.7575101488498066</v>
+        <v>-3.8535859269282935</v>
       </c>
       <c r="O164">
         <f t="shared" ca="1" si="19"/>
-        <v>4.15262884000001</v>
+        <v>8.1099648400000177</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
@@ -8595,7 +8595,7 @@
       </c>
       <c r="D165" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>61.045300000000005</v>
+        <v>60.220300000000002</v>
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -8610,26 +8610,26 @@
       </c>
       <c r="J165">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.28000000000000003</v>
+        <v>-0.71</v>
       </c>
       <c r="K165">
         <f t="shared" ca="1" si="23"/>
-        <v>0.82</v>
+        <v>-0.4</v>
       </c>
       <c r="L165">
         <v>0.5</v>
       </c>
       <c r="M165">
         <f t="shared" ca="1" si="17"/>
-        <v>3.4453</v>
+        <v>2.6202999999999999</v>
       </c>
       <c r="N165">
         <f t="shared" ca="1" si="18"/>
-        <v>5.9814236111111141</v>
+        <v>4.54913194444444</v>
       </c>
       <c r="O165">
         <f t="shared" ca="1" si="19"/>
-        <v>11.87009209</v>
+        <v>6.8659720899999996</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="D166" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>60.1708</v>
+        <v>59.925799999999995</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -8659,26 +8659,26 @@
       </c>
       <c r="J166">
         <f t="shared" ca="1" si="22"/>
-        <v>0.62</v>
+        <v>0.89</v>
       </c>
       <c r="K166">
         <f t="shared" ca="1" si="23"/>
-        <v>0.65</v>
+        <v>-0.11</v>
       </c>
       <c r="L166">
         <v>0.5</v>
       </c>
       <c r="M166">
         <f t="shared" ca="1" si="17"/>
-        <v>2.2707999999999999</v>
+        <v>2.0257999999999994</v>
       </c>
       <c r="N166">
         <f t="shared" ca="1" si="18"/>
-        <v>3.9219343696027753</v>
+        <v>3.4987910189982596</v>
       </c>
       <c r="O166">
         <f t="shared" ca="1" si="19"/>
-        <v>5.15653264</v>
+        <v>4.1038656399999978</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.3">
@@ -8693,7 +8693,7 @@
       </c>
       <c r="D167" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>24.954049999999999</v>
+        <v>24.95365</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -8708,26 +8708,26 @@
       </c>
       <c r="J167">
         <f t="shared" ca="1" si="22"/>
-        <v>9.7999999999999997E-3</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="K167">
         <f t="shared" ca="1" si="23"/>
-        <v>-7.1000000000000004E-3</v>
+        <v>-5.8999999999999999E-3</v>
       </c>
       <c r="L167">
         <v>0.5</v>
       </c>
       <c r="M167">
         <f t="shared" ca="1" si="17"/>
-        <v>2.3540499999999986</v>
+        <v>2.3536499999999987</v>
       </c>
       <c r="N167">
         <f t="shared" ca="1" si="18"/>
-        <v>10.416150442477857</v>
+        <v>10.414380530973432</v>
       </c>
       <c r="O167">
         <f t="shared" ca="1" si="19"/>
-        <v>5.5415514024999935</v>
+        <v>5.5396683224999936</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.3">
@@ -8742,7 +8742,7 @@
       </c>
       <c r="D168" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>26.010349999999999</v>
+        <v>26.01135</v>
       </c>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
@@ -8757,26 +8757,26 @@
       </c>
       <c r="J168">
         <f t="shared" ca="1" si="22"/>
-        <v>6.8999999999999999E-3</v>
+        <v>-1.8E-3</v>
       </c>
       <c r="K168">
         <f t="shared" ca="1" si="23"/>
-        <v>-3.2000000000000002E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="L168">
         <v>0.5</v>
       </c>
       <c r="M168">
         <f t="shared" ca="1" si="17"/>
-        <v>2.6103500000000013</v>
+        <v>2.6113500000000012</v>
       </c>
       <c r="N168">
         <f t="shared" ca="1" si="18"/>
-        <v>11.155341880341885</v>
+        <v>11.159615384615385</v>
       </c>
       <c r="O168">
         <f t="shared" ca="1" si="19"/>
-        <v>6.8139271225000071</v>
+        <v>6.8191488225000061</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="D169" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>23.383500000000002</v>
+        <v>23.396699999999999</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -8806,26 +8806,26 @@
       </c>
       <c r="J169">
         <f t="shared" ca="1" si="22"/>
-        <v>-7.1999999999999998E-3</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="K169">
         <f t="shared" ca="1" si="23"/>
-        <v>-3.3E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="L169">
         <v>0.5</v>
       </c>
       <c r="M169">
         <f t="shared" ca="1" si="17"/>
-        <v>-1.0265000000000002</v>
+        <v>-1.0133000000000003</v>
       </c>
       <c r="N169">
         <f t="shared" ca="1" si="18"/>
-        <v>-4.2052437525604169</v>
+        <v>-4.1511675542810327</v>
       </c>
       <c r="O169">
         <f t="shared" ca="1" si="19"/>
-        <v>1.0537022500000004</v>
+        <v>1.0267768900000007</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.3">
@@ -8840,7 +8840,7 @@
       </c>
       <c r="D170" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>44.374499999999998</v>
+        <v>44.884499999999996</v>
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
@@ -8855,26 +8855,26 @@
       </c>
       <c r="J170">
         <f t="shared" ca="1" si="22"/>
-        <v>0.71</v>
+        <v>0.59</v>
       </c>
       <c r="K170">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.95</v>
+        <v>0.19</v>
       </c>
       <c r="L170">
         <v>0.5</v>
       </c>
       <c r="M170">
         <f t="shared" ca="1" si="17"/>
-        <v>1.7945000000000002</v>
+        <v>2.3045000000000004</v>
       </c>
       <c r="N170">
         <f t="shared" ca="1" si="18"/>
-        <v>4.2144199154532602</v>
+        <v>5.4121653358384147</v>
       </c>
       <c r="O170">
         <f t="shared" ca="1" si="19"/>
-        <v>3.2202302500000006</v>
+        <v>5.3107202500000019</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.3">
@@ -8889,7 +8889,7 @@
       </c>
       <c r="D171" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>23.549949999999999</v>
+        <v>23.5413</v>
       </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
@@ -8904,26 +8904,26 @@
       </c>
       <c r="J171">
         <f t="shared" ca="1" si="22"/>
-        <v>-9.7000000000000003E-3</v>
+        <v>-9.2999999999999992E-3</v>
       </c>
       <c r="K171">
         <f t="shared" ca="1" si="23"/>
-        <v>8.5000000000000006E-3</v>
+        <v>-9.1999999999999998E-3</v>
       </c>
       <c r="L171">
         <v>0.5</v>
       </c>
       <c r="M171">
         <f t="shared" ca="1" si="17"/>
-        <v>0.15994999999999887</v>
+        <v>0.15129999999999888</v>
       </c>
       <c r="N171">
         <f t="shared" ca="1" si="18"/>
-        <v>0.68383924754167325</v>
+        <v>0.64685763146643538</v>
       </c>
       <c r="O171">
         <f t="shared" ca="1" si="19"/>
-        <v>2.558400249999964E-2</v>
+        <v>2.2891689999999663E-2</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.3">
@@ -8938,7 +8938,7 @@
       </c>
       <c r="D172" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>86.055000000000007</v>
+        <v>85.960000000000008</v>
       </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
@@ -8953,26 +8953,26 @@
       </c>
       <c r="J172">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.4</v>
+        <v>0.15</v>
       </c>
       <c r="K172">
         <f t="shared" ca="1" si="23"/>
-        <v>0.78</v>
+        <v>0.04</v>
       </c>
       <c r="L172">
         <v>0.5</v>
       </c>
       <c r="M172">
         <f t="shared" ca="1" si="17"/>
-        <v>0.21499999999999858</v>
+        <v>0.11999999999999858</v>
       </c>
       <c r="N172">
         <f t="shared" ca="1" si="18"/>
-        <v>0.25046598322460145</v>
+        <v>0.13979496738119046</v>
       </c>
       <c r="O172">
         <f t="shared" ca="1" si="19"/>
-        <v>4.6224999999999392E-2</v>
+        <v>1.439999999999966E-2</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.3">
@@ -8987,7 +8987,7 @@
       </c>
       <c r="D173" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>26.124300000000002</v>
+        <v>26.115500000000001</v>
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -9002,26 +9002,26 @@
       </c>
       <c r="J173">
         <f t="shared" ca="1" si="22"/>
-        <v>-2.5000000000000001E-3</v>
+        <v>-5.8999999999999999E-3</v>
       </c>
       <c r="K173">
         <f t="shared" ca="1" si="23"/>
-        <v>5.7000000000000002E-3</v>
+        <v>-8.5000000000000006E-3</v>
       </c>
       <c r="L173">
         <v>0.5</v>
       </c>
       <c r="M173">
         <f t="shared" ca="1" si="17"/>
-        <v>0.84429999999999894</v>
+        <v>0.83549999999999891</v>
       </c>
       <c r="N173">
         <f t="shared" ca="1" si="18"/>
-        <v>3.339794303797472</v>
+        <v>3.3049841772151867</v>
       </c>
       <c r="O173">
         <f t="shared" ca="1" si="19"/>
-        <v>0.71284248999999822</v>
+        <v>0.69806024999999816</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.3">
@@ -9036,7 +9036,7 @@
       </c>
       <c r="D174" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>86.280850000000001</v>
+        <v>85.905850000000001</v>
       </c>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
@@ -9051,26 +9051,26 @@
       </c>
       <c r="J174">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.85</v>
+        <v>-0.04</v>
       </c>
       <c r="K174">
         <f t="shared" ca="1" si="23"/>
-        <v>0.93</v>
+        <v>-0.63</v>
       </c>
       <c r="L174">
         <v>0.5</v>
       </c>
       <c r="M174">
         <f t="shared" ca="1" si="17"/>
-        <v>-1.0991500000000007</v>
+        <v>-1.4741500000000007</v>
       </c>
       <c r="N174">
         <f t="shared" ca="1" si="18"/>
-        <v>-1.2578965438315381</v>
+        <v>-1.6870565346761235</v>
       </c>
       <c r="O174">
         <f t="shared" ca="1" si="19"/>
-        <v>1.2081307225000015</v>
+        <v>2.1731182225000021</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.3">
@@ -9085,7 +9085,7 @@
       </c>
       <c r="D175" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>21.952200000000001</v>
+        <v>21.950749999999999</v>
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -9100,26 +9100,26 @@
       </c>
       <c r="J175">
         <f t="shared" ca="1" si="22"/>
-        <v>2.5000000000000001E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="K175">
         <f t="shared" ca="1" si="23"/>
-        <v>2.5999999999999999E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="L175">
         <v>0.5</v>
       </c>
       <c r="M175">
         <f t="shared" ca="1" si="17"/>
-        <v>1.8922000000000014</v>
+        <v>1.8907500000000015</v>
       </c>
       <c r="N175">
         <f t="shared" ca="1" si="18"/>
-        <v>9.4327018943170629</v>
+        <v>9.4254735792622224</v>
       </c>
       <c r="O175">
         <f t="shared" ca="1" si="19"/>
-        <v>3.5804208400000053</v>
+        <v>3.5749355625000057</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
@@ -9134,7 +9134,7 @@
       </c>
       <c r="D176" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>50.756549999999997</v>
+        <v>52.216549999999998</v>
       </c>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
@@ -9149,26 +9149,26 @@
       </c>
       <c r="J176">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.42</v>
+        <v>0.76</v>
       </c>
       <c r="K176">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.91</v>
+        <v>0.83</v>
       </c>
       <c r="L176">
         <v>0.5</v>
       </c>
       <c r="M176">
         <f t="shared" ca="1" si="17"/>
-        <v>-1.7334500000000022</v>
+        <v>-0.27345000000000214</v>
       </c>
       <c r="N176">
         <f t="shared" ca="1" si="18"/>
-        <v>-3.3024385597256734</v>
+        <v>-0.52095637264241157</v>
       </c>
       <c r="O176">
         <f t="shared" ca="1" si="19"/>
-        <v>3.0048489025000076</v>
+        <v>7.477490250000117E-2</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.3">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="D177" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>26.021000000000001</v>
+        <v>26.009050000000002</v>
       </c>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
@@ -9198,26 +9198,26 @@
       </c>
       <c r="J177">
         <f t="shared" ca="1" si="22"/>
-        <v>6.8999999999999999E-3</v>
+        <v>-8.8000000000000005E-3</v>
       </c>
       <c r="K177">
         <f t="shared" ca="1" si="23"/>
-        <v>3.2000000000000002E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="L177">
         <v>0.5</v>
       </c>
       <c r="M177">
         <f t="shared" ca="1" si="17"/>
-        <v>0.62100000000000155</v>
+        <v>0.60905000000000165</v>
       </c>
       <c r="N177">
         <f t="shared" ca="1" si="18"/>
-        <v>2.4448818897637947</v>
+        <v>2.3978346456692945</v>
       </c>
       <c r="O177">
         <f t="shared" ca="1" si="19"/>
-        <v>0.3856410000000019</v>
+        <v>0.37094190250000203</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.3">
@@ -9232,7 +9232,7 @@
       </c>
       <c r="D178" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>85.653899999999993</v>
+        <v>86.288899999999998</v>
       </c>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
@@ -9247,26 +9247,26 @@
       </c>
       <c r="J178">
         <f t="shared" ca="1" si="22"/>
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="K178">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.99</v>
+        <v>0.39</v>
       </c>
       <c r="L178">
         <v>0.5</v>
       </c>
       <c r="M178">
         <f t="shared" ca="1" si="17"/>
-        <v>0.45389999999999653</v>
+        <v>1.0888999999999964</v>
       </c>
       <c r="N178">
         <f t="shared" ca="1" si="18"/>
-        <v>0.53274647887322502</v>
+        <v>1.2780516431924793</v>
       </c>
       <c r="O178">
         <f t="shared" ca="1" si="19"/>
-        <v>0.20602520999999685</v>
+        <v>1.1857032099999922</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.3">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="D179" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>49.452350000000003</v>
+        <v>49.157350000000001</v>
       </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
@@ -9296,26 +9296,26 @@
       </c>
       <c r="J179">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.08</v>
+        <v>0.77</v>
       </c>
       <c r="K179">
         <f t="shared" ca="1" si="23"/>
-        <v>0.92</v>
+        <v>-0.52</v>
       </c>
       <c r="L179">
         <v>0.5</v>
       </c>
       <c r="M179">
         <f t="shared" ca="1" si="17"/>
-        <v>6.3523499999999995</v>
+        <v>6.0573499999999996</v>
       </c>
       <c r="N179">
         <f t="shared" ca="1" si="18"/>
-        <v>14.738631090487232</v>
+        <v>14.054176334106728</v>
       </c>
       <c r="O179">
         <f t="shared" ca="1" si="19"/>
-        <v>40.352350522499997</v>
+        <v>36.691489022499994</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.3">
@@ -9330,7 +9330,7 @@
       </c>
       <c r="D180" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>40.5745</v>
+        <v>40.439500000000002</v>
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
@@ -9345,26 +9345,26 @@
       </c>
       <c r="J180">
         <f t="shared" ca="1" si="22"/>
-        <v>0.73</v>
+        <v>-0.6</v>
       </c>
       <c r="K180">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.92</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L180">
         <v>0.5</v>
       </c>
       <c r="M180">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.42550000000000071</v>
+        <v>-0.56050000000000066</v>
       </c>
       <c r="N180">
         <f t="shared" ca="1" si="18"/>
-        <v>-1.0378048780487759</v>
+        <v>-1.367073170731703</v>
       </c>
       <c r="O180">
         <f t="shared" ca="1" si="19"/>
-        <v>0.18105025000000061</v>
+        <v>0.31416025000000075</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.3">
@@ -9379,7 +9379,7 @@
       </c>
       <c r="D181" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>9.3797999999999995</v>
+        <v>9.3766999999999996</v>
       </c>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
@@ -9394,26 +9394,26 @@
       </c>
       <c r="J181">
         <f t="shared" ca="1" si="22"/>
-        <v>5.4999999999999997E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="K181">
         <f t="shared" ca="1" si="23"/>
-        <v>4.1999999999999997E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="L181">
         <v>0.5</v>
       </c>
       <c r="M181">
         <f t="shared" ca="1" si="17"/>
-        <v>1.3798000000000001</v>
+        <v>1.3767</v>
       </c>
       <c r="N181">
         <f t="shared" ca="1" si="18"/>
-        <v>17.247499999999995</v>
+        <v>17.208749999999995</v>
       </c>
       <c r="O181">
         <f t="shared" ca="1" si="19"/>
-        <v>1.9038480400000004</v>
+        <v>1.8953028900000002</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.3">
@@ -9428,7 +9428,7 @@
       </c>
       <c r="D182" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>56.867350000000002</v>
+        <v>56.82235</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
@@ -9443,26 +9443,26 @@
       </c>
       <c r="J182">
         <f t="shared" ca="1" si="22"/>
-        <v>0.67</v>
+        <v>0.01</v>
       </c>
       <c r="K182">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.74</v>
+        <v>-0.17</v>
       </c>
       <c r="L182">
         <v>0.5</v>
       </c>
       <c r="M182">
         <f t="shared" ca="1" si="17"/>
-        <v>-4.1326500000000017</v>
+        <v>-4.1776500000000016</v>
       </c>
       <c r="N182">
         <f t="shared" ca="1" si="18"/>
-        <v>-6.7748360655737638</v>
+        <v>-6.848606557377046</v>
       </c>
       <c r="O182">
         <f t="shared" ca="1" si="19"/>
-        <v>17.078796022500015</v>
+        <v>17.452759522500013</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.3">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="D183" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>15.921800000000001</v>
+        <v>15.9148</v>
       </c>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
@@ -9492,26 +9492,26 @@
       </c>
       <c r="J183">
         <f t="shared" ca="1" si="22"/>
-        <v>7.4999999999999997E-3</v>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="K183">
         <f t="shared" ca="1" si="23"/>
-        <v>5.0000000000000001E-3</v>
+        <v>-7.4000000000000003E-3</v>
       </c>
       <c r="L183">
         <v>0.5</v>
       </c>
       <c r="M183">
         <f t="shared" ca="1" si="17"/>
-        <v>-5.0781999999999998</v>
+        <v>-5.0852000000000004</v>
       </c>
       <c r="N183">
         <f t="shared" ca="1" si="18"/>
-        <v>-24.181904761904761</v>
+        <v>-24.215238095238099</v>
       </c>
       <c r="O183">
         <f t="shared" ca="1" si="19"/>
-        <v>25.78811524</v>
+        <v>25.859259040000005</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.3">
@@ -9526,7 +9526,7 @@
       </c>
       <c r="D184" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>31.229749999999999</v>
+        <v>31.233599999999999</v>
       </c>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
@@ -9541,26 +9541,26 @@
       </c>
       <c r="J184">
         <f t="shared" ca="1" si="22"/>
-        <v>4.0000000000000002E-4</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="K184">
         <f t="shared" ca="1" si="23"/>
-        <v>-8.8999999999999999E-3</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="L184">
         <v>0.5</v>
       </c>
       <c r="M184">
         <f t="shared" ca="1" si="17"/>
-        <v>2.0297500000000008</v>
+        <v>2.0336000000000007</v>
       </c>
       <c r="N184">
         <f t="shared" ca="1" si="18"/>
-        <v>6.9511986301369788</v>
+        <v>6.9643835616438388</v>
       </c>
       <c r="O184">
         <f t="shared" ca="1" si="19"/>
-        <v>4.1198850625000034</v>
+        <v>4.1355289600000029</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.3">
@@ -9575,7 +9575,7 @@
       </c>
       <c r="D185" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>44.720199999999998</v>
+        <v>45.360199999999999</v>
       </c>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
@@ -9590,26 +9590,26 @@
       </c>
       <c r="J185">
         <f t="shared" ca="1" si="22"/>
-        <v>0.08</v>
+        <v>0.65</v>
       </c>
       <c r="K185">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.82</v>
+        <v>-0.11</v>
       </c>
       <c r="L185">
         <v>0.5</v>
       </c>
       <c r="M185">
         <f t="shared" ca="1" si="17"/>
-        <v>0.42020000000000229</v>
+        <v>1.0602000000000023</v>
       </c>
       <c r="N185">
         <f t="shared" ca="1" si="18"/>
-        <v>0.94853273137698313</v>
+        <v>2.3932279909706589</v>
       </c>
       <c r="O185">
         <f t="shared" ca="1" si="19"/>
-        <v>0.17656804000000192</v>
+        <v>1.1240240400000048</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.3">
@@ -9624,7 +9624,7 @@
       </c>
       <c r="D186" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>45.888500000000001</v>
+        <v>46.103500000000004</v>
       </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
@@ -9639,26 +9639,26 @@
       </c>
       <c r="J186">
         <f t="shared" ca="1" si="22"/>
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="K186">
         <f t="shared" ca="1" si="23"/>
-        <v>-1</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L186">
         <v>0.5</v>
       </c>
       <c r="M186">
         <f t="shared" ca="1" si="17"/>
-        <v>-1.2115000000000007</v>
+        <v>-0.99650000000000061</v>
       </c>
       <c r="N186">
         <f t="shared" ca="1" si="18"/>
-        <v>-2.5721868365180534</v>
+        <v>-2.1157112526539179</v>
       </c>
       <c r="O186">
         <f t="shared" ca="1" si="19"/>
-        <v>1.4677322500000016</v>
+        <v>0.99301225000000126</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.3">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="D187" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>89.639600000000002</v>
+        <v>88.914599999999993</v>
       </c>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
@@ -9688,26 +9688,26 @@
       </c>
       <c r="J187">
         <f t="shared" ca="1" si="22"/>
-        <v>0.33</v>
+        <v>-0.47</v>
       </c>
       <c r="K187">
         <f t="shared" ca="1" si="23"/>
-        <v>0.47</v>
+        <v>-0.18</v>
       </c>
       <c r="L187">
         <v>0.5</v>
       </c>
       <c r="M187">
         <f t="shared" ca="1" si="17"/>
-        <v>3.9600000000001495E-2</v>
+        <v>-0.68539999999999845</v>
       </c>
       <c r="N187">
         <f t="shared" ca="1" si="18"/>
-        <v>4.4196428571430246E-2</v>
+        <v>-0.76495535714286023</v>
       </c>
       <c r="O187">
         <f t="shared" ca="1" si="19"/>
-        <v>1.5681600000001185E-3</v>
+        <v>0.46977315999999786</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.3">
@@ -9722,7 +9722,7 @@
       </c>
       <c r="D188" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>68.594999999999999</v>
+        <v>69.180000000000007</v>
       </c>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
@@ -9737,26 +9737,26 @@
       </c>
       <c r="J188">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.54</v>
+        <v>-0.89</v>
       </c>
       <c r="K188">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.57999999999999996</v>
+        <v>0.94</v>
       </c>
       <c r="L188">
         <v>0.5</v>
       </c>
       <c r="M188">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.30500000000000455</v>
+        <v>0.27999999999999542</v>
       </c>
       <c r="N188">
         <f t="shared" ca="1" si="18"/>
-        <v>-0.44267053701017023</v>
+        <v>0.40638606676342004</v>
       </c>
       <c r="O188">
         <f t="shared" ca="1" si="19"/>
-        <v>9.3025000000002772E-2</v>
+        <v>7.839999999999743E-2</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.3">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="D189" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>61.657649999999997</v>
+        <v>61.682650000000002</v>
       </c>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
@@ -9786,26 +9786,26 @@
       </c>
       <c r="J189">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.76</v>
+        <v>-1</v>
       </c>
       <c r="K189">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="L189">
         <v>0.5</v>
       </c>
       <c r="M189">
         <f t="shared" ca="1" si="17"/>
-        <v>-4.3423500000000006</v>
+        <v>-4.3173500000000002</v>
       </c>
       <c r="N189">
         <f t="shared" ca="1" si="18"/>
-        <v>-6.5793181818181834</v>
+        <v>-6.5414393939393856</v>
       </c>
       <c r="O189">
         <f t="shared" ca="1" si="19"/>
-        <v>18.856003522500004</v>
+        <v>18.639511022500002</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.3">
@@ -9820,7 +9820,7 @@
       </c>
       <c r="D190" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>65.64425</v>
+        <v>65.934250000000006</v>
       </c>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
@@ -9835,26 +9835,26 @@
       </c>
       <c r="J190">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.98</v>
+        <v>0.21</v>
       </c>
       <c r="K190">
         <f t="shared" ca="1" si="23"/>
-        <v>0.41</v>
+        <v>-0.2</v>
       </c>
       <c r="L190">
         <v>0.5</v>
       </c>
       <c r="M190">
         <f t="shared" ca="1" si="17"/>
-        <v>-2.8557500000000005</v>
+        <v>-2.5657500000000004</v>
       </c>
       <c r="N190">
         <f t="shared" ca="1" si="18"/>
-        <v>-4.1689781021897794</v>
+        <v>-3.7456204379561986</v>
       </c>
       <c r="O190">
         <f t="shared" ca="1" si="19"/>
-        <v>8.1553080625000032</v>
+        <v>6.5830730625000022</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.3">
@@ -9869,7 +9869,7 @@
       </c>
       <c r="D191" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>34.256599999999999</v>
+        <v>35.126600000000003</v>
       </c>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
@@ -9884,26 +9884,26 @@
       </c>
       <c r="J191">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.94</v>
+        <v>0.88</v>
       </c>
       <c r="K191">
         <f t="shared" ca="1" si="23"/>
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="L191">
         <v>0.5</v>
       </c>
       <c r="M191">
         <f t="shared" ca="1" si="17"/>
-        <v>0.15659999999999885</v>
+        <v>1.0265999999999988</v>
       </c>
       <c r="N191">
         <f t="shared" ca="1" si="18"/>
-        <v>0.45923753665688682</v>
+        <v>3.0105571847507395</v>
       </c>
       <c r="O191">
         <f t="shared" ca="1" si="19"/>
-        <v>2.4523559999999639E-2</v>
+        <v>1.0539075599999976</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.3">
@@ -9918,7 +9918,7 @@
       </c>
       <c r="D192" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>35.816000000000003</v>
+        <v>35.591000000000001</v>
       </c>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
@@ -9933,26 +9933,26 @@
       </c>
       <c r="J192">
         <f t="shared" ca="1" si="22"/>
-        <v>0.96</v>
+        <v>-0.08</v>
       </c>
       <c r="K192">
         <f t="shared" ca="1" si="23"/>
-        <v>0.2</v>
+        <v>0.79</v>
       </c>
       <c r="L192">
         <v>0.5</v>
       </c>
       <c r="M192">
         <f t="shared" ca="1" si="17"/>
-        <v>0.21599999999999922</v>
+        <v>-9.0000000000007296E-3</v>
       </c>
       <c r="N192">
         <f t="shared" ca="1" si="18"/>
-        <v>0.6067415730337089</v>
+        <v>-2.5280898876400837E-2</v>
       </c>
       <c r="O192">
         <f t="shared" ca="1" si="19"/>
-        <v>4.6655999999999663E-2</v>
+        <v>8.1000000000013136E-5</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.3">
@@ -9967,7 +9967,7 @@
       </c>
       <c r="D193" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>18.8078</v>
+        <v>18.811199999999999</v>
       </c>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
@@ -9982,26 +9982,26 @@
       </c>
       <c r="J193">
         <f t="shared" ca="1" si="22"/>
-        <v>-8.9999999999999998E-4</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="K193">
         <f t="shared" ca="1" si="23"/>
-        <v>-3.7000000000000002E-3</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="L193">
         <v>0.5</v>
       </c>
       <c r="M193">
         <f t="shared" ca="1" si="17"/>
-        <v>2.0077999999999996</v>
+        <v>2.0111999999999997</v>
       </c>
       <c r="N193">
         <f t="shared" ca="1" si="18"/>
-        <v>11.951190476190465</v>
+        <v>11.971428571428566</v>
       </c>
       <c r="O193">
         <f t="shared" ca="1" si="19"/>
-        <v>4.0312608399999981</v>
+        <v>4.0449254399999983</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.3">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="D194" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>27.854300000000002</v>
+        <v>27.858350000000002</v>
       </c>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
@@ -10031,26 +10031,26 @@
       </c>
       <c r="J194">
         <f t="shared" ca="1" si="22"/>
-        <v>-1.1999999999999999E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="K194">
         <f t="shared" ca="1" si="23"/>
-        <v>-8.9999999999999998E-4</v>
+        <v>0</v>
       </c>
       <c r="L194">
         <v>0.5</v>
       </c>
       <c r="M194">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2543</v>
+        <v>1.2583499999999999</v>
       </c>
       <c r="N194">
         <f t="shared" ca="1" si="18"/>
-        <v>4.7154135338345782</v>
+        <v>4.7306390977443602</v>
       </c>
       <c r="O194">
         <f t="shared" ca="1" si="19"/>
-        <v>1.57326849</v>
+        <v>1.5834447224999997</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.3">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="D195" s="4">
         <f t="shared" ref="D195:D209" ca="1" si="24">B195+M195</f>
-        <v>37.059249999999999</v>
+        <v>37.094249999999995</v>
       </c>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
@@ -10080,26 +10080,26 @@
       </c>
       <c r="J195">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.57999999999999996</v>
+        <v>0.05</v>
       </c>
       <c r="K195">
         <f t="shared" ca="1" si="23"/>
-        <v>-0.25</v>
+        <v>-0.81</v>
       </c>
       <c r="L195">
         <v>0.5</v>
       </c>
       <c r="M195">
         <f t="shared" ref="M195:M209" ca="1" si="25">(I195+J195+K195)*L195</f>
-        <v>-4.2407499999999994</v>
+        <v>-4.2057499999999992</v>
       </c>
       <c r="N195">
         <f t="shared" ref="N195:N209" ca="1" si="26">((D195/B195)-1)*100</f>
-        <v>-10.268159806295396</v>
+        <v>-10.183414043583539</v>
       </c>
       <c r="O195">
         <f t="shared" ref="O195:O209" ca="1" si="27">M195^2</f>
-        <v>17.983960562499995</v>
+        <v>17.688333062499993</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.3">
@@ -10114,7 +10114,7 @@
       </c>
       <c r="D196" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>56.739849999999997</v>
+        <v>56.659849999999999</v>
       </c>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
@@ -10129,26 +10129,26 @@
       </c>
       <c r="J196">
         <f t="shared" ref="J196:J209" ca="1" si="30">IF(B196 &lt; 30, RANDBETWEEN(-100, 100) / 10000, RANDBETWEEN(-100,100) / 100)</f>
-        <v>0.64</v>
+        <v>-0.66</v>
       </c>
       <c r="K196">
         <f t="shared" ref="K196:K209" ca="1" si="31">IF(B196 &lt; 30, RANDBETWEEN(-100, 100) / 10000, RANDBETWEEN(-100,100) / 100)</f>
-        <v>-0.15</v>
+        <v>0.99</v>
       </c>
       <c r="L196">
         <v>0.5</v>
       </c>
       <c r="M196">
         <f t="shared" ca="1" si="25"/>
-        <v>-1.5601499999999975</v>
+        <v>-1.6401499999999976</v>
       </c>
       <c r="N196">
         <f t="shared" ca="1" si="26"/>
-        <v>-2.6760720411663774</v>
+        <v>-2.8132933104631164</v>
       </c>
       <c r="O196">
         <f t="shared" ca="1" si="27"/>
-        <v>2.434068022499992</v>
+        <v>2.690092022499992</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.3">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="D197" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>14.132300000000001</v>
+        <v>14.12725</v>
       </c>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
@@ -10178,26 +10178,26 @@
       </c>
       <c r="J197">
         <f t="shared" ca="1" si="30"/>
-        <v>8.3000000000000001E-3</v>
+        <v>-3.5999999999999999E-3</v>
       </c>
       <c r="K197">
         <f t="shared" ca="1" si="31"/>
-        <v>-1.1999999999999999E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="L197">
         <v>0.5</v>
       </c>
       <c r="M197">
         <f t="shared" ca="1" si="25"/>
-        <v>7.6322999999999999</v>
+        <v>7.6272500000000001</v>
       </c>
       <c r="N197">
         <f t="shared" ca="1" si="26"/>
-        <v>117.41999999999999</v>
+        <v>117.34230769230768</v>
       </c>
       <c r="O197">
         <f t="shared" ca="1" si="27"/>
-        <v>58.252003289999998</v>
+        <v>58.1749425625</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.3">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="D198" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>60.754899999999999</v>
+        <v>60.594899999999996</v>
       </c>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
@@ -10227,26 +10227,26 @@
       </c>
       <c r="J198">
         <f t="shared" ca="1" si="30"/>
-        <v>-0.68</v>
+        <v>0.4</v>
       </c>
       <c r="K198">
         <f t="shared" ca="1" si="31"/>
-        <v>0.7</v>
+        <v>-0.7</v>
       </c>
       <c r="L198">
         <v>0.5</v>
       </c>
       <c r="M198">
         <f t="shared" ca="1" si="25"/>
-        <v>-1.0450999999999997</v>
+        <v>-1.2050999999999994</v>
       </c>
       <c r="N198">
         <f t="shared" ca="1" si="26"/>
-        <v>-1.6911003236245947</v>
+        <v>-1.9500000000000073</v>
       </c>
       <c r="O198">
         <f t="shared" ca="1" si="27"/>
-        <v>1.0922340099999994</v>
+        <v>1.4522660099999984</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.3">
@@ -10261,7 +10261,7 @@
       </c>
       <c r="D199" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>54.959150000000001</v>
+        <v>54.799149999999997</v>
       </c>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
@@ -10276,26 +10276,26 @@
       </c>
       <c r="J199">
         <f t="shared" ca="1" si="30"/>
-        <v>0.55000000000000004</v>
+        <v>-0.81</v>
       </c>
       <c r="K199">
         <f t="shared" ca="1" si="31"/>
-        <v>-0.98</v>
+        <v>0.06</v>
       </c>
       <c r="L199">
         <v>0.5</v>
       </c>
       <c r="M199">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.54084999999999905</v>
+        <v>-0.70084999999999908</v>
       </c>
       <c r="N199">
         <f t="shared" ca="1" si="26"/>
-        <v>-0.9745045045045031</v>
+        <v>-1.2627927927927995</v>
       </c>
       <c r="O199">
         <f t="shared" ca="1" si="27"/>
-        <v>0.292518722499999</v>
+        <v>0.49119072249999873</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.3">
@@ -10310,7 +10310,7 @@
       </c>
       <c r="D200" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>29.541150000000002</v>
+        <v>29.546600000000005</v>
       </c>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
@@ -10325,26 +10325,26 @@
       </c>
       <c r="J200">
         <f t="shared" ca="1" si="30"/>
-        <v>-6.1000000000000004E-3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="K200">
         <f t="shared" ca="1" si="31"/>
-        <v>-5.7000000000000002E-3</v>
+        <v>-4.7999999999999996E-3</v>
       </c>
       <c r="L200">
         <v>0.5</v>
       </c>
       <c r="M200">
         <f t="shared" ca="1" si="25"/>
-        <v>8.9411500000000004</v>
+        <v>8.9466000000000019</v>
       </c>
       <c r="N200">
         <f t="shared" ca="1" si="26"/>
-        <v>43.403640776699028</v>
+        <v>43.430097087378662</v>
       </c>
       <c r="O200">
         <f t="shared" ca="1" si="27"/>
-        <v>79.944163322500003</v>
+        <v>80.041651560000034</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.3">
@@ -10359,7 +10359,7 @@
       </c>
       <c r="D201" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>55.821999999999996</v>
+        <v>55.667000000000002</v>
       </c>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
@@ -10374,26 +10374,26 @@
       </c>
       <c r="J201">
         <f t="shared" ca="1" si="30"/>
-        <v>0.2</v>
+        <v>-0.54</v>
       </c>
       <c r="K201">
         <f t="shared" ca="1" si="31"/>
-        <v>-0.99</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="L201">
         <v>0.5</v>
       </c>
       <c r="M201">
         <f t="shared" ca="1" si="25"/>
-        <v>-0.67800000000000127</v>
+        <v>-0.83300000000000129</v>
       </c>
       <c r="N201">
         <f t="shared" ca="1" si="26"/>
-        <v>-1.2000000000000122</v>
+        <v>-1.4743362831858398</v>
       </c>
       <c r="O201">
         <f t="shared" ca="1" si="27"/>
-        <v>0.4596840000000017</v>
+        <v>0.6938890000000022</v>
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.3">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="D202" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>68.898200000000003</v>
+        <v>69.113200000000006</v>
       </c>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
@@ -10423,26 +10423,26 @@
       </c>
       <c r="J202">
         <f t="shared" ca="1" si="30"/>
-        <v>-0.28000000000000003</v>
+        <v>-0.42</v>
       </c>
       <c r="K202">
         <f t="shared" ca="1" si="31"/>
-        <v>0.26</v>
+        <v>0.83</v>
       </c>
       <c r="L202">
         <v>0.5</v>
       </c>
       <c r="M202">
         <f t="shared" ca="1" si="25"/>
-        <v>1.4981999999999949</v>
+        <v>1.7131999999999952</v>
       </c>
       <c r="N202">
         <f t="shared" ca="1" si="26"/>
-        <v>2.222848664688426</v>
+        <v>2.5418397626112865</v>
       </c>
       <c r="O202">
         <f t="shared" ca="1" si="27"/>
-        <v>2.2446032399999845</v>
+        <v>2.9350542399999835</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.3">
@@ -10457,7 +10457,7 @@
       </c>
       <c r="D203" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>52.7547</v>
+        <v>51.514699999999998</v>
       </c>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
@@ -10472,26 +10472,26 @@
       </c>
       <c r="J203">
         <f t="shared" ca="1" si="30"/>
-        <v>0.22</v>
+        <v>-0.91</v>
       </c>
       <c r="K203">
         <f t="shared" ca="1" si="31"/>
-        <v>0.92</v>
+        <v>-0.43</v>
       </c>
       <c r="L203">
         <v>0.5</v>
       </c>
       <c r="M203">
         <f t="shared" ca="1" si="25"/>
-        <v>3.7546999999999993</v>
+        <v>2.5146999999999995</v>
       </c>
       <c r="N203">
         <f t="shared" ca="1" si="26"/>
-        <v>7.6626530612244892</v>
+        <v>5.1320408163265219</v>
       </c>
       <c r="O203">
         <f t="shared" ca="1" si="27"/>
-        <v>14.097772089999994</v>
+        <v>6.3237160899999978</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.3">
@@ -10506,7 +10506,7 @@
       </c>
       <c r="D204" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>21.740549999999999</v>
+        <v>21.7423</v>
       </c>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
@@ -10521,26 +10521,26 @@
       </c>
       <c r="J204">
         <f t="shared" ca="1" si="30"/>
-        <v>-8.0000000000000002E-3</v>
+        <v>-1.1000000000000001E-3</v>
       </c>
       <c r="K204">
         <f t="shared" ca="1" si="31"/>
-        <v>-5.4000000000000003E-3</v>
+        <v>-8.8000000000000005E-3</v>
       </c>
       <c r="L204">
         <v>0.5</v>
       </c>
       <c r="M204">
         <f t="shared" ca="1" si="25"/>
-        <v>0.74054999999999926</v>
+        <v>0.74229999999999929</v>
       </c>
       <c r="N204">
         <f t="shared" ca="1" si="26"/>
-        <v>3.5264285714285748</v>
+        <v>3.5347619047618961</v>
       </c>
       <c r="O204">
         <f t="shared" ca="1" si="27"/>
-        <v>0.5484143024999989</v>
+        <v>0.55100928999999899</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.3">
@@ -10555,7 +10555,7 @@
       </c>
       <c r="D205" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>25.145</v>
+        <v>25.147949999999998</v>
       </c>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
@@ -10570,26 +10570,26 @@
       </c>
       <c r="J205">
         <f t="shared" ca="1" si="30"/>
-        <v>3.8E-3</v>
+        <v>-8.2000000000000007E-3</v>
       </c>
       <c r="K205">
         <f t="shared" ca="1" si="31"/>
-        <v>-0.01</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="L205">
         <v>0.5</v>
       </c>
       <c r="M205">
         <f t="shared" ca="1" si="25"/>
-        <v>1.745000000000001</v>
+        <v>1.7479500000000008</v>
       </c>
       <c r="N205">
         <f t="shared" ca="1" si="26"/>
-        <v>7.457264957264953</v>
+        <v>7.4698717948717963</v>
       </c>
       <c r="O205">
         <f t="shared" ca="1" si="27"/>
-        <v>3.0450250000000034</v>
+        <v>3.0553292025000029</v>
       </c>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.3">
@@ -10604,7 +10604,7 @@
       </c>
       <c r="D206" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>46.52825</v>
+        <v>46.573250000000002</v>
       </c>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
@@ -10619,26 +10619,26 @@
       </c>
       <c r="J206">
         <f t="shared" ca="1" si="30"/>
-        <v>0.98</v>
+        <v>0.38</v>
       </c>
       <c r="K206">
         <f t="shared" ca="1" si="31"/>
-        <v>-0.38</v>
+        <v>0.31</v>
       </c>
       <c r="L206">
         <v>0.5</v>
       </c>
       <c r="M206">
         <f t="shared" ca="1" si="25"/>
-        <v>1.2982500000000023</v>
+        <v>1.3432500000000023</v>
       </c>
       <c r="N206">
         <f t="shared" ca="1" si="26"/>
-        <v>2.870329427371221</v>
+        <v>2.969820915321697</v>
       </c>
       <c r="O206">
         <f t="shared" ca="1" si="27"/>
-        <v>1.6854530625000061</v>
+        <v>1.8043205625000061</v>
       </c>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.3">
@@ -10653,7 +10653,7 @@
       </c>
       <c r="D207" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>47.220950000000002</v>
+        <v>46.720950000000002</v>
       </c>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
@@ -10668,26 +10668,26 @@
       </c>
       <c r="J207">
         <f t="shared" ca="1" si="30"/>
-        <v>-0.27</v>
+        <v>0.46</v>
       </c>
       <c r="K207">
         <f t="shared" ca="1" si="31"/>
-        <v>0.77</v>
+        <v>-0.96</v>
       </c>
       <c r="L207">
         <v>0.5</v>
       </c>
       <c r="M207">
         <f t="shared" ca="1" si="25"/>
-        <v>-1.7790500000000014</v>
+        <v>-2.2790500000000016</v>
       </c>
       <c r="N207">
         <f t="shared" ca="1" si="26"/>
-        <v>-3.6307142857142871</v>
+        <v>-4.6511224489795833</v>
       </c>
       <c r="O207">
         <f t="shared" ca="1" si="27"/>
-        <v>3.1650189025000048</v>
+        <v>5.1940689025000069</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.3">
@@ -10702,7 +10702,7 @@
       </c>
       <c r="D208" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>45.284300000000002</v>
+        <v>44.804300000000005</v>
       </c>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
@@ -10717,26 +10717,26 @@
       </c>
       <c r="J208">
         <f t="shared" ca="1" si="30"/>
-        <v>0.92</v>
+        <v>0.18</v>
       </c>
       <c r="K208">
         <f t="shared" ca="1" si="31"/>
-        <v>-0.1</v>
+        <v>-0.32</v>
       </c>
       <c r="L208">
         <v>0.5</v>
       </c>
       <c r="M208">
         <f t="shared" ca="1" si="25"/>
-        <v>1.1843000000000001</v>
+        <v>0.70430000000000015</v>
       </c>
       <c r="N208">
         <f t="shared" ca="1" si="26"/>
-        <v>2.6854875283446766</v>
+        <v>1.5970521541950111</v>
       </c>
       <c r="O208">
         <f t="shared" ca="1" si="27"/>
-        <v>1.4025664900000003</v>
+        <v>0.49603849000000022</v>
       </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.3">
@@ -10751,7 +10751,7 @@
       </c>
       <c r="D209" s="4">
         <f t="shared" ca="1" si="24"/>
-        <v>69.258800000000008</v>
+        <v>68.888800000000003</v>
       </c>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
@@ -10766,26 +10766,26 @@
       </c>
       <c r="J209">
         <f t="shared" ca="1" si="30"/>
-        <v>0.19</v>
+        <v>-0.03</v>
       </c>
       <c r="K209">
         <f t="shared" ca="1" si="31"/>
-        <v>0.92</v>
+        <v>0.4</v>
       </c>
       <c r="L209">
         <v>0.5</v>
       </c>
       <c r="M209">
         <f t="shared" ca="1" si="25"/>
-        <v>0.25880000000000114</v>
+        <v>-0.11119999999999891</v>
       </c>
       <c r="N209">
         <f t="shared" ca="1" si="26"/>
-        <v>0.37507246376813352</v>
+        <v>-0.16115942028984698</v>
       </c>
       <c r="O209">
         <f t="shared" ca="1" si="27"/>
-        <v>6.6977440000000596E-2</v>
+        <v>1.2365439999999757E-2</v>
       </c>
     </row>
   </sheetData>
